--- a/wk/DB設計/001_テーブル定義/カラム名一覧.xlsx
+++ b/wk/DB設計/001_テーブル定義/カラム名一覧.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615A0E0F-B2D4-4E99-9CBA-FA666BA8537A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="カラムリスト" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="141">
   <si>
     <t>No</t>
     <phoneticPr fontId="3"/>
@@ -584,10 +583,6 @@
   </si>
   <si>
     <t>AppDate</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ApprovalDate</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -767,12 +762,193 @@
     <t>Ymd</t>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>文書区分</t>
+    <rPh sb="0" eb="2">
+      <t>ブンショ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DocKbn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コード定義の「申請ID」参照</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コード定義の「文書区分」参照</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブンショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>5/7説明追記(あきもと)</t>
+    <rPh sb="3" eb="5">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ツイキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>文書説明</t>
+    <rPh sb="0" eb="2">
+      <t>ブンショ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DocDescription</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ApprovalDate</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ApprovalDate</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>追加(あきもと)</t>
+    <rPh sb="0" eb="2">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ApprovalRoute</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>承認ルート</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コード定義の「承認ルート」参照</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コード定義の「承認ステータス」参照</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>承認ステータス</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ApprovalStatus</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>承認者ID</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承認日</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ApprovalUser</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>承認順位</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュンイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ApprovalOrder</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コード定義の「承認順位」参照</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュンイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -800,6 +976,13 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -843,7 +1026,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -856,6 +1039,10 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="56" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1136,47 +1323,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:G1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:H997"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39:F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="4.8125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="2" customWidth="1"/>
     <col min="2" max="3" width="17.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.8125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
     <col min="6" max="6" width="36.875" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" ht="17.75" customHeight="1">
+    <row r="3" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>109</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>110</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.75" customHeight="1">
+    <row r="4" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A4" s="5">
         <f>ROW()-3</f>
         <v>1</v>
@@ -1194,13 +1382,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="17.75" customHeight="1">
+    <row r="5" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A5" s="5">
-        <f t="shared" ref="A5:A68" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A65" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1216,11 +1404,11 @@
         <v>50</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" ht="17.75" customHeight="1">
+    <row r="6" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1238,11 +1426,11 @@
         <v>8</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" ht="17.75" customHeight="1">
+    <row r="7" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1260,11 +1448,11 @@
         <v>8</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7" ht="17.75" customHeight="1">
+    <row r="8" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1282,11 +1470,11 @@
         <v>8</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:7" ht="17.75" customHeight="1">
+    <row r="9" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1306,7 +1494,7 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="17.75" customHeight="1">
+    <row r="10" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1326,7 +1514,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="17.75" customHeight="1">
+    <row r="11" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1344,11 +1532,11 @@
         <v>6</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="17.75" customHeight="1">
+    <row r="12" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1366,11 +1554,11 @@
         <v>2</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:7" ht="17.75" customHeight="1">
+    <row r="13" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1390,7 +1578,7 @@
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="17.75" customHeight="1">
+    <row r="14" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1402,13 +1590,13 @@
         <v>75</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" ht="17.75" customHeight="1">
+    <row r="15" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1420,13 +1608,13 @@
         <v>76</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" ht="17.75" customHeight="1">
+    <row r="16" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1444,7 +1632,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" ht="17.75" customHeight="1">
+    <row r="17" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1462,7 +1650,7 @@
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" ht="17.75" customHeight="1">
+    <row r="18" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1480,7 +1668,7 @@
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" ht="17.75" customHeight="1">
+    <row r="19" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1498,7 +1686,7 @@
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" ht="17.75" customHeight="1">
+    <row r="20" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1518,7 +1706,7 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="17.75" customHeight="1">
+    <row r="21" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1538,7 +1726,7 @@
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="17.75" customHeight="1">
+    <row r="22" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1558,7 +1746,7 @@
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="17.75" customHeight="1">
+    <row r="23" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1578,7 +1766,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="17.75" customHeight="1">
+    <row r="24" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1596,11 +1784,11 @@
         <v>1</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="17.75" customHeight="1">
+    <row r="25" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1620,7 +1808,7 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="17.75" customHeight="1">
+    <row r="26" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1637,10 +1825,15 @@
       <c r="E26" s="4">
         <v>3</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="4" t="s">
+        <v>121</v>
+      </c>
       <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:7" ht="17.75" customHeight="1">
+      <c r="H26" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1660,7 +1853,7 @@
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="17.75" customHeight="1">
+    <row r="28" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1672,13 +1865,13 @@
         <v>93</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="17.75" customHeight="1">
+    <row r="29" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1687,16 +1880,16 @@
         <v>24</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>94</v>
+        <v>126</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="17.75" customHeight="1">
+    <row r="30" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1705,7 +1898,7 @@
         <v>25</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>65</v>
@@ -1714,20 +1907,20 @@
         <v>1</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="17.75" customHeight="1">
+    <row r="31" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>97</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>65</v>
@@ -1738,7 +1931,7 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="17.75" customHeight="1">
+    <row r="32" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1747,7 +1940,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>65</v>
@@ -1758,7 +1951,7 @@
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
-    <row r="33" spans="1:7" ht="17.75" customHeight="1">
+    <row r="33" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1770,13 +1963,13 @@
         <v>66</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
-    <row r="34" spans="1:7" ht="17.75" customHeight="1">
+    <row r="34" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1785,7 +1978,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>65</v>
@@ -1796,7 +1989,7 @@
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
-    <row r="35" spans="1:7" ht="17.75" customHeight="1">
+    <row r="35" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A35" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1805,16 +1998,16 @@
         <v>29</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
-    <row r="36" spans="1:7" ht="17.75" customHeight="1">
+    <row r="36" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A36" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1823,7 +2016,7 @@
         <v>30</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>65</v>
@@ -1834,7 +2027,7 @@
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
-    <row r="37" spans="1:7" ht="17.75" customHeight="1">
+    <row r="37" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A37" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1843,7 +2036,7 @@
         <v>31</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>65</v>
@@ -1852,20 +2045,20 @@
         <v>1</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G37" s="4"/>
     </row>
-    <row r="38" spans="1:7" ht="17.75" customHeight="1">
+    <row r="38" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A38" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>65</v>
@@ -1876,16 +2069,16 @@
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
-    <row r="39" spans="1:7" ht="17.75" customHeight="1">
+    <row r="39" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A39" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>65</v>
@@ -1894,95 +2087,192 @@
         <v>8</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G39" s="4"/>
     </row>
-    <row r="40" spans="1:7" ht="17.75" customHeight="1">
+    <row r="40" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A40" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" spans="1:7" ht="17.75" customHeight="1">
+      <c r="B40" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E40" s="4">
+        <v>2</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="G40" s="8">
+        <v>43227</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A41" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
+      <c r="B41" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="4">
+        <v>100</v>
+      </c>
       <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" spans="1:7" ht="17.75" customHeight="1">
+      <c r="G41" s="8">
+        <v>43227</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A42" s="5">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="1:7" ht="17.75" customHeight="1">
+      <c r="B42" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E42" s="4">
+        <v>1</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="8">
+        <v>43227</v>
+      </c>
+      <c r="H42" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A43" s="5">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="B43" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="4">
+        <v>10</v>
+      </c>
       <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" spans="1:7" ht="17.75" customHeight="1">
+      <c r="G43" s="8">
+        <v>43227</v>
+      </c>
+      <c r="H43" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A44" s="5">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
+      <c r="B44" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" spans="1:7" ht="17.75" customHeight="1">
+      <c r="G44" s="8">
+        <v>43227</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A45" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" spans="1:7" ht="17.75" customHeight="1">
+      <c r="B45" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E45" s="4">
+        <v>1</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" s="8">
+        <v>43227</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A46" s="5">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" spans="1:7" ht="17.75" customHeight="1">
+      <c r="B46" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G46" s="8">
+        <v>43227</v>
+      </c>
+      <c r="H46" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A47" s="5">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1994,7 +2284,7 @@
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
-    <row r="48" spans="1:7" ht="17.75" customHeight="1">
+    <row r="48" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A48" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2006,7 +2296,7 @@
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
-    <row r="49" spans="1:7" ht="17.75" customHeight="1">
+    <row r="49" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A49" s="5">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2018,7 +2308,7 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
-    <row r="50" spans="1:7" ht="17.75" customHeight="1">
+    <row r="50" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A50" s="5">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2030,7 +2320,7 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
     </row>
-    <row r="51" spans="1:7" ht="17.75" customHeight="1">
+    <row r="51" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A51" s="5">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2042,7 +2332,7 @@
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
     </row>
-    <row r="52" spans="1:7" ht="17.75" customHeight="1">
+    <row r="52" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A52" s="5">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2054,7 +2344,7 @@
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
-    <row r="53" spans="1:7" ht="17.75" customHeight="1">
+    <row r="53" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A53" s="5">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2066,7 +2356,7 @@
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
     </row>
-    <row r="54" spans="1:7" ht="17.75" customHeight="1">
+    <row r="54" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A54" s="5">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2078,7 +2368,7 @@
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
     </row>
-    <row r="55" spans="1:7" ht="17.75" customHeight="1">
+    <row r="55" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A55" s="5">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2090,7 +2380,7 @@
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
     </row>
-    <row r="56" spans="1:7" ht="17.75" customHeight="1">
+    <row r="56" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A56" s="5">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2102,7 +2392,7 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
-    <row r="57" spans="1:7" ht="17.75" customHeight="1">
+    <row r="57" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A57" s="5">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2114,7 +2404,7 @@
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
-    <row r="58" spans="1:7" ht="17.75" customHeight="1">
+    <row r="58" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A58" s="5">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2126,7 +2416,7 @@
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
-    <row r="59" spans="1:7" ht="17.75" customHeight="1">
+    <row r="59" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A59" s="5">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2138,7 +2428,7 @@
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
-    <row r="60" spans="1:7" ht="17.75" customHeight="1">
+    <row r="60" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A60" s="5">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2150,7 +2440,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:7" ht="17.75" customHeight="1">
+    <row r="61" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A61" s="5">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2162,7 +2452,7 @@
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
     </row>
-    <row r="62" spans="1:7" ht="17.75" customHeight="1">
+    <row r="62" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A62" s="5">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2174,7 +2464,7 @@
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
     </row>
-    <row r="63" spans="1:7" ht="17.75" customHeight="1">
+    <row r="63" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A63" s="5">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2186,7 +2476,7 @@
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
     </row>
-    <row r="64" spans="1:7" ht="17.75" customHeight="1">
+    <row r="64" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A64" s="5">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2198,7 +2488,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="1:7" ht="17.75" customHeight="1">
+    <row r="65" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A65" s="5">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2210,9 +2500,9 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:7" ht="17.75" customHeight="1">
+    <row r="66" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A66" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A66:A129" si="1">ROW()-3</f>
         <v>63</v>
       </c>
       <c r="B66" s="3"/>
@@ -2222,9 +2512,9 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7" ht="17.75" customHeight="1">
+    <row r="67" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A67" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="B67" s="3"/>
@@ -2234,9 +2524,9 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7" ht="17.75" customHeight="1">
+    <row r="68" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A68" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65</v>
       </c>
       <c r="B68" s="3"/>
@@ -2246,9 +2536,9 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7" ht="17.75" customHeight="1">
+    <row r="69" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A69" s="5">
-        <f t="shared" ref="A69:A132" si="1">ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="B69" s="3"/>
@@ -2258,7 +2548,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:7" ht="17.75" customHeight="1">
+    <row r="70" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A70" s="5">
         <f t="shared" si="1"/>
         <v>67</v>
@@ -2270,7 +2560,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" ht="17.75" customHeight="1">
+    <row r="71" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A71" s="5">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -2282,7 +2572,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" ht="17.75" customHeight="1">
+    <row r="72" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A72" s="5">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -2294,7 +2584,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:7" ht="17.75" customHeight="1">
+    <row r="73" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A73" s="5">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -2306,7 +2596,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:7" ht="17.75" customHeight="1">
+    <row r="74" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A74" s="5">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -2318,7 +2608,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:7" ht="17.75" customHeight="1">
+    <row r="75" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A75" s="5">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -2330,7 +2620,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:7" ht="17.75" customHeight="1">
+    <row r="76" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A76" s="5">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -2342,7 +2632,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:7" ht="17.75" customHeight="1">
+    <row r="77" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A77" s="5">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -2354,7 +2644,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:7" ht="17.75" customHeight="1">
+    <row r="78" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A78" s="5">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -2366,7 +2656,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:7" ht="17.75" customHeight="1">
+    <row r="79" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A79" s="5">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -2378,7 +2668,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7" ht="17.75" customHeight="1">
+    <row r="80" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A80" s="5">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -2390,7 +2680,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:7" ht="17.75" customHeight="1">
+    <row r="81" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A81" s="5">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -2402,7 +2692,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7" ht="17.75" customHeight="1">
+    <row r="82" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A82" s="5">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -2414,7 +2704,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="1:7" ht="17.75" customHeight="1">
+    <row r="83" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A83" s="5">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -2426,7 +2716,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:7" ht="17.75" customHeight="1">
+    <row r="84" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A84" s="5">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -2438,7 +2728,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="1:7" ht="17.75" customHeight="1">
+    <row r="85" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A85" s="5">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -2450,7 +2740,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="1:7" ht="17.75" customHeight="1">
+    <row r="86" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A86" s="5">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -2462,7 +2752,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="1:7" ht="17.75" customHeight="1">
+    <row r="87" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A87" s="5">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -2474,7 +2764,7 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:7" ht="17.75" customHeight="1">
+    <row r="88" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A88" s="5">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -2486,7 +2776,7 @@
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
     </row>
-    <row r="89" spans="1:7" ht="17.75" customHeight="1">
+    <row r="89" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A89" s="5">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -2498,7 +2788,7 @@
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
     </row>
-    <row r="90" spans="1:7" ht="17.75" customHeight="1">
+    <row r="90" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A90" s="5">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -2510,7 +2800,7 @@
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
     </row>
-    <row r="91" spans="1:7" ht="17.75" customHeight="1">
+    <row r="91" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A91" s="5">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -2522,7 +2812,7 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
     </row>
-    <row r="92" spans="1:7" ht="17.75" customHeight="1">
+    <row r="92" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A92" s="5">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -2534,7 +2824,7 @@
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
     </row>
-    <row r="93" spans="1:7" ht="17.75" customHeight="1">
+    <row r="93" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A93" s="5">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -2546,7 +2836,7 @@
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
     </row>
-    <row r="94" spans="1:7" ht="17.75" customHeight="1">
+    <row r="94" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A94" s="5">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -2558,7 +2848,7 @@
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
     </row>
-    <row r="95" spans="1:7" ht="17.75" customHeight="1">
+    <row r="95" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A95" s="5">
         <f t="shared" si="1"/>
         <v>92</v>
@@ -2570,7 +2860,7 @@
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
     </row>
-    <row r="96" spans="1:7" ht="17.75" customHeight="1">
+    <row r="96" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A96" s="5">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -2582,7 +2872,7 @@
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
     </row>
-    <row r="97" spans="1:7" ht="17.75" customHeight="1">
+    <row r="97" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A97" s="5">
         <f t="shared" si="1"/>
         <v>94</v>
@@ -2594,7 +2884,7 @@
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
     </row>
-    <row r="98" spans="1:7" ht="17.75" customHeight="1">
+    <row r="98" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A98" s="5">
         <f t="shared" si="1"/>
         <v>95</v>
@@ -2606,7 +2896,7 @@
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
     </row>
-    <row r="99" spans="1:7" ht="17.75" customHeight="1">
+    <row r="99" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A99" s="5">
         <f t="shared" si="1"/>
         <v>96</v>
@@ -2618,7 +2908,7 @@
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
     </row>
-    <row r="100" spans="1:7" ht="17.75" customHeight="1">
+    <row r="100" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A100" s="5">
         <f t="shared" si="1"/>
         <v>97</v>
@@ -2630,7 +2920,7 @@
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
     </row>
-    <row r="101" spans="1:7" ht="17.75" customHeight="1">
+    <row r="101" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A101" s="5">
         <f t="shared" si="1"/>
         <v>98</v>
@@ -2642,7 +2932,7 @@
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
     </row>
-    <row r="102" spans="1:7" ht="17.75" customHeight="1">
+    <row r="102" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A102" s="5">
         <f t="shared" si="1"/>
         <v>99</v>
@@ -2654,7 +2944,7 @@
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
     </row>
-    <row r="103" spans="1:7" ht="17.75" customHeight="1">
+    <row r="103" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A103" s="5">
         <f t="shared" si="1"/>
         <v>100</v>
@@ -2666,7 +2956,7 @@
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
     </row>
-    <row r="104" spans="1:7" ht="17.75" customHeight="1">
+    <row r="104" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A104" s="5">
         <f t="shared" si="1"/>
         <v>101</v>
@@ -2678,7 +2968,7 @@
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
     </row>
-    <row r="105" spans="1:7" ht="17.75" customHeight="1">
+    <row r="105" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A105" s="5">
         <f t="shared" si="1"/>
         <v>102</v>
@@ -2690,7 +2980,7 @@
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
     </row>
-    <row r="106" spans="1:7" ht="17.75" customHeight="1">
+    <row r="106" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A106" s="5">
         <f t="shared" si="1"/>
         <v>103</v>
@@ -2702,7 +2992,7 @@
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
     </row>
-    <row r="107" spans="1:7" ht="17.75" customHeight="1">
+    <row r="107" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A107" s="5">
         <f t="shared" si="1"/>
         <v>104</v>
@@ -2714,7 +3004,7 @@
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
     </row>
-    <row r="108" spans="1:7" ht="17.75" customHeight="1">
+    <row r="108" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A108" s="5">
         <f t="shared" si="1"/>
         <v>105</v>
@@ -2726,7 +3016,7 @@
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
     </row>
-    <row r="109" spans="1:7" ht="17.75" customHeight="1">
+    <row r="109" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A109" s="5">
         <f t="shared" si="1"/>
         <v>106</v>
@@ -2738,7 +3028,7 @@
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
     </row>
-    <row r="110" spans="1:7" ht="17.75" customHeight="1">
+    <row r="110" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A110" s="5">
         <f t="shared" si="1"/>
         <v>107</v>
@@ -2750,7 +3040,7 @@
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
     </row>
-    <row r="111" spans="1:7" ht="17.75" customHeight="1">
+    <row r="111" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A111" s="5">
         <f t="shared" si="1"/>
         <v>108</v>
@@ -2762,7 +3052,7 @@
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
     </row>
-    <row r="112" spans="1:7" ht="17.75" customHeight="1">
+    <row r="112" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A112" s="5">
         <f t="shared" si="1"/>
         <v>109</v>
@@ -2774,7 +3064,7 @@
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
     </row>
-    <row r="113" spans="1:7" ht="17.75" customHeight="1">
+    <row r="113" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A113" s="5">
         <f t="shared" si="1"/>
         <v>110</v>
@@ -2786,7 +3076,7 @@
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
     </row>
-    <row r="114" spans="1:7" ht="17.75" customHeight="1">
+    <row r="114" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A114" s="5">
         <f t="shared" si="1"/>
         <v>111</v>
@@ -2798,7 +3088,7 @@
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
     </row>
-    <row r="115" spans="1:7" ht="17.75" customHeight="1">
+    <row r="115" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A115" s="5">
         <f t="shared" si="1"/>
         <v>112</v>
@@ -2810,7 +3100,7 @@
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
     </row>
-    <row r="116" spans="1:7" ht="17.75" customHeight="1">
+    <row r="116" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A116" s="5">
         <f t="shared" si="1"/>
         <v>113</v>
@@ -2822,7 +3112,7 @@
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
     </row>
-    <row r="117" spans="1:7" ht="17.75" customHeight="1">
+    <row r="117" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A117" s="5">
         <f t="shared" si="1"/>
         <v>114</v>
@@ -2834,7 +3124,7 @@
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
     </row>
-    <row r="118" spans="1:7" ht="17.75" customHeight="1">
+    <row r="118" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A118" s="5">
         <f t="shared" si="1"/>
         <v>115</v>
@@ -2846,7 +3136,7 @@
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
     </row>
-    <row r="119" spans="1:7" ht="17.75" customHeight="1">
+    <row r="119" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A119" s="5">
         <f t="shared" si="1"/>
         <v>116</v>
@@ -2858,7 +3148,7 @@
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
     </row>
-    <row r="120" spans="1:7" ht="17.75" customHeight="1">
+    <row r="120" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A120" s="5">
         <f t="shared" si="1"/>
         <v>117</v>
@@ -2870,7 +3160,7 @@
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
     </row>
-    <row r="121" spans="1:7" ht="17.75" customHeight="1">
+    <row r="121" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A121" s="5">
         <f t="shared" si="1"/>
         <v>118</v>
@@ -2882,7 +3172,7 @@
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
     </row>
-    <row r="122" spans="1:7" ht="17.75" customHeight="1">
+    <row r="122" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A122" s="5">
         <f t="shared" si="1"/>
         <v>119</v>
@@ -2894,7 +3184,7 @@
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
     </row>
-    <row r="123" spans="1:7" ht="17.75" customHeight="1">
+    <row r="123" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A123" s="5">
         <f t="shared" si="1"/>
         <v>120</v>
@@ -2906,7 +3196,7 @@
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
     </row>
-    <row r="124" spans="1:7" ht="17.75" customHeight="1">
+    <row r="124" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A124" s="5">
         <f t="shared" si="1"/>
         <v>121</v>
@@ -2918,7 +3208,7 @@
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
     </row>
-    <row r="125" spans="1:7" ht="17.75" customHeight="1">
+    <row r="125" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A125" s="5">
         <f t="shared" si="1"/>
         <v>122</v>
@@ -2930,7 +3220,7 @@
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
     </row>
-    <row r="126" spans="1:7" ht="17.75" customHeight="1">
+    <row r="126" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A126" s="5">
         <f t="shared" si="1"/>
         <v>123</v>
@@ -2942,7 +3232,7 @@
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
     </row>
-    <row r="127" spans="1:7" ht="17.75" customHeight="1">
+    <row r="127" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A127" s="5">
         <f t="shared" si="1"/>
         <v>124</v>
@@ -2954,7 +3244,7 @@
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
     </row>
-    <row r="128" spans="1:7" ht="17.75" customHeight="1">
+    <row r="128" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A128" s="5">
         <f t="shared" si="1"/>
         <v>125</v>
@@ -2966,7 +3256,7 @@
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
     </row>
-    <row r="129" spans="1:7" ht="17.75" customHeight="1">
+    <row r="129" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A129" s="5">
         <f t="shared" si="1"/>
         <v>126</v>
@@ -2978,9 +3268,9 @@
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
     </row>
-    <row r="130" spans="1:7" ht="17.75" customHeight="1">
+    <row r="130" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A130" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A130:A193" si="2">ROW()-3</f>
         <v>127</v>
       </c>
       <c r="B130" s="3"/>
@@ -2990,9 +3280,9 @@
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
     </row>
-    <row r="131" spans="1:7" ht="17.75" customHeight="1">
+    <row r="131" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A131" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>128</v>
       </c>
       <c r="B131" s="3"/>
@@ -3002,9 +3292,9 @@
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
     </row>
-    <row r="132" spans="1:7" ht="17.75" customHeight="1">
+    <row r="132" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A132" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>129</v>
       </c>
       <c r="B132" s="3"/>
@@ -3014,9 +3304,9 @@
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
     </row>
-    <row r="133" spans="1:7" ht="17.75" customHeight="1">
+    <row r="133" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A133" s="5">
-        <f t="shared" ref="A133:A196" si="2">ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="B133" s="3"/>
@@ -3026,7 +3316,7 @@
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
     </row>
-    <row r="134" spans="1:7" ht="17.75" customHeight="1">
+    <row r="134" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A134" s="5">
         <f t="shared" si="2"/>
         <v>131</v>
@@ -3038,7 +3328,7 @@
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
     </row>
-    <row r="135" spans="1:7" ht="17.75" customHeight="1">
+    <row r="135" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A135" s="5">
         <f t="shared" si="2"/>
         <v>132</v>
@@ -3050,7 +3340,7 @@
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
     </row>
-    <row r="136" spans="1:7" ht="17.75" customHeight="1">
+    <row r="136" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A136" s="5">
         <f t="shared" si="2"/>
         <v>133</v>
@@ -3062,7 +3352,7 @@
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
     </row>
-    <row r="137" spans="1:7" ht="17.75" customHeight="1">
+    <row r="137" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A137" s="5">
         <f t="shared" si="2"/>
         <v>134</v>
@@ -3074,7 +3364,7 @@
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
     </row>
-    <row r="138" spans="1:7" ht="17.75" customHeight="1">
+    <row r="138" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A138" s="5">
         <f t="shared" si="2"/>
         <v>135</v>
@@ -3086,7 +3376,7 @@
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
     </row>
-    <row r="139" spans="1:7" ht="17.75" customHeight="1">
+    <row r="139" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A139" s="5">
         <f t="shared" si="2"/>
         <v>136</v>
@@ -3098,7 +3388,7 @@
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="1:7" ht="17.75" customHeight="1">
+    <row r="140" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A140" s="5">
         <f t="shared" si="2"/>
         <v>137</v>
@@ -3110,7 +3400,7 @@
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="1:7" ht="17.75" customHeight="1">
+    <row r="141" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A141" s="5">
         <f t="shared" si="2"/>
         <v>138</v>
@@ -3122,7 +3412,7 @@
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
     </row>
-    <row r="142" spans="1:7" ht="17.75" customHeight="1">
+    <row r="142" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A142" s="5">
         <f t="shared" si="2"/>
         <v>139</v>
@@ -3134,7 +3424,7 @@
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
     </row>
-    <row r="143" spans="1:7" ht="17.75" customHeight="1">
+    <row r="143" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A143" s="5">
         <f t="shared" si="2"/>
         <v>140</v>
@@ -3146,7 +3436,7 @@
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
     </row>
-    <row r="144" spans="1:7" ht="17.75" customHeight="1">
+    <row r="144" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A144" s="5">
         <f t="shared" si="2"/>
         <v>141</v>
@@ -3158,7 +3448,7 @@
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="1:7" ht="17.75" customHeight="1">
+    <row r="145" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A145" s="5">
         <f t="shared" si="2"/>
         <v>142</v>
@@ -3170,7 +3460,7 @@
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="1:7" ht="17.75" customHeight="1">
+    <row r="146" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A146" s="5">
         <f t="shared" si="2"/>
         <v>143</v>
@@ -3182,7 +3472,7 @@
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="1:7" ht="17.75" customHeight="1">
+    <row r="147" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A147" s="5">
         <f t="shared" si="2"/>
         <v>144</v>
@@ -3194,7 +3484,7 @@
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="1:7" ht="17.75" customHeight="1">
+    <row r="148" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A148" s="5">
         <f t="shared" si="2"/>
         <v>145</v>
@@ -3206,7 +3496,7 @@
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="1:7" ht="17.75" customHeight="1">
+    <row r="149" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A149" s="5">
         <f t="shared" si="2"/>
         <v>146</v>
@@ -3218,7 +3508,7 @@
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="1:7" ht="17.75" customHeight="1">
+    <row r="150" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A150" s="5">
         <f t="shared" si="2"/>
         <v>147</v>
@@ -3230,7 +3520,7 @@
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="1:7" ht="17.75" customHeight="1">
+    <row r="151" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A151" s="5">
         <f t="shared" si="2"/>
         <v>148</v>
@@ -3242,7 +3532,7 @@
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
     </row>
-    <row r="152" spans="1:7" ht="17.75" customHeight="1">
+    <row r="152" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A152" s="5">
         <f t="shared" si="2"/>
         <v>149</v>
@@ -3254,7 +3544,7 @@
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
     </row>
-    <row r="153" spans="1:7" ht="17.75" customHeight="1">
+    <row r="153" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A153" s="5">
         <f t="shared" si="2"/>
         <v>150</v>
@@ -3266,7 +3556,7 @@
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
     </row>
-    <row r="154" spans="1:7" ht="17.75" customHeight="1">
+    <row r="154" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A154" s="5">
         <f t="shared" si="2"/>
         <v>151</v>
@@ -3278,7 +3568,7 @@
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
     </row>
-    <row r="155" spans="1:7" ht="17.75" customHeight="1">
+    <row r="155" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A155" s="5">
         <f t="shared" si="2"/>
         <v>152</v>
@@ -3290,7 +3580,7 @@
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
     </row>
-    <row r="156" spans="1:7" ht="17.75" customHeight="1">
+    <row r="156" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A156" s="5">
         <f t="shared" si="2"/>
         <v>153</v>
@@ -3302,7 +3592,7 @@
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
     </row>
-    <row r="157" spans="1:7" ht="17.75" customHeight="1">
+    <row r="157" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A157" s="5">
         <f t="shared" si="2"/>
         <v>154</v>
@@ -3314,7 +3604,7 @@
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
     </row>
-    <row r="158" spans="1:7" ht="17.75" customHeight="1">
+    <row r="158" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A158" s="5">
         <f t="shared" si="2"/>
         <v>155</v>
@@ -3326,7 +3616,7 @@
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
     </row>
-    <row r="159" spans="1:7" ht="17.75" customHeight="1">
+    <row r="159" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A159" s="5">
         <f t="shared" si="2"/>
         <v>156</v>
@@ -3338,7 +3628,7 @@
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
     </row>
-    <row r="160" spans="1:7" ht="17.75" customHeight="1">
+    <row r="160" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A160" s="5">
         <f t="shared" si="2"/>
         <v>157</v>
@@ -3350,7 +3640,7 @@
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
     </row>
-    <row r="161" spans="1:7" ht="17.75" customHeight="1">
+    <row r="161" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A161" s="5">
         <f t="shared" si="2"/>
         <v>158</v>
@@ -3362,7 +3652,7 @@
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
     </row>
-    <row r="162" spans="1:7" ht="17.75" customHeight="1">
+    <row r="162" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A162" s="5">
         <f t="shared" si="2"/>
         <v>159</v>
@@ -3374,7 +3664,7 @@
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
     </row>
-    <row r="163" spans="1:7" ht="17.75" customHeight="1">
+    <row r="163" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A163" s="5">
         <f t="shared" si="2"/>
         <v>160</v>
@@ -3386,7 +3676,7 @@
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
     </row>
-    <row r="164" spans="1:7" ht="17.75" customHeight="1">
+    <row r="164" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A164" s="5">
         <f t="shared" si="2"/>
         <v>161</v>
@@ -3398,7 +3688,7 @@
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
     </row>
-    <row r="165" spans="1:7" ht="17.75" customHeight="1">
+    <row r="165" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A165" s="5">
         <f t="shared" si="2"/>
         <v>162</v>
@@ -3410,7 +3700,7 @@
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
     </row>
-    <row r="166" spans="1:7" ht="17.75" customHeight="1">
+    <row r="166" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A166" s="5">
         <f t="shared" si="2"/>
         <v>163</v>
@@ -3422,7 +3712,7 @@
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
     </row>
-    <row r="167" spans="1:7" ht="17.75" customHeight="1">
+    <row r="167" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A167" s="5">
         <f t="shared" si="2"/>
         <v>164</v>
@@ -3434,7 +3724,7 @@
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
     </row>
-    <row r="168" spans="1:7" ht="17.75" customHeight="1">
+    <row r="168" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A168" s="5">
         <f t="shared" si="2"/>
         <v>165</v>
@@ -3446,7 +3736,7 @@
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
     </row>
-    <row r="169" spans="1:7" ht="17.75" customHeight="1">
+    <row r="169" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A169" s="5">
         <f t="shared" si="2"/>
         <v>166</v>
@@ -3458,7 +3748,7 @@
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
     </row>
-    <row r="170" spans="1:7" ht="17.75" customHeight="1">
+    <row r="170" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A170" s="5">
         <f t="shared" si="2"/>
         <v>167</v>
@@ -3470,7 +3760,7 @@
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
     </row>
-    <row r="171" spans="1:7" ht="17.75" customHeight="1">
+    <row r="171" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A171" s="5">
         <f t="shared" si="2"/>
         <v>168</v>
@@ -3482,7 +3772,7 @@
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
     </row>
-    <row r="172" spans="1:7" ht="17.75" customHeight="1">
+    <row r="172" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A172" s="5">
         <f t="shared" si="2"/>
         <v>169</v>
@@ -3494,7 +3784,7 @@
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
     </row>
-    <row r="173" spans="1:7" ht="17.75" customHeight="1">
+    <row r="173" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A173" s="5">
         <f t="shared" si="2"/>
         <v>170</v>
@@ -3506,7 +3796,7 @@
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
     </row>
-    <row r="174" spans="1:7" ht="17.75" customHeight="1">
+    <row r="174" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A174" s="5">
         <f t="shared" si="2"/>
         <v>171</v>
@@ -3518,7 +3808,7 @@
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
     </row>
-    <row r="175" spans="1:7" ht="17.75" customHeight="1">
+    <row r="175" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A175" s="5">
         <f t="shared" si="2"/>
         <v>172</v>
@@ -3530,7 +3820,7 @@
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
     </row>
-    <row r="176" spans="1:7" ht="17.75" customHeight="1">
+    <row r="176" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A176" s="5">
         <f t="shared" si="2"/>
         <v>173</v>
@@ -3542,7 +3832,7 @@
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
     </row>
-    <row r="177" spans="1:7" ht="17.75" customHeight="1">
+    <row r="177" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A177" s="5">
         <f t="shared" si="2"/>
         <v>174</v>
@@ -3554,7 +3844,7 @@
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
     </row>
-    <row r="178" spans="1:7" ht="17.75" customHeight="1">
+    <row r="178" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A178" s="5">
         <f t="shared" si="2"/>
         <v>175</v>
@@ -3566,7 +3856,7 @@
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
     </row>
-    <row r="179" spans="1:7" ht="17.75" customHeight="1">
+    <row r="179" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A179" s="5">
         <f t="shared" si="2"/>
         <v>176</v>
@@ -3578,7 +3868,7 @@
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
     </row>
-    <row r="180" spans="1:7" ht="17.75" customHeight="1">
+    <row r="180" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A180" s="5">
         <f t="shared" si="2"/>
         <v>177</v>
@@ -3590,7 +3880,7 @@
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
     </row>
-    <row r="181" spans="1:7" ht="17.75" customHeight="1">
+    <row r="181" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A181" s="5">
         <f t="shared" si="2"/>
         <v>178</v>
@@ -3602,7 +3892,7 @@
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
     </row>
-    <row r="182" spans="1:7" ht="17.75" customHeight="1">
+    <row r="182" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A182" s="5">
         <f t="shared" si="2"/>
         <v>179</v>
@@ -3614,7 +3904,7 @@
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
     </row>
-    <row r="183" spans="1:7" ht="17.75" customHeight="1">
+    <row r="183" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A183" s="5">
         <f t="shared" si="2"/>
         <v>180</v>
@@ -3626,7 +3916,7 @@
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
     </row>
-    <row r="184" spans="1:7" ht="17.75" customHeight="1">
+    <row r="184" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A184" s="5">
         <f t="shared" si="2"/>
         <v>181</v>
@@ -3638,7 +3928,7 @@
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
     </row>
-    <row r="185" spans="1:7" ht="17.75" customHeight="1">
+    <row r="185" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A185" s="5">
         <f t="shared" si="2"/>
         <v>182</v>
@@ -3650,7 +3940,7 @@
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
     </row>
-    <row r="186" spans="1:7" ht="17.75" customHeight="1">
+    <row r="186" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A186" s="5">
         <f t="shared" si="2"/>
         <v>183</v>
@@ -3662,7 +3952,7 @@
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
     </row>
-    <row r="187" spans="1:7" ht="17.75" customHeight="1">
+    <row r="187" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A187" s="5">
         <f t="shared" si="2"/>
         <v>184</v>
@@ -3674,7 +3964,7 @@
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
     </row>
-    <row r="188" spans="1:7" ht="17.75" customHeight="1">
+    <row r="188" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A188" s="5">
         <f t="shared" si="2"/>
         <v>185</v>
@@ -3686,7 +3976,7 @@
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
     </row>
-    <row r="189" spans="1:7" ht="17.75" customHeight="1">
+    <row r="189" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A189" s="5">
         <f t="shared" si="2"/>
         <v>186</v>
@@ -3698,7 +3988,7 @@
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
     </row>
-    <row r="190" spans="1:7" ht="17.75" customHeight="1">
+    <row r="190" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A190" s="5">
         <f t="shared" si="2"/>
         <v>187</v>
@@ -3710,7 +4000,7 @@
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
     </row>
-    <row r="191" spans="1:7" ht="17.75" customHeight="1">
+    <row r="191" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A191" s="5">
         <f t="shared" si="2"/>
         <v>188</v>
@@ -3722,7 +4012,7 @@
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
     </row>
-    <row r="192" spans="1:7" ht="17.75" customHeight="1">
+    <row r="192" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A192" s="5">
         <f t="shared" si="2"/>
         <v>189</v>
@@ -3734,7 +4024,7 @@
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
     </row>
-    <row r="193" spans="1:7" ht="17.75" customHeight="1">
+    <row r="193" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A193" s="5">
         <f t="shared" si="2"/>
         <v>190</v>
@@ -3746,9 +4036,9 @@
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
     </row>
-    <row r="194" spans="1:7" ht="17.75" customHeight="1">
+    <row r="194" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A194" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A194:A257" si="3">ROW()-3</f>
         <v>191</v>
       </c>
       <c r="B194" s="3"/>
@@ -3758,9 +4048,9 @@
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
     </row>
-    <row r="195" spans="1:7" ht="17.75" customHeight="1">
+    <row r="195" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A195" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>192</v>
       </c>
       <c r="B195" s="3"/>
@@ -3770,9 +4060,9 @@
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
     </row>
-    <row r="196" spans="1:7" ht="17.75" customHeight="1">
+    <row r="196" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A196" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>193</v>
       </c>
       <c r="B196" s="3"/>
@@ -3782,9 +4072,9 @@
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
     </row>
-    <row r="197" spans="1:7" ht="17.75" customHeight="1">
+    <row r="197" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A197" s="5">
-        <f t="shared" ref="A197:A260" si="3">ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>194</v>
       </c>
       <c r="B197" s="3"/>
@@ -3794,7 +4084,7 @@
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
     </row>
-    <row r="198" spans="1:7" ht="17.75" customHeight="1">
+    <row r="198" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A198" s="5">
         <f t="shared" si="3"/>
         <v>195</v>
@@ -3806,7 +4096,7 @@
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
     </row>
-    <row r="199" spans="1:7" ht="17.75" customHeight="1">
+    <row r="199" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A199" s="5">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -3818,7 +4108,7 @@
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
     </row>
-    <row r="200" spans="1:7" ht="17.75" customHeight="1">
+    <row r="200" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A200" s="5">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -3830,7 +4120,7 @@
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
     </row>
-    <row r="201" spans="1:7" ht="17.75" customHeight="1">
+    <row r="201" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A201" s="5">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -3842,7 +4132,7 @@
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
     </row>
-    <row r="202" spans="1:7" ht="17.75" customHeight="1">
+    <row r="202" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A202" s="5">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -3854,7 +4144,7 @@
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
     </row>
-    <row r="203" spans="1:7" ht="17.75" customHeight="1">
+    <row r="203" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A203" s="5">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -3866,7 +4156,7 @@
       <c r="F203" s="4"/>
       <c r="G203" s="4"/>
     </row>
-    <row r="204" spans="1:7" ht="17.75" customHeight="1">
+    <row r="204" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A204" s="5">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -3878,7 +4168,7 @@
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
     </row>
-    <row r="205" spans="1:7" ht="17.75" customHeight="1">
+    <row r="205" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A205" s="5">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -3890,7 +4180,7 @@
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
     </row>
-    <row r="206" spans="1:7" ht="17.75" customHeight="1">
+    <row r="206" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A206" s="5">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -3902,7 +4192,7 @@
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
     </row>
-    <row r="207" spans="1:7" ht="17.75" customHeight="1">
+    <row r="207" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A207" s="5">
         <f t="shared" si="3"/>
         <v>204</v>
@@ -3914,7 +4204,7 @@
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
     </row>
-    <row r="208" spans="1:7" ht="17.75" customHeight="1">
+    <row r="208" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A208" s="5">
         <f t="shared" si="3"/>
         <v>205</v>
@@ -3926,7 +4216,7 @@
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
     </row>
-    <row r="209" spans="1:7" ht="17.75" customHeight="1">
+    <row r="209" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A209" s="5">
         <f t="shared" si="3"/>
         <v>206</v>
@@ -3938,7 +4228,7 @@
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
     </row>
-    <row r="210" spans="1:7" ht="17.75" customHeight="1">
+    <row r="210" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A210" s="5">
         <f t="shared" si="3"/>
         <v>207</v>
@@ -3950,7 +4240,7 @@
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
     </row>
-    <row r="211" spans="1:7" ht="17.75" customHeight="1">
+    <row r="211" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A211" s="5">
         <f t="shared" si="3"/>
         <v>208</v>
@@ -3962,7 +4252,7 @@
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
     </row>
-    <row r="212" spans="1:7" ht="17.75" customHeight="1">
+    <row r="212" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A212" s="5">
         <f t="shared" si="3"/>
         <v>209</v>
@@ -3974,7 +4264,7 @@
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
     </row>
-    <row r="213" spans="1:7" ht="17.75" customHeight="1">
+    <row r="213" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A213" s="5">
         <f t="shared" si="3"/>
         <v>210</v>
@@ -3986,7 +4276,7 @@
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
     </row>
-    <row r="214" spans="1:7" ht="17.75" customHeight="1">
+    <row r="214" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A214" s="5">
         <f t="shared" si="3"/>
         <v>211</v>
@@ -3998,7 +4288,7 @@
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
     </row>
-    <row r="215" spans="1:7" ht="17.75" customHeight="1">
+    <row r="215" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A215" s="5">
         <f t="shared" si="3"/>
         <v>212</v>
@@ -4010,7 +4300,7 @@
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
     </row>
-    <row r="216" spans="1:7" ht="17.75" customHeight="1">
+    <row r="216" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A216" s="5">
         <f t="shared" si="3"/>
         <v>213</v>
@@ -4022,7 +4312,7 @@
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
     </row>
-    <row r="217" spans="1:7" ht="17.75" customHeight="1">
+    <row r="217" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A217" s="5">
         <f t="shared" si="3"/>
         <v>214</v>
@@ -4034,7 +4324,7 @@
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
     </row>
-    <row r="218" spans="1:7" ht="17.75" customHeight="1">
+    <row r="218" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A218" s="5">
         <f t="shared" si="3"/>
         <v>215</v>
@@ -4046,7 +4336,7 @@
       <c r="F218" s="4"/>
       <c r="G218" s="4"/>
     </row>
-    <row r="219" spans="1:7" ht="17.75" customHeight="1">
+    <row r="219" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A219" s="5">
         <f t="shared" si="3"/>
         <v>216</v>
@@ -4058,7 +4348,7 @@
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
     </row>
-    <row r="220" spans="1:7" ht="17.75" customHeight="1">
+    <row r="220" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A220" s="5">
         <f t="shared" si="3"/>
         <v>217</v>
@@ -4070,7 +4360,7 @@
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
     </row>
-    <row r="221" spans="1:7" ht="17.75" customHeight="1">
+    <row r="221" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A221" s="5">
         <f t="shared" si="3"/>
         <v>218</v>
@@ -4082,7 +4372,7 @@
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
     </row>
-    <row r="222" spans="1:7" ht="17.75" customHeight="1">
+    <row r="222" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A222" s="5">
         <f t="shared" si="3"/>
         <v>219</v>
@@ -4094,7 +4384,7 @@
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
     </row>
-    <row r="223" spans="1:7" ht="17.75" customHeight="1">
+    <row r="223" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A223" s="5">
         <f t="shared" si="3"/>
         <v>220</v>
@@ -4106,7 +4396,7 @@
       <c r="F223" s="4"/>
       <c r="G223" s="4"/>
     </row>
-    <row r="224" spans="1:7" ht="17.75" customHeight="1">
+    <row r="224" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A224" s="5">
         <f t="shared" si="3"/>
         <v>221</v>
@@ -4118,7 +4408,7 @@
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
     </row>
-    <row r="225" spans="1:7" ht="17.75" customHeight="1">
+    <row r="225" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A225" s="5">
         <f t="shared" si="3"/>
         <v>222</v>
@@ -4130,7 +4420,7 @@
       <c r="F225" s="4"/>
       <c r="G225" s="4"/>
     </row>
-    <row r="226" spans="1:7" ht="17.75" customHeight="1">
+    <row r="226" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A226" s="5">
         <f t="shared" si="3"/>
         <v>223</v>
@@ -4142,7 +4432,7 @@
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
     </row>
-    <row r="227" spans="1:7" ht="17.75" customHeight="1">
+    <row r="227" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A227" s="5">
         <f t="shared" si="3"/>
         <v>224</v>
@@ -4154,7 +4444,7 @@
       <c r="F227" s="4"/>
       <c r="G227" s="4"/>
     </row>
-    <row r="228" spans="1:7" ht="17.75" customHeight="1">
+    <row r="228" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A228" s="5">
         <f t="shared" si="3"/>
         <v>225</v>
@@ -4166,7 +4456,7 @@
       <c r="F228" s="4"/>
       <c r="G228" s="4"/>
     </row>
-    <row r="229" spans="1:7" ht="17.75" customHeight="1">
+    <row r="229" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A229" s="5">
         <f t="shared" si="3"/>
         <v>226</v>
@@ -4178,7 +4468,7 @@
       <c r="F229" s="4"/>
       <c r="G229" s="4"/>
     </row>
-    <row r="230" spans="1:7" ht="17.75" customHeight="1">
+    <row r="230" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A230" s="5">
         <f t="shared" si="3"/>
         <v>227</v>
@@ -4190,7 +4480,7 @@
       <c r="F230" s="4"/>
       <c r="G230" s="4"/>
     </row>
-    <row r="231" spans="1:7" ht="17.75" customHeight="1">
+    <row r="231" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A231" s="5">
         <f t="shared" si="3"/>
         <v>228</v>
@@ -4202,7 +4492,7 @@
       <c r="F231" s="4"/>
       <c r="G231" s="4"/>
     </row>
-    <row r="232" spans="1:7" ht="17.75" customHeight="1">
+    <row r="232" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A232" s="5">
         <f t="shared" si="3"/>
         <v>229</v>
@@ -4214,7 +4504,7 @@
       <c r="F232" s="4"/>
       <c r="G232" s="4"/>
     </row>
-    <row r="233" spans="1:7" ht="17.75" customHeight="1">
+    <row r="233" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A233" s="5">
         <f t="shared" si="3"/>
         <v>230</v>
@@ -4226,7 +4516,7 @@
       <c r="F233" s="4"/>
       <c r="G233" s="4"/>
     </row>
-    <row r="234" spans="1:7" ht="17.75" customHeight="1">
+    <row r="234" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A234" s="5">
         <f t="shared" si="3"/>
         <v>231</v>
@@ -4238,7 +4528,7 @@
       <c r="F234" s="4"/>
       <c r="G234" s="4"/>
     </row>
-    <row r="235" spans="1:7" ht="17.75" customHeight="1">
+    <row r="235" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A235" s="5">
         <f t="shared" si="3"/>
         <v>232</v>
@@ -4250,7 +4540,7 @@
       <c r="F235" s="4"/>
       <c r="G235" s="4"/>
     </row>
-    <row r="236" spans="1:7" ht="17.75" customHeight="1">
+    <row r="236" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A236" s="5">
         <f t="shared" si="3"/>
         <v>233</v>
@@ -4262,7 +4552,7 @@
       <c r="F236" s="4"/>
       <c r="G236" s="4"/>
     </row>
-    <row r="237" spans="1:7" ht="17.75" customHeight="1">
+    <row r="237" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A237" s="5">
         <f t="shared" si="3"/>
         <v>234</v>
@@ -4274,7 +4564,7 @@
       <c r="F237" s="4"/>
       <c r="G237" s="4"/>
     </row>
-    <row r="238" spans="1:7" ht="17.75" customHeight="1">
+    <row r="238" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A238" s="5">
         <f t="shared" si="3"/>
         <v>235</v>
@@ -4286,7 +4576,7 @@
       <c r="F238" s="4"/>
       <c r="G238" s="4"/>
     </row>
-    <row r="239" spans="1:7" ht="17.75" customHeight="1">
+    <row r="239" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A239" s="5">
         <f t="shared" si="3"/>
         <v>236</v>
@@ -4298,7 +4588,7 @@
       <c r="F239" s="4"/>
       <c r="G239" s="4"/>
     </row>
-    <row r="240" spans="1:7" ht="17.75" customHeight="1">
+    <row r="240" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A240" s="5">
         <f t="shared" si="3"/>
         <v>237</v>
@@ -4310,7 +4600,7 @@
       <c r="F240" s="4"/>
       <c r="G240" s="4"/>
     </row>
-    <row r="241" spans="1:7" ht="17.75" customHeight="1">
+    <row r="241" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A241" s="5">
         <f t="shared" si="3"/>
         <v>238</v>
@@ -4322,7 +4612,7 @@
       <c r="F241" s="4"/>
       <c r="G241" s="4"/>
     </row>
-    <row r="242" spans="1:7" ht="17.75" customHeight="1">
+    <row r="242" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A242" s="5">
         <f t="shared" si="3"/>
         <v>239</v>
@@ -4334,7 +4624,7 @@
       <c r="F242" s="4"/>
       <c r="G242" s="4"/>
     </row>
-    <row r="243" spans="1:7" ht="17.75" customHeight="1">
+    <row r="243" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A243" s="5">
         <f t="shared" si="3"/>
         <v>240</v>
@@ -4346,7 +4636,7 @@
       <c r="F243" s="4"/>
       <c r="G243" s="4"/>
     </row>
-    <row r="244" spans="1:7" ht="17.75" customHeight="1">
+    <row r="244" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A244" s="5">
         <f t="shared" si="3"/>
         <v>241</v>
@@ -4358,7 +4648,7 @@
       <c r="F244" s="4"/>
       <c r="G244" s="4"/>
     </row>
-    <row r="245" spans="1:7" ht="17.75" customHeight="1">
+    <row r="245" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A245" s="5">
         <f t="shared" si="3"/>
         <v>242</v>
@@ -4370,7 +4660,7 @@
       <c r="F245" s="4"/>
       <c r="G245" s="4"/>
     </row>
-    <row r="246" spans="1:7" ht="17.75" customHeight="1">
+    <row r="246" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A246" s="5">
         <f t="shared" si="3"/>
         <v>243</v>
@@ -4382,7 +4672,7 @@
       <c r="F246" s="4"/>
       <c r="G246" s="4"/>
     </row>
-    <row r="247" spans="1:7" ht="17.75" customHeight="1">
+    <row r="247" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A247" s="5">
         <f t="shared" si="3"/>
         <v>244</v>
@@ -4394,7 +4684,7 @@
       <c r="F247" s="4"/>
       <c r="G247" s="4"/>
     </row>
-    <row r="248" spans="1:7" ht="17.75" customHeight="1">
+    <row r="248" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A248" s="5">
         <f t="shared" si="3"/>
         <v>245</v>
@@ -4406,7 +4696,7 @@
       <c r="F248" s="4"/>
       <c r="G248" s="4"/>
     </row>
-    <row r="249" spans="1:7" ht="17.75" customHeight="1">
+    <row r="249" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A249" s="5">
         <f t="shared" si="3"/>
         <v>246</v>
@@ -4418,7 +4708,7 @@
       <c r="F249" s="4"/>
       <c r="G249" s="4"/>
     </row>
-    <row r="250" spans="1:7" ht="17.75" customHeight="1">
+    <row r="250" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A250" s="5">
         <f t="shared" si="3"/>
         <v>247</v>
@@ -4430,7 +4720,7 @@
       <c r="F250" s="4"/>
       <c r="G250" s="4"/>
     </row>
-    <row r="251" spans="1:7" ht="17.75" customHeight="1">
+    <row r="251" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A251" s="5">
         <f t="shared" si="3"/>
         <v>248</v>
@@ -4442,7 +4732,7 @@
       <c r="F251" s="4"/>
       <c r="G251" s="4"/>
     </row>
-    <row r="252" spans="1:7" ht="17.75" customHeight="1">
+    <row r="252" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A252" s="5">
         <f t="shared" si="3"/>
         <v>249</v>
@@ -4454,7 +4744,7 @@
       <c r="F252" s="4"/>
       <c r="G252" s="4"/>
     </row>
-    <row r="253" spans="1:7" ht="17.75" customHeight="1">
+    <row r="253" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A253" s="5">
         <f t="shared" si="3"/>
         <v>250</v>
@@ -4466,7 +4756,7 @@
       <c r="F253" s="4"/>
       <c r="G253" s="4"/>
     </row>
-    <row r="254" spans="1:7" ht="17.75" customHeight="1">
+    <row r="254" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A254" s="5">
         <f t="shared" si="3"/>
         <v>251</v>
@@ -4478,7 +4768,7 @@
       <c r="F254" s="4"/>
       <c r="G254" s="4"/>
     </row>
-    <row r="255" spans="1:7" ht="17.75" customHeight="1">
+    <row r="255" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A255" s="5">
         <f t="shared" si="3"/>
         <v>252</v>
@@ -4490,7 +4780,7 @@
       <c r="F255" s="4"/>
       <c r="G255" s="4"/>
     </row>
-    <row r="256" spans="1:7" ht="17.75" customHeight="1">
+    <row r="256" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A256" s="5">
         <f t="shared" si="3"/>
         <v>253</v>
@@ -4502,7 +4792,7 @@
       <c r="F256" s="4"/>
       <c r="G256" s="4"/>
     </row>
-    <row r="257" spans="1:7" ht="17.75" customHeight="1">
+    <row r="257" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A257" s="5">
         <f t="shared" si="3"/>
         <v>254</v>
@@ -4514,9 +4804,9 @@
       <c r="F257" s="4"/>
       <c r="G257" s="4"/>
     </row>
-    <row r="258" spans="1:7" ht="17.75" customHeight="1">
+    <row r="258" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A258" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A258:A321" si="4">ROW()-3</f>
         <v>255</v>
       </c>
       <c r="B258" s="3"/>
@@ -4526,9 +4816,9 @@
       <c r="F258" s="4"/>
       <c r="G258" s="4"/>
     </row>
-    <row r="259" spans="1:7" ht="17.75" customHeight="1">
+    <row r="259" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A259" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>256</v>
       </c>
       <c r="B259" s="3"/>
@@ -4538,9 +4828,9 @@
       <c r="F259" s="4"/>
       <c r="G259" s="4"/>
     </row>
-    <row r="260" spans="1:7" ht="17.75" customHeight="1">
+    <row r="260" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A260" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>257</v>
       </c>
       <c r="B260" s="3"/>
@@ -4550,9 +4840,9 @@
       <c r="F260" s="4"/>
       <c r="G260" s="4"/>
     </row>
-    <row r="261" spans="1:7" ht="17.75" customHeight="1">
+    <row r="261" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A261" s="5">
-        <f t="shared" ref="A261:A324" si="4">ROW()-3</f>
+        <f t="shared" si="4"/>
         <v>258</v>
       </c>
       <c r="B261" s="3"/>
@@ -4562,7 +4852,7 @@
       <c r="F261" s="4"/>
       <c r="G261" s="4"/>
     </row>
-    <row r="262" spans="1:7" ht="17.75" customHeight="1">
+    <row r="262" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A262" s="5">
         <f t="shared" si="4"/>
         <v>259</v>
@@ -4574,7 +4864,7 @@
       <c r="F262" s="4"/>
       <c r="G262" s="4"/>
     </row>
-    <row r="263" spans="1:7" ht="17.75" customHeight="1">
+    <row r="263" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A263" s="5">
         <f t="shared" si="4"/>
         <v>260</v>
@@ -4586,7 +4876,7 @@
       <c r="F263" s="4"/>
       <c r="G263" s="4"/>
     </row>
-    <row r="264" spans="1:7" ht="17.75" customHeight="1">
+    <row r="264" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A264" s="5">
         <f t="shared" si="4"/>
         <v>261</v>
@@ -4598,7 +4888,7 @@
       <c r="F264" s="4"/>
       <c r="G264" s="4"/>
     </row>
-    <row r="265" spans="1:7" ht="17.75" customHeight="1">
+    <row r="265" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A265" s="5">
         <f t="shared" si="4"/>
         <v>262</v>
@@ -4610,7 +4900,7 @@
       <c r="F265" s="4"/>
       <c r="G265" s="4"/>
     </row>
-    <row r="266" spans="1:7" ht="17.75" customHeight="1">
+    <row r="266" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A266" s="5">
         <f t="shared" si="4"/>
         <v>263</v>
@@ -4622,7 +4912,7 @@
       <c r="F266" s="4"/>
       <c r="G266" s="4"/>
     </row>
-    <row r="267" spans="1:7" ht="17.75" customHeight="1">
+    <row r="267" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A267" s="5">
         <f t="shared" si="4"/>
         <v>264</v>
@@ -4634,7 +4924,7 @@
       <c r="F267" s="4"/>
       <c r="G267" s="4"/>
     </row>
-    <row r="268" spans="1:7" ht="17.75" customHeight="1">
+    <row r="268" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A268" s="5">
         <f t="shared" si="4"/>
         <v>265</v>
@@ -4646,7 +4936,7 @@
       <c r="F268" s="4"/>
       <c r="G268" s="4"/>
     </row>
-    <row r="269" spans="1:7" ht="17.75" customHeight="1">
+    <row r="269" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A269" s="5">
         <f t="shared" si="4"/>
         <v>266</v>
@@ -4658,7 +4948,7 @@
       <c r="F269" s="4"/>
       <c r="G269" s="4"/>
     </row>
-    <row r="270" spans="1:7" ht="17.75" customHeight="1">
+    <row r="270" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A270" s="5">
         <f t="shared" si="4"/>
         <v>267</v>
@@ -4670,7 +4960,7 @@
       <c r="F270" s="4"/>
       <c r="G270" s="4"/>
     </row>
-    <row r="271" spans="1:7" ht="17.75" customHeight="1">
+    <row r="271" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A271" s="5">
         <f t="shared" si="4"/>
         <v>268</v>
@@ -4682,7 +4972,7 @@
       <c r="F271" s="4"/>
       <c r="G271" s="4"/>
     </row>
-    <row r="272" spans="1:7" ht="17.75" customHeight="1">
+    <row r="272" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A272" s="5">
         <f t="shared" si="4"/>
         <v>269</v>
@@ -4694,7 +4984,7 @@
       <c r="F272" s="4"/>
       <c r="G272" s="4"/>
     </row>
-    <row r="273" spans="1:7" ht="17.75" customHeight="1">
+    <row r="273" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A273" s="5">
         <f t="shared" si="4"/>
         <v>270</v>
@@ -4706,7 +4996,7 @@
       <c r="F273" s="4"/>
       <c r="G273" s="4"/>
     </row>
-    <row r="274" spans="1:7" ht="17.75" customHeight="1">
+    <row r="274" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A274" s="5">
         <f t="shared" si="4"/>
         <v>271</v>
@@ -4718,7 +5008,7 @@
       <c r="F274" s="4"/>
       <c r="G274" s="4"/>
     </row>
-    <row r="275" spans="1:7" ht="17.75" customHeight="1">
+    <row r="275" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A275" s="5">
         <f t="shared" si="4"/>
         <v>272</v>
@@ -4730,7 +5020,7 @@
       <c r="F275" s="4"/>
       <c r="G275" s="4"/>
     </row>
-    <row r="276" spans="1:7" ht="17.75" customHeight="1">
+    <row r="276" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A276" s="5">
         <f t="shared" si="4"/>
         <v>273</v>
@@ -4742,7 +5032,7 @@
       <c r="F276" s="4"/>
       <c r="G276" s="4"/>
     </row>
-    <row r="277" spans="1:7" ht="17.75" customHeight="1">
+    <row r="277" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A277" s="5">
         <f t="shared" si="4"/>
         <v>274</v>
@@ -4754,7 +5044,7 @@
       <c r="F277" s="4"/>
       <c r="G277" s="4"/>
     </row>
-    <row r="278" spans="1:7" ht="17.75" customHeight="1">
+    <row r="278" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A278" s="5">
         <f t="shared" si="4"/>
         <v>275</v>
@@ -4766,7 +5056,7 @@
       <c r="F278" s="4"/>
       <c r="G278" s="4"/>
     </row>
-    <row r="279" spans="1:7" ht="17.75" customHeight="1">
+    <row r="279" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A279" s="5">
         <f t="shared" si="4"/>
         <v>276</v>
@@ -4778,7 +5068,7 @@
       <c r="F279" s="4"/>
       <c r="G279" s="4"/>
     </row>
-    <row r="280" spans="1:7" ht="17.75" customHeight="1">
+    <row r="280" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A280" s="5">
         <f t="shared" si="4"/>
         <v>277</v>
@@ -4790,7 +5080,7 @@
       <c r="F280" s="4"/>
       <c r="G280" s="4"/>
     </row>
-    <row r="281" spans="1:7" ht="17.75" customHeight="1">
+    <row r="281" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A281" s="5">
         <f t="shared" si="4"/>
         <v>278</v>
@@ -4802,7 +5092,7 @@
       <c r="F281" s="4"/>
       <c r="G281" s="4"/>
     </row>
-    <row r="282" spans="1:7" ht="17.75" customHeight="1">
+    <row r="282" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A282" s="5">
         <f t="shared" si="4"/>
         <v>279</v>
@@ -4814,7 +5104,7 @@
       <c r="F282" s="4"/>
       <c r="G282" s="4"/>
     </row>
-    <row r="283" spans="1:7" ht="17.75" customHeight="1">
+    <row r="283" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A283" s="5">
         <f t="shared" si="4"/>
         <v>280</v>
@@ -4826,7 +5116,7 @@
       <c r="F283" s="4"/>
       <c r="G283" s="4"/>
     </row>
-    <row r="284" spans="1:7" ht="17.75" customHeight="1">
+    <row r="284" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A284" s="5">
         <f t="shared" si="4"/>
         <v>281</v>
@@ -4838,7 +5128,7 @@
       <c r="F284" s="4"/>
       <c r="G284" s="4"/>
     </row>
-    <row r="285" spans="1:7" ht="17.75" customHeight="1">
+    <row r="285" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A285" s="5">
         <f t="shared" si="4"/>
         <v>282</v>
@@ -4850,7 +5140,7 @@
       <c r="F285" s="4"/>
       <c r="G285" s="4"/>
     </row>
-    <row r="286" spans="1:7" ht="17.75" customHeight="1">
+    <row r="286" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A286" s="5">
         <f t="shared" si="4"/>
         <v>283</v>
@@ -4862,7 +5152,7 @@
       <c r="F286" s="4"/>
       <c r="G286" s="4"/>
     </row>
-    <row r="287" spans="1:7" ht="17.75" customHeight="1">
+    <row r="287" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A287" s="5">
         <f t="shared" si="4"/>
         <v>284</v>
@@ -4874,7 +5164,7 @@
       <c r="F287" s="4"/>
       <c r="G287" s="4"/>
     </row>
-    <row r="288" spans="1:7" ht="17.75" customHeight="1">
+    <row r="288" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A288" s="5">
         <f t="shared" si="4"/>
         <v>285</v>
@@ -4886,7 +5176,7 @@
       <c r="F288" s="4"/>
       <c r="G288" s="4"/>
     </row>
-    <row r="289" spans="1:7" ht="17.75" customHeight="1">
+    <row r="289" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A289" s="5">
         <f t="shared" si="4"/>
         <v>286</v>
@@ -4898,7 +5188,7 @@
       <c r="F289" s="4"/>
       <c r="G289" s="4"/>
     </row>
-    <row r="290" spans="1:7" ht="17.75" customHeight="1">
+    <row r="290" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A290" s="5">
         <f t="shared" si="4"/>
         <v>287</v>
@@ -4910,7 +5200,7 @@
       <c r="F290" s="4"/>
       <c r="G290" s="4"/>
     </row>
-    <row r="291" spans="1:7" ht="17.75" customHeight="1">
+    <row r="291" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A291" s="5">
         <f t="shared" si="4"/>
         <v>288</v>
@@ -4922,7 +5212,7 @@
       <c r="F291" s="4"/>
       <c r="G291" s="4"/>
     </row>
-    <row r="292" spans="1:7" ht="17.75" customHeight="1">
+    <row r="292" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A292" s="5">
         <f t="shared" si="4"/>
         <v>289</v>
@@ -4934,7 +5224,7 @@
       <c r="F292" s="4"/>
       <c r="G292" s="4"/>
     </row>
-    <row r="293" spans="1:7" ht="17.75" customHeight="1">
+    <row r="293" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A293" s="5">
         <f t="shared" si="4"/>
         <v>290</v>
@@ -4946,7 +5236,7 @@
       <c r="F293" s="4"/>
       <c r="G293" s="4"/>
     </row>
-    <row r="294" spans="1:7" ht="17.75" customHeight="1">
+    <row r="294" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A294" s="5">
         <f t="shared" si="4"/>
         <v>291</v>
@@ -4958,7 +5248,7 @@
       <c r="F294" s="4"/>
       <c r="G294" s="4"/>
     </row>
-    <row r="295" spans="1:7" ht="17.75" customHeight="1">
+    <row r="295" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A295" s="5">
         <f t="shared" si="4"/>
         <v>292</v>
@@ -4970,7 +5260,7 @@
       <c r="F295" s="4"/>
       <c r="G295" s="4"/>
     </row>
-    <row r="296" spans="1:7" ht="17.75" customHeight="1">
+    <row r="296" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A296" s="5">
         <f t="shared" si="4"/>
         <v>293</v>
@@ -4982,7 +5272,7 @@
       <c r="F296" s="4"/>
       <c r="G296" s="4"/>
     </row>
-    <row r="297" spans="1:7" ht="17.75" customHeight="1">
+    <row r="297" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A297" s="5">
         <f t="shared" si="4"/>
         <v>294</v>
@@ -4994,7 +5284,7 @@
       <c r="F297" s="4"/>
       <c r="G297" s="4"/>
     </row>
-    <row r="298" spans="1:7" ht="17.75" customHeight="1">
+    <row r="298" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A298" s="5">
         <f t="shared" si="4"/>
         <v>295</v>
@@ -5006,7 +5296,7 @@
       <c r="F298" s="4"/>
       <c r="G298" s="4"/>
     </row>
-    <row r="299" spans="1:7" ht="17.75" customHeight="1">
+    <row r="299" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A299" s="5">
         <f t="shared" si="4"/>
         <v>296</v>
@@ -5018,7 +5308,7 @@
       <c r="F299" s="4"/>
       <c r="G299" s="4"/>
     </row>
-    <row r="300" spans="1:7" ht="17.75" customHeight="1">
+    <row r="300" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A300" s="5">
         <f t="shared" si="4"/>
         <v>297</v>
@@ -5030,7 +5320,7 @@
       <c r="F300" s="4"/>
       <c r="G300" s="4"/>
     </row>
-    <row r="301" spans="1:7" ht="17.75" customHeight="1">
+    <row r="301" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A301" s="5">
         <f t="shared" si="4"/>
         <v>298</v>
@@ -5042,7 +5332,7 @@
       <c r="F301" s="4"/>
       <c r="G301" s="4"/>
     </row>
-    <row r="302" spans="1:7" ht="17.75" customHeight="1">
+    <row r="302" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A302" s="5">
         <f t="shared" si="4"/>
         <v>299</v>
@@ -5054,7 +5344,7 @@
       <c r="F302" s="4"/>
       <c r="G302" s="4"/>
     </row>
-    <row r="303" spans="1:7" ht="17.75" customHeight="1">
+    <row r="303" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A303" s="5">
         <f t="shared" si="4"/>
         <v>300</v>
@@ -5066,7 +5356,7 @@
       <c r="F303" s="4"/>
       <c r="G303" s="4"/>
     </row>
-    <row r="304" spans="1:7" ht="17.75" customHeight="1">
+    <row r="304" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A304" s="5">
         <f t="shared" si="4"/>
         <v>301</v>
@@ -5078,7 +5368,7 @@
       <c r="F304" s="4"/>
       <c r="G304" s="4"/>
     </row>
-    <row r="305" spans="1:7" ht="17.75" customHeight="1">
+    <row r="305" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A305" s="5">
         <f t="shared" si="4"/>
         <v>302</v>
@@ -5090,7 +5380,7 @@
       <c r="F305" s="4"/>
       <c r="G305" s="4"/>
     </row>
-    <row r="306" spans="1:7" ht="17.75" customHeight="1">
+    <row r="306" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A306" s="5">
         <f t="shared" si="4"/>
         <v>303</v>
@@ -5102,7 +5392,7 @@
       <c r="F306" s="4"/>
       <c r="G306" s="4"/>
     </row>
-    <row r="307" spans="1:7" ht="17.75" customHeight="1">
+    <row r="307" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A307" s="5">
         <f t="shared" si="4"/>
         <v>304</v>
@@ -5114,7 +5404,7 @@
       <c r="F307" s="4"/>
       <c r="G307" s="4"/>
     </row>
-    <row r="308" spans="1:7" ht="17.75" customHeight="1">
+    <row r="308" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A308" s="5">
         <f t="shared" si="4"/>
         <v>305</v>
@@ -5126,7 +5416,7 @@
       <c r="F308" s="4"/>
       <c r="G308" s="4"/>
     </row>
-    <row r="309" spans="1:7" ht="17.75" customHeight="1">
+    <row r="309" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A309" s="5">
         <f t="shared" si="4"/>
         <v>306</v>
@@ -5138,7 +5428,7 @@
       <c r="F309" s="4"/>
       <c r="G309" s="4"/>
     </row>
-    <row r="310" spans="1:7" ht="17.75" customHeight="1">
+    <row r="310" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A310" s="5">
         <f t="shared" si="4"/>
         <v>307</v>
@@ -5150,7 +5440,7 @@
       <c r="F310" s="4"/>
       <c r="G310" s="4"/>
     </row>
-    <row r="311" spans="1:7" ht="17.75" customHeight="1">
+    <row r="311" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A311" s="5">
         <f t="shared" si="4"/>
         <v>308</v>
@@ -5162,7 +5452,7 @@
       <c r="F311" s="4"/>
       <c r="G311" s="4"/>
     </row>
-    <row r="312" spans="1:7" ht="17.75" customHeight="1">
+    <row r="312" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A312" s="5">
         <f t="shared" si="4"/>
         <v>309</v>
@@ -5174,7 +5464,7 @@
       <c r="F312" s="4"/>
       <c r="G312" s="4"/>
     </row>
-    <row r="313" spans="1:7" ht="17.75" customHeight="1">
+    <row r="313" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A313" s="5">
         <f t="shared" si="4"/>
         <v>310</v>
@@ -5186,7 +5476,7 @@
       <c r="F313" s="4"/>
       <c r="G313" s="4"/>
     </row>
-    <row r="314" spans="1:7" ht="17.75" customHeight="1">
+    <row r="314" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A314" s="5">
         <f t="shared" si="4"/>
         <v>311</v>
@@ -5198,7 +5488,7 @@
       <c r="F314" s="4"/>
       <c r="G314" s="4"/>
     </row>
-    <row r="315" spans="1:7" ht="17.75" customHeight="1">
+    <row r="315" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A315" s="5">
         <f t="shared" si="4"/>
         <v>312</v>
@@ -5210,7 +5500,7 @@
       <c r="F315" s="4"/>
       <c r="G315" s="4"/>
     </row>
-    <row r="316" spans="1:7" ht="17.75" customHeight="1">
+    <row r="316" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A316" s="5">
         <f t="shared" si="4"/>
         <v>313</v>
@@ -5222,7 +5512,7 @@
       <c r="F316" s="4"/>
       <c r="G316" s="4"/>
     </row>
-    <row r="317" spans="1:7" ht="17.75" customHeight="1">
+    <row r="317" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A317" s="5">
         <f t="shared" si="4"/>
         <v>314</v>
@@ -5234,7 +5524,7 @@
       <c r="F317" s="4"/>
       <c r="G317" s="4"/>
     </row>
-    <row r="318" spans="1:7" ht="17.75" customHeight="1">
+    <row r="318" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A318" s="5">
         <f t="shared" si="4"/>
         <v>315</v>
@@ -5246,7 +5536,7 @@
       <c r="F318" s="4"/>
       <c r="G318" s="4"/>
     </row>
-    <row r="319" spans="1:7" ht="17.75" customHeight="1">
+    <row r="319" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A319" s="5">
         <f t="shared" si="4"/>
         <v>316</v>
@@ -5258,7 +5548,7 @@
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
     </row>
-    <row r="320" spans="1:7" ht="17.75" customHeight="1">
+    <row r="320" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A320" s="5">
         <f t="shared" si="4"/>
         <v>317</v>
@@ -5270,7 +5560,7 @@
       <c r="F320" s="4"/>
       <c r="G320" s="4"/>
     </row>
-    <row r="321" spans="1:7" ht="17.75" customHeight="1">
+    <row r="321" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A321" s="5">
         <f t="shared" si="4"/>
         <v>318</v>
@@ -5282,9 +5572,9 @@
       <c r="F321" s="4"/>
       <c r="G321" s="4"/>
     </row>
-    <row r="322" spans="1:7" ht="17.75" customHeight="1">
+    <row r="322" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A322" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A322:A385" si="5">ROW()-3</f>
         <v>319</v>
       </c>
       <c r="B322" s="3"/>
@@ -5294,9 +5584,9 @@
       <c r="F322" s="4"/>
       <c r="G322" s="4"/>
     </row>
-    <row r="323" spans="1:7" ht="17.75" customHeight="1">
+    <row r="323" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A323" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>320</v>
       </c>
       <c r="B323" s="3"/>
@@ -5306,9 +5596,9 @@
       <c r="F323" s="4"/>
       <c r="G323" s="4"/>
     </row>
-    <row r="324" spans="1:7" ht="17.75" customHeight="1">
+    <row r="324" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A324" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>321</v>
       </c>
       <c r="B324" s="3"/>
@@ -5318,9 +5608,9 @@
       <c r="F324" s="4"/>
       <c r="G324" s="4"/>
     </row>
-    <row r="325" spans="1:7" ht="17.75" customHeight="1">
+    <row r="325" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A325" s="5">
-        <f t="shared" ref="A325:A388" si="5">ROW()-3</f>
+        <f t="shared" si="5"/>
         <v>322</v>
       </c>
       <c r="B325" s="3"/>
@@ -5330,7 +5620,7 @@
       <c r="F325" s="4"/>
       <c r="G325" s="4"/>
     </row>
-    <row r="326" spans="1:7" ht="17.75" customHeight="1">
+    <row r="326" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A326" s="5">
         <f t="shared" si="5"/>
         <v>323</v>
@@ -5342,7 +5632,7 @@
       <c r="F326" s="4"/>
       <c r="G326" s="4"/>
     </row>
-    <row r="327" spans="1:7" ht="17.75" customHeight="1">
+    <row r="327" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A327" s="5">
         <f t="shared" si="5"/>
         <v>324</v>
@@ -5354,7 +5644,7 @@
       <c r="F327" s="4"/>
       <c r="G327" s="4"/>
     </row>
-    <row r="328" spans="1:7" ht="17.75" customHeight="1">
+    <row r="328" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A328" s="5">
         <f t="shared" si="5"/>
         <v>325</v>
@@ -5366,7 +5656,7 @@
       <c r="F328" s="4"/>
       <c r="G328" s="4"/>
     </row>
-    <row r="329" spans="1:7" ht="17.75" customHeight="1">
+    <row r="329" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A329" s="5">
         <f t="shared" si="5"/>
         <v>326</v>
@@ -5378,7 +5668,7 @@
       <c r="F329" s="4"/>
       <c r="G329" s="4"/>
     </row>
-    <row r="330" spans="1:7" ht="17.75" customHeight="1">
+    <row r="330" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A330" s="5">
         <f t="shared" si="5"/>
         <v>327</v>
@@ -5390,7 +5680,7 @@
       <c r="F330" s="4"/>
       <c r="G330" s="4"/>
     </row>
-    <row r="331" spans="1:7" ht="17.75" customHeight="1">
+    <row r="331" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A331" s="5">
         <f t="shared" si="5"/>
         <v>328</v>
@@ -5402,7 +5692,7 @@
       <c r="F331" s="4"/>
       <c r="G331" s="4"/>
     </row>
-    <row r="332" spans="1:7" ht="17.75" customHeight="1">
+    <row r="332" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A332" s="5">
         <f t="shared" si="5"/>
         <v>329</v>
@@ -5414,7 +5704,7 @@
       <c r="F332" s="4"/>
       <c r="G332" s="4"/>
     </row>
-    <row r="333" spans="1:7" ht="17.75" customHeight="1">
+    <row r="333" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A333" s="5">
         <f t="shared" si="5"/>
         <v>330</v>
@@ -5426,7 +5716,7 @@
       <c r="F333" s="4"/>
       <c r="G333" s="4"/>
     </row>
-    <row r="334" spans="1:7" ht="17.75" customHeight="1">
+    <row r="334" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A334" s="5">
         <f t="shared" si="5"/>
         <v>331</v>
@@ -5438,7 +5728,7 @@
       <c r="F334" s="4"/>
       <c r="G334" s="4"/>
     </row>
-    <row r="335" spans="1:7" ht="17.75" customHeight="1">
+    <row r="335" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A335" s="5">
         <f t="shared" si="5"/>
         <v>332</v>
@@ -5450,7 +5740,7 @@
       <c r="F335" s="4"/>
       <c r="G335" s="4"/>
     </row>
-    <row r="336" spans="1:7" ht="17.75" customHeight="1">
+    <row r="336" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A336" s="5">
         <f t="shared" si="5"/>
         <v>333</v>
@@ -5462,7 +5752,7 @@
       <c r="F336" s="4"/>
       <c r="G336" s="4"/>
     </row>
-    <row r="337" spans="1:7" ht="17.75" customHeight="1">
+    <row r="337" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A337" s="5">
         <f t="shared" si="5"/>
         <v>334</v>
@@ -5474,7 +5764,7 @@
       <c r="F337" s="4"/>
       <c r="G337" s="4"/>
     </row>
-    <row r="338" spans="1:7" ht="17.75" customHeight="1">
+    <row r="338" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A338" s="5">
         <f t="shared" si="5"/>
         <v>335</v>
@@ -5486,7 +5776,7 @@
       <c r="F338" s="4"/>
       <c r="G338" s="4"/>
     </row>
-    <row r="339" spans="1:7" ht="17.75" customHeight="1">
+    <row r="339" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A339" s="5">
         <f t="shared" si="5"/>
         <v>336</v>
@@ -5498,7 +5788,7 @@
       <c r="F339" s="4"/>
       <c r="G339" s="4"/>
     </row>
-    <row r="340" spans="1:7" ht="17.75" customHeight="1">
+    <row r="340" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A340" s="5">
         <f t="shared" si="5"/>
         <v>337</v>
@@ -5510,7 +5800,7 @@
       <c r="F340" s="4"/>
       <c r="G340" s="4"/>
     </row>
-    <row r="341" spans="1:7" ht="17.75" customHeight="1">
+    <row r="341" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A341" s="5">
         <f t="shared" si="5"/>
         <v>338</v>
@@ -5522,7 +5812,7 @@
       <c r="F341" s="4"/>
       <c r="G341" s="4"/>
     </row>
-    <row r="342" spans="1:7" ht="17.75" customHeight="1">
+    <row r="342" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A342" s="5">
         <f t="shared" si="5"/>
         <v>339</v>
@@ -5534,7 +5824,7 @@
       <c r="F342" s="4"/>
       <c r="G342" s="4"/>
     </row>
-    <row r="343" spans="1:7" ht="17.75" customHeight="1">
+    <row r="343" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A343" s="5">
         <f t="shared" si="5"/>
         <v>340</v>
@@ -5546,7 +5836,7 @@
       <c r="F343" s="4"/>
       <c r="G343" s="4"/>
     </row>
-    <row r="344" spans="1:7" ht="17.75" customHeight="1">
+    <row r="344" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A344" s="5">
         <f t="shared" si="5"/>
         <v>341</v>
@@ -5558,7 +5848,7 @@
       <c r="F344" s="4"/>
       <c r="G344" s="4"/>
     </row>
-    <row r="345" spans="1:7" ht="17.75" customHeight="1">
+    <row r="345" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A345" s="5">
         <f t="shared" si="5"/>
         <v>342</v>
@@ -5570,7 +5860,7 @@
       <c r="F345" s="4"/>
       <c r="G345" s="4"/>
     </row>
-    <row r="346" spans="1:7" ht="17.75" customHeight="1">
+    <row r="346" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A346" s="5">
         <f t="shared" si="5"/>
         <v>343</v>
@@ -5582,7 +5872,7 @@
       <c r="F346" s="4"/>
       <c r="G346" s="4"/>
     </row>
-    <row r="347" spans="1:7" ht="17.75" customHeight="1">
+    <row r="347" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A347" s="5">
         <f t="shared" si="5"/>
         <v>344</v>
@@ -5594,7 +5884,7 @@
       <c r="F347" s="4"/>
       <c r="G347" s="4"/>
     </row>
-    <row r="348" spans="1:7" ht="17.75" customHeight="1">
+    <row r="348" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A348" s="5">
         <f t="shared" si="5"/>
         <v>345</v>
@@ -5606,7 +5896,7 @@
       <c r="F348" s="4"/>
       <c r="G348" s="4"/>
     </row>
-    <row r="349" spans="1:7" ht="17.75" customHeight="1">
+    <row r="349" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A349" s="5">
         <f t="shared" si="5"/>
         <v>346</v>
@@ -5618,7 +5908,7 @@
       <c r="F349" s="4"/>
       <c r="G349" s="4"/>
     </row>
-    <row r="350" spans="1:7" ht="17.75" customHeight="1">
+    <row r="350" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A350" s="5">
         <f t="shared" si="5"/>
         <v>347</v>
@@ -5630,7 +5920,7 @@
       <c r="F350" s="4"/>
       <c r="G350" s="4"/>
     </row>
-    <row r="351" spans="1:7" ht="17.75" customHeight="1">
+    <row r="351" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A351" s="5">
         <f t="shared" si="5"/>
         <v>348</v>
@@ -5642,7 +5932,7 @@
       <c r="F351" s="4"/>
       <c r="G351" s="4"/>
     </row>
-    <row r="352" spans="1:7" ht="17.75" customHeight="1">
+    <row r="352" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A352" s="5">
         <f t="shared" si="5"/>
         <v>349</v>
@@ -5654,7 +5944,7 @@
       <c r="F352" s="4"/>
       <c r="G352" s="4"/>
     </row>
-    <row r="353" spans="1:7" ht="17.75" customHeight="1">
+    <row r="353" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A353" s="5">
         <f t="shared" si="5"/>
         <v>350</v>
@@ -5666,7 +5956,7 @@
       <c r="F353" s="4"/>
       <c r="G353" s="4"/>
     </row>
-    <row r="354" spans="1:7" ht="17.75" customHeight="1">
+    <row r="354" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A354" s="5">
         <f t="shared" si="5"/>
         <v>351</v>
@@ -5678,7 +5968,7 @@
       <c r="F354" s="4"/>
       <c r="G354" s="4"/>
     </row>
-    <row r="355" spans="1:7" ht="17.75" customHeight="1">
+    <row r="355" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A355" s="5">
         <f t="shared" si="5"/>
         <v>352</v>
@@ -5690,7 +5980,7 @@
       <c r="F355" s="4"/>
       <c r="G355" s="4"/>
     </row>
-    <row r="356" spans="1:7" ht="17.75" customHeight="1">
+    <row r="356" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A356" s="5">
         <f t="shared" si="5"/>
         <v>353</v>
@@ -5702,7 +5992,7 @@
       <c r="F356" s="4"/>
       <c r="G356" s="4"/>
     </row>
-    <row r="357" spans="1:7" ht="17.75" customHeight="1">
+    <row r="357" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A357" s="5">
         <f t="shared" si="5"/>
         <v>354</v>
@@ -5714,7 +6004,7 @@
       <c r="F357" s="4"/>
       <c r="G357" s="4"/>
     </row>
-    <row r="358" spans="1:7" ht="17.75" customHeight="1">
+    <row r="358" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A358" s="5">
         <f t="shared" si="5"/>
         <v>355</v>
@@ -5726,7 +6016,7 @@
       <c r="F358" s="4"/>
       <c r="G358" s="4"/>
     </row>
-    <row r="359" spans="1:7" ht="17.75" customHeight="1">
+    <row r="359" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A359" s="5">
         <f t="shared" si="5"/>
         <v>356</v>
@@ -5738,7 +6028,7 @@
       <c r="F359" s="4"/>
       <c r="G359" s="4"/>
     </row>
-    <row r="360" spans="1:7" ht="17.75" customHeight="1">
+    <row r="360" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A360" s="5">
         <f t="shared" si="5"/>
         <v>357</v>
@@ -5750,7 +6040,7 @@
       <c r="F360" s="4"/>
       <c r="G360" s="4"/>
     </row>
-    <row r="361" spans="1:7" ht="17.75" customHeight="1">
+    <row r="361" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A361" s="5">
         <f t="shared" si="5"/>
         <v>358</v>
@@ -5762,7 +6052,7 @@
       <c r="F361" s="4"/>
       <c r="G361" s="4"/>
     </row>
-    <row r="362" spans="1:7" ht="17.75" customHeight="1">
+    <row r="362" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A362" s="5">
         <f t="shared" si="5"/>
         <v>359</v>
@@ -5774,7 +6064,7 @@
       <c r="F362" s="4"/>
       <c r="G362" s="4"/>
     </row>
-    <row r="363" spans="1:7" ht="17.75" customHeight="1">
+    <row r="363" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A363" s="5">
         <f t="shared" si="5"/>
         <v>360</v>
@@ -5786,7 +6076,7 @@
       <c r="F363" s="4"/>
       <c r="G363" s="4"/>
     </row>
-    <row r="364" spans="1:7" ht="17.75" customHeight="1">
+    <row r="364" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A364" s="5">
         <f t="shared" si="5"/>
         <v>361</v>
@@ -5798,7 +6088,7 @@
       <c r="F364" s="4"/>
       <c r="G364" s="4"/>
     </row>
-    <row r="365" spans="1:7" ht="17.75" customHeight="1">
+    <row r="365" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A365" s="5">
         <f t="shared" si="5"/>
         <v>362</v>
@@ -5810,7 +6100,7 @@
       <c r="F365" s="4"/>
       <c r="G365" s="4"/>
     </row>
-    <row r="366" spans="1:7" ht="17.75" customHeight="1">
+    <row r="366" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A366" s="5">
         <f t="shared" si="5"/>
         <v>363</v>
@@ -5822,7 +6112,7 @@
       <c r="F366" s="4"/>
       <c r="G366" s="4"/>
     </row>
-    <row r="367" spans="1:7" ht="17.75" customHeight="1">
+    <row r="367" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A367" s="5">
         <f t="shared" si="5"/>
         <v>364</v>
@@ -5834,7 +6124,7 @@
       <c r="F367" s="4"/>
       <c r="G367" s="4"/>
     </row>
-    <row r="368" spans="1:7" ht="17.75" customHeight="1">
+    <row r="368" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A368" s="5">
         <f t="shared" si="5"/>
         <v>365</v>
@@ -5846,7 +6136,7 @@
       <c r="F368" s="4"/>
       <c r="G368" s="4"/>
     </row>
-    <row r="369" spans="1:7" ht="17.75" customHeight="1">
+    <row r="369" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A369" s="5">
         <f t="shared" si="5"/>
         <v>366</v>
@@ -5858,7 +6148,7 @@
       <c r="F369" s="4"/>
       <c r="G369" s="4"/>
     </row>
-    <row r="370" spans="1:7" ht="17.75" customHeight="1">
+    <row r="370" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A370" s="5">
         <f t="shared" si="5"/>
         <v>367</v>
@@ -5870,7 +6160,7 @@
       <c r="F370" s="4"/>
       <c r="G370" s="4"/>
     </row>
-    <row r="371" spans="1:7" ht="17.75" customHeight="1">
+    <row r="371" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A371" s="5">
         <f t="shared" si="5"/>
         <v>368</v>
@@ -5882,7 +6172,7 @@
       <c r="F371" s="4"/>
       <c r="G371" s="4"/>
     </row>
-    <row r="372" spans="1:7" ht="17.75" customHeight="1">
+    <row r="372" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A372" s="5">
         <f t="shared" si="5"/>
         <v>369</v>
@@ -5894,7 +6184,7 @@
       <c r="F372" s="4"/>
       <c r="G372" s="4"/>
     </row>
-    <row r="373" spans="1:7" ht="17.75" customHeight="1">
+    <row r="373" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A373" s="5">
         <f t="shared" si="5"/>
         <v>370</v>
@@ -5906,7 +6196,7 @@
       <c r="F373" s="4"/>
       <c r="G373" s="4"/>
     </row>
-    <row r="374" spans="1:7" ht="17.75" customHeight="1">
+    <row r="374" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A374" s="5">
         <f t="shared" si="5"/>
         <v>371</v>
@@ -5918,7 +6208,7 @@
       <c r="F374" s="4"/>
       <c r="G374" s="4"/>
     </row>
-    <row r="375" spans="1:7" ht="17.75" customHeight="1">
+    <row r="375" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A375" s="5">
         <f t="shared" si="5"/>
         <v>372</v>
@@ -5930,7 +6220,7 @@
       <c r="F375" s="4"/>
       <c r="G375" s="4"/>
     </row>
-    <row r="376" spans="1:7" ht="17.75" customHeight="1">
+    <row r="376" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A376" s="5">
         <f t="shared" si="5"/>
         <v>373</v>
@@ -5942,7 +6232,7 @@
       <c r="F376" s="4"/>
       <c r="G376" s="4"/>
     </row>
-    <row r="377" spans="1:7" ht="17.75" customHeight="1">
+    <row r="377" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A377" s="5">
         <f t="shared" si="5"/>
         <v>374</v>
@@ -5954,7 +6244,7 @@
       <c r="F377" s="4"/>
       <c r="G377" s="4"/>
     </row>
-    <row r="378" spans="1:7" ht="17.75" customHeight="1">
+    <row r="378" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A378" s="5">
         <f t="shared" si="5"/>
         <v>375</v>
@@ -5966,7 +6256,7 @@
       <c r="F378" s="4"/>
       <c r="G378" s="4"/>
     </row>
-    <row r="379" spans="1:7" ht="17.75" customHeight="1">
+    <row r="379" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A379" s="5">
         <f t="shared" si="5"/>
         <v>376</v>
@@ -5978,7 +6268,7 @@
       <c r="F379" s="4"/>
       <c r="G379" s="4"/>
     </row>
-    <row r="380" spans="1:7" ht="17.75" customHeight="1">
+    <row r="380" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A380" s="5">
         <f t="shared" si="5"/>
         <v>377</v>
@@ -5990,7 +6280,7 @@
       <c r="F380" s="4"/>
       <c r="G380" s="4"/>
     </row>
-    <row r="381" spans="1:7" ht="17.75" customHeight="1">
+    <row r="381" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A381" s="5">
         <f t="shared" si="5"/>
         <v>378</v>
@@ -6002,7 +6292,7 @@
       <c r="F381" s="4"/>
       <c r="G381" s="4"/>
     </row>
-    <row r="382" spans="1:7" ht="17.75" customHeight="1">
+    <row r="382" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A382" s="5">
         <f t="shared" si="5"/>
         <v>379</v>
@@ -6014,7 +6304,7 @@
       <c r="F382" s="4"/>
       <c r="G382" s="4"/>
     </row>
-    <row r="383" spans="1:7" ht="17.75" customHeight="1">
+    <row r="383" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A383" s="5">
         <f t="shared" si="5"/>
         <v>380</v>
@@ -6026,7 +6316,7 @@
       <c r="F383" s="4"/>
       <c r="G383" s="4"/>
     </row>
-    <row r="384" spans="1:7" ht="17.75" customHeight="1">
+    <row r="384" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A384" s="5">
         <f t="shared" si="5"/>
         <v>381</v>
@@ -6038,7 +6328,7 @@
       <c r="F384" s="4"/>
       <c r="G384" s="4"/>
     </row>
-    <row r="385" spans="1:7" ht="17.75" customHeight="1">
+    <row r="385" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A385" s="5">
         <f t="shared" si="5"/>
         <v>382</v>
@@ -6050,9 +6340,9 @@
       <c r="F385" s="4"/>
       <c r="G385" s="4"/>
     </row>
-    <row r="386" spans="1:7" ht="17.75" customHeight="1">
+    <row r="386" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A386" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A386:A449" si="6">ROW()-3</f>
         <v>383</v>
       </c>
       <c r="B386" s="3"/>
@@ -6062,9 +6352,9 @@
       <c r="F386" s="4"/>
       <c r="G386" s="4"/>
     </row>
-    <row r="387" spans="1:7" ht="17.75" customHeight="1">
+    <row r="387" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A387" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>384</v>
       </c>
       <c r="B387" s="3"/>
@@ -6074,9 +6364,9 @@
       <c r="F387" s="4"/>
       <c r="G387" s="4"/>
     </row>
-    <row r="388" spans="1:7" ht="17.75" customHeight="1">
+    <row r="388" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A388" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>385</v>
       </c>
       <c r="B388" s="3"/>
@@ -6086,9 +6376,9 @@
       <c r="F388" s="4"/>
       <c r="G388" s="4"/>
     </row>
-    <row r="389" spans="1:7" ht="17.75" customHeight="1">
+    <row r="389" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A389" s="5">
-        <f t="shared" ref="A389:A452" si="6">ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>386</v>
       </c>
       <c r="B389" s="3"/>
@@ -6098,7 +6388,7 @@
       <c r="F389" s="4"/>
       <c r="G389" s="4"/>
     </row>
-    <row r="390" spans="1:7" ht="17.75" customHeight="1">
+    <row r="390" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A390" s="5">
         <f t="shared" si="6"/>
         <v>387</v>
@@ -6110,7 +6400,7 @@
       <c r="F390" s="4"/>
       <c r="G390" s="4"/>
     </row>
-    <row r="391" spans="1:7" ht="17.75" customHeight="1">
+    <row r="391" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A391" s="5">
         <f t="shared" si="6"/>
         <v>388</v>
@@ -6122,7 +6412,7 @@
       <c r="F391" s="4"/>
       <c r="G391" s="4"/>
     </row>
-    <row r="392" spans="1:7" ht="17.75" customHeight="1">
+    <row r="392" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A392" s="5">
         <f t="shared" si="6"/>
         <v>389</v>
@@ -6134,7 +6424,7 @@
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
     </row>
-    <row r="393" spans="1:7" ht="17.75" customHeight="1">
+    <row r="393" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A393" s="5">
         <f t="shared" si="6"/>
         <v>390</v>
@@ -6146,7 +6436,7 @@
       <c r="F393" s="4"/>
       <c r="G393" s="4"/>
     </row>
-    <row r="394" spans="1:7" ht="17.75" customHeight="1">
+    <row r="394" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A394" s="5">
         <f t="shared" si="6"/>
         <v>391</v>
@@ -6158,7 +6448,7 @@
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
     </row>
-    <row r="395" spans="1:7" ht="17.75" customHeight="1">
+    <row r="395" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A395" s="5">
         <f t="shared" si="6"/>
         <v>392</v>
@@ -6170,7 +6460,7 @@
       <c r="F395" s="4"/>
       <c r="G395" s="4"/>
     </row>
-    <row r="396" spans="1:7" ht="17.75" customHeight="1">
+    <row r="396" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A396" s="5">
         <f t="shared" si="6"/>
         <v>393</v>
@@ -6182,7 +6472,7 @@
       <c r="F396" s="4"/>
       <c r="G396" s="4"/>
     </row>
-    <row r="397" spans="1:7" ht="17.75" customHeight="1">
+    <row r="397" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A397" s="5">
         <f t="shared" si="6"/>
         <v>394</v>
@@ -6194,7 +6484,7 @@
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
     </row>
-    <row r="398" spans="1:7" ht="17.75" customHeight="1">
+    <row r="398" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A398" s="5">
         <f t="shared" si="6"/>
         <v>395</v>
@@ -6206,7 +6496,7 @@
       <c r="F398" s="4"/>
       <c r="G398" s="4"/>
     </row>
-    <row r="399" spans="1:7" ht="17.75" customHeight="1">
+    <row r="399" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A399" s="5">
         <f t="shared" si="6"/>
         <v>396</v>
@@ -6218,7 +6508,7 @@
       <c r="F399" s="4"/>
       <c r="G399" s="4"/>
     </row>
-    <row r="400" spans="1:7" ht="17.75" customHeight="1">
+    <row r="400" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A400" s="5">
         <f t="shared" si="6"/>
         <v>397</v>
@@ -6230,7 +6520,7 @@
       <c r="F400" s="4"/>
       <c r="G400" s="4"/>
     </row>
-    <row r="401" spans="1:7" ht="17.75" customHeight="1">
+    <row r="401" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A401" s="5">
         <f t="shared" si="6"/>
         <v>398</v>
@@ -6242,7 +6532,7 @@
       <c r="F401" s="4"/>
       <c r="G401" s="4"/>
     </row>
-    <row r="402" spans="1:7" ht="17.75" customHeight="1">
+    <row r="402" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A402" s="5">
         <f t="shared" si="6"/>
         <v>399</v>
@@ -6254,7 +6544,7 @@
       <c r="F402" s="4"/>
       <c r="G402" s="4"/>
     </row>
-    <row r="403" spans="1:7" ht="17.75" customHeight="1">
+    <row r="403" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A403" s="5">
         <f t="shared" si="6"/>
         <v>400</v>
@@ -6266,7 +6556,7 @@
       <c r="F403" s="4"/>
       <c r="G403" s="4"/>
     </row>
-    <row r="404" spans="1:7" ht="17.75" customHeight="1">
+    <row r="404" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A404" s="5">
         <f t="shared" si="6"/>
         <v>401</v>
@@ -6278,7 +6568,7 @@
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
     </row>
-    <row r="405" spans="1:7" ht="17.75" customHeight="1">
+    <row r="405" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A405" s="5">
         <f t="shared" si="6"/>
         <v>402</v>
@@ -6290,7 +6580,7 @@
       <c r="F405" s="4"/>
       <c r="G405" s="4"/>
     </row>
-    <row r="406" spans="1:7" ht="17.75" customHeight="1">
+    <row r="406" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A406" s="5">
         <f t="shared" si="6"/>
         <v>403</v>
@@ -6302,7 +6592,7 @@
       <c r="F406" s="4"/>
       <c r="G406" s="4"/>
     </row>
-    <row r="407" spans="1:7" ht="17.75" customHeight="1">
+    <row r="407" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A407" s="5">
         <f t="shared" si="6"/>
         <v>404</v>
@@ -6314,7 +6604,7 @@
       <c r="F407" s="4"/>
       <c r="G407" s="4"/>
     </row>
-    <row r="408" spans="1:7" ht="17.75" customHeight="1">
+    <row r="408" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A408" s="5">
         <f t="shared" si="6"/>
         <v>405</v>
@@ -6326,7 +6616,7 @@
       <c r="F408" s="4"/>
       <c r="G408" s="4"/>
     </row>
-    <row r="409" spans="1:7" ht="17.75" customHeight="1">
+    <row r="409" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A409" s="5">
         <f t="shared" si="6"/>
         <v>406</v>
@@ -6338,7 +6628,7 @@
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
     </row>
-    <row r="410" spans="1:7" ht="17.75" customHeight="1">
+    <row r="410" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A410" s="5">
         <f t="shared" si="6"/>
         <v>407</v>
@@ -6350,7 +6640,7 @@
       <c r="F410" s="4"/>
       <c r="G410" s="4"/>
     </row>
-    <row r="411" spans="1:7" ht="17.75" customHeight="1">
+    <row r="411" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A411" s="5">
         <f t="shared" si="6"/>
         <v>408</v>
@@ -6362,7 +6652,7 @@
       <c r="F411" s="4"/>
       <c r="G411" s="4"/>
     </row>
-    <row r="412" spans="1:7" ht="17.75" customHeight="1">
+    <row r="412" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A412" s="5">
         <f t="shared" si="6"/>
         <v>409</v>
@@ -6374,7 +6664,7 @@
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
     </row>
-    <row r="413" spans="1:7" ht="17.75" customHeight="1">
+    <row r="413" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A413" s="5">
         <f t="shared" si="6"/>
         <v>410</v>
@@ -6386,7 +6676,7 @@
       <c r="F413" s="4"/>
       <c r="G413" s="4"/>
     </row>
-    <row r="414" spans="1:7" ht="17.75" customHeight="1">
+    <row r="414" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A414" s="5">
         <f t="shared" si="6"/>
         <v>411</v>
@@ -6398,7 +6688,7 @@
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
     </row>
-    <row r="415" spans="1:7" ht="17.75" customHeight="1">
+    <row r="415" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A415" s="5">
         <f t="shared" si="6"/>
         <v>412</v>
@@ -6410,7 +6700,7 @@
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
     </row>
-    <row r="416" spans="1:7" ht="17.75" customHeight="1">
+    <row r="416" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A416" s="5">
         <f t="shared" si="6"/>
         <v>413</v>
@@ -6422,7 +6712,7 @@
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
     </row>
-    <row r="417" spans="1:7" ht="17.75" customHeight="1">
+    <row r="417" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A417" s="5">
         <f t="shared" si="6"/>
         <v>414</v>
@@ -6434,7 +6724,7 @@
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
     </row>
-    <row r="418" spans="1:7" ht="17.75" customHeight="1">
+    <row r="418" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A418" s="5">
         <f t="shared" si="6"/>
         <v>415</v>
@@ -6446,7 +6736,7 @@
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
     </row>
-    <row r="419" spans="1:7" ht="17.75" customHeight="1">
+    <row r="419" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A419" s="5">
         <f t="shared" si="6"/>
         <v>416</v>
@@ -6458,7 +6748,7 @@
       <c r="F419" s="4"/>
       <c r="G419" s="4"/>
     </row>
-    <row r="420" spans="1:7" ht="17.75" customHeight="1">
+    <row r="420" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A420" s="5">
         <f t="shared" si="6"/>
         <v>417</v>
@@ -6470,7 +6760,7 @@
       <c r="F420" s="4"/>
       <c r="G420" s="4"/>
     </row>
-    <row r="421" spans="1:7" ht="17.75" customHeight="1">
+    <row r="421" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A421" s="5">
         <f t="shared" si="6"/>
         <v>418</v>
@@ -6482,7 +6772,7 @@
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
     </row>
-    <row r="422" spans="1:7" ht="17.75" customHeight="1">
+    <row r="422" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A422" s="5">
         <f t="shared" si="6"/>
         <v>419</v>
@@ -6494,7 +6784,7 @@
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
     </row>
-    <row r="423" spans="1:7" ht="17.75" customHeight="1">
+    <row r="423" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A423" s="5">
         <f t="shared" si="6"/>
         <v>420</v>
@@ -6506,7 +6796,7 @@
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
     </row>
-    <row r="424" spans="1:7" ht="17.75" customHeight="1">
+    <row r="424" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A424" s="5">
         <f t="shared" si="6"/>
         <v>421</v>
@@ -6518,7 +6808,7 @@
       <c r="F424" s="4"/>
       <c r="G424" s="4"/>
     </row>
-    <row r="425" spans="1:7" ht="17.75" customHeight="1">
+    <row r="425" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A425" s="5">
         <f t="shared" si="6"/>
         <v>422</v>
@@ -6530,7 +6820,7 @@
       <c r="F425" s="4"/>
       <c r="G425" s="4"/>
     </row>
-    <row r="426" spans="1:7" ht="17.75" customHeight="1">
+    <row r="426" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A426" s="5">
         <f t="shared" si="6"/>
         <v>423</v>
@@ -6542,7 +6832,7 @@
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
     </row>
-    <row r="427" spans="1:7" ht="17.75" customHeight="1">
+    <row r="427" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A427" s="5">
         <f t="shared" si="6"/>
         <v>424</v>
@@ -6554,7 +6844,7 @@
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
     </row>
-    <row r="428" spans="1:7" ht="17.75" customHeight="1">
+    <row r="428" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A428" s="5">
         <f t="shared" si="6"/>
         <v>425</v>
@@ -6566,7 +6856,7 @@
       <c r="F428" s="4"/>
       <c r="G428" s="4"/>
     </row>
-    <row r="429" spans="1:7" ht="17.75" customHeight="1">
+    <row r="429" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A429" s="5">
         <f t="shared" si="6"/>
         <v>426</v>
@@ -6578,7 +6868,7 @@
       <c r="F429" s="4"/>
       <c r="G429" s="4"/>
     </row>
-    <row r="430" spans="1:7" ht="17.75" customHeight="1">
+    <row r="430" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A430" s="5">
         <f t="shared" si="6"/>
         <v>427</v>
@@ -6590,7 +6880,7 @@
       <c r="F430" s="4"/>
       <c r="G430" s="4"/>
     </row>
-    <row r="431" spans="1:7" ht="17.75" customHeight="1">
+    <row r="431" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A431" s="5">
         <f t="shared" si="6"/>
         <v>428</v>
@@ -6602,7 +6892,7 @@
       <c r="F431" s="4"/>
       <c r="G431" s="4"/>
     </row>
-    <row r="432" spans="1:7" ht="17.75" customHeight="1">
+    <row r="432" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A432" s="5">
         <f t="shared" si="6"/>
         <v>429</v>
@@ -6614,7 +6904,7 @@
       <c r="F432" s="4"/>
       <c r="G432" s="4"/>
     </row>
-    <row r="433" spans="1:7" ht="17.75" customHeight="1">
+    <row r="433" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A433" s="5">
         <f t="shared" si="6"/>
         <v>430</v>
@@ -6626,7 +6916,7 @@
       <c r="F433" s="4"/>
       <c r="G433" s="4"/>
     </row>
-    <row r="434" spans="1:7" ht="17.75" customHeight="1">
+    <row r="434" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A434" s="5">
         <f t="shared" si="6"/>
         <v>431</v>
@@ -6638,7 +6928,7 @@
       <c r="F434" s="4"/>
       <c r="G434" s="4"/>
     </row>
-    <row r="435" spans="1:7" ht="17.75" customHeight="1">
+    <row r="435" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A435" s="5">
         <f t="shared" si="6"/>
         <v>432</v>
@@ -6650,7 +6940,7 @@
       <c r="F435" s="4"/>
       <c r="G435" s="4"/>
     </row>
-    <row r="436" spans="1:7" ht="17.75" customHeight="1">
+    <row r="436" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A436" s="5">
         <f t="shared" si="6"/>
         <v>433</v>
@@ -6662,7 +6952,7 @@
       <c r="F436" s="4"/>
       <c r="G436" s="4"/>
     </row>
-    <row r="437" spans="1:7" ht="17.75" customHeight="1">
+    <row r="437" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A437" s="5">
         <f t="shared" si="6"/>
         <v>434</v>
@@ -6674,7 +6964,7 @@
       <c r="F437" s="4"/>
       <c r="G437" s="4"/>
     </row>
-    <row r="438" spans="1:7" ht="17.75" customHeight="1">
+    <row r="438" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A438" s="5">
         <f t="shared" si="6"/>
         <v>435</v>
@@ -6686,7 +6976,7 @@
       <c r="F438" s="4"/>
       <c r="G438" s="4"/>
     </row>
-    <row r="439" spans="1:7" ht="17.75" customHeight="1">
+    <row r="439" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A439" s="5">
         <f t="shared" si="6"/>
         <v>436</v>
@@ -6698,7 +6988,7 @@
       <c r="F439" s="4"/>
       <c r="G439" s="4"/>
     </row>
-    <row r="440" spans="1:7" ht="17.75" customHeight="1">
+    <row r="440" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A440" s="5">
         <f t="shared" si="6"/>
         <v>437</v>
@@ -6710,7 +7000,7 @@
       <c r="F440" s="4"/>
       <c r="G440" s="4"/>
     </row>
-    <row r="441" spans="1:7" ht="17.75" customHeight="1">
+    <row r="441" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A441" s="5">
         <f t="shared" si="6"/>
         <v>438</v>
@@ -6722,7 +7012,7 @@
       <c r="F441" s="4"/>
       <c r="G441" s="4"/>
     </row>
-    <row r="442" spans="1:7" ht="17.75" customHeight="1">
+    <row r="442" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A442" s="5">
         <f t="shared" si="6"/>
         <v>439</v>
@@ -6734,7 +7024,7 @@
       <c r="F442" s="4"/>
       <c r="G442" s="4"/>
     </row>
-    <row r="443" spans="1:7" ht="17.75" customHeight="1">
+    <row r="443" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A443" s="5">
         <f t="shared" si="6"/>
         <v>440</v>
@@ -6746,7 +7036,7 @@
       <c r="F443" s="4"/>
       <c r="G443" s="4"/>
     </row>
-    <row r="444" spans="1:7" ht="17.75" customHeight="1">
+    <row r="444" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A444" s="5">
         <f t="shared" si="6"/>
         <v>441</v>
@@ -6758,7 +7048,7 @@
       <c r="F444" s="4"/>
       <c r="G444" s="4"/>
     </row>
-    <row r="445" spans="1:7" ht="17.75" customHeight="1">
+    <row r="445" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A445" s="5">
         <f t="shared" si="6"/>
         <v>442</v>
@@ -6770,7 +7060,7 @@
       <c r="F445" s="4"/>
       <c r="G445" s="4"/>
     </row>
-    <row r="446" spans="1:7" ht="17.75" customHeight="1">
+    <row r="446" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A446" s="5">
         <f t="shared" si="6"/>
         <v>443</v>
@@ -6782,7 +7072,7 @@
       <c r="F446" s="4"/>
       <c r="G446" s="4"/>
     </row>
-    <row r="447" spans="1:7" ht="17.75" customHeight="1">
+    <row r="447" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A447" s="5">
         <f t="shared" si="6"/>
         <v>444</v>
@@ -6794,7 +7084,7 @@
       <c r="F447" s="4"/>
       <c r="G447" s="4"/>
     </row>
-    <row r="448" spans="1:7" ht="17.75" customHeight="1">
+    <row r="448" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A448" s="5">
         <f t="shared" si="6"/>
         <v>445</v>
@@ -6806,7 +7096,7 @@
       <c r="F448" s="4"/>
       <c r="G448" s="4"/>
     </row>
-    <row r="449" spans="1:7" ht="17.75" customHeight="1">
+    <row r="449" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A449" s="5">
         <f t="shared" si="6"/>
         <v>446</v>
@@ -6818,9 +7108,9 @@
       <c r="F449" s="4"/>
       <c r="G449" s="4"/>
     </row>
-    <row r="450" spans="1:7" ht="17.75" customHeight="1">
+    <row r="450" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A450" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A450:A513" si="7">ROW()-3</f>
         <v>447</v>
       </c>
       <c r="B450" s="3"/>
@@ -6830,9 +7120,9 @@
       <c r="F450" s="4"/>
       <c r="G450" s="4"/>
     </row>
-    <row r="451" spans="1:7" ht="17.75" customHeight="1">
+    <row r="451" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A451" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>448</v>
       </c>
       <c r="B451" s="3"/>
@@ -6842,9 +7132,9 @@
       <c r="F451" s="4"/>
       <c r="G451" s="4"/>
     </row>
-    <row r="452" spans="1:7" ht="17.75" customHeight="1">
+    <row r="452" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A452" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>449</v>
       </c>
       <c r="B452" s="3"/>
@@ -6854,9 +7144,9 @@
       <c r="F452" s="4"/>
       <c r="G452" s="4"/>
     </row>
-    <row r="453" spans="1:7" ht="17.75" customHeight="1">
+    <row r="453" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A453" s="5">
-        <f t="shared" ref="A453:A516" si="7">ROW()-3</f>
+        <f t="shared" si="7"/>
         <v>450</v>
       </c>
       <c r="B453" s="3"/>
@@ -6866,7 +7156,7 @@
       <c r="F453" s="4"/>
       <c r="G453" s="4"/>
     </row>
-    <row r="454" spans="1:7" ht="17.75" customHeight="1">
+    <row r="454" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A454" s="5">
         <f t="shared" si="7"/>
         <v>451</v>
@@ -6878,7 +7168,7 @@
       <c r="F454" s="4"/>
       <c r="G454" s="4"/>
     </row>
-    <row r="455" spans="1:7" ht="17.75" customHeight="1">
+    <row r="455" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A455" s="5">
         <f t="shared" si="7"/>
         <v>452</v>
@@ -6890,7 +7180,7 @@
       <c r="F455" s="4"/>
       <c r="G455" s="4"/>
     </row>
-    <row r="456" spans="1:7" ht="17.75" customHeight="1">
+    <row r="456" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A456" s="5">
         <f t="shared" si="7"/>
         <v>453</v>
@@ -6902,7 +7192,7 @@
       <c r="F456" s="4"/>
       <c r="G456" s="4"/>
     </row>
-    <row r="457" spans="1:7" ht="17.75" customHeight="1">
+    <row r="457" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A457" s="5">
         <f t="shared" si="7"/>
         <v>454</v>
@@ -6914,7 +7204,7 @@
       <c r="F457" s="4"/>
       <c r="G457" s="4"/>
     </row>
-    <row r="458" spans="1:7" ht="17.75" customHeight="1">
+    <row r="458" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A458" s="5">
         <f t="shared" si="7"/>
         <v>455</v>
@@ -6926,7 +7216,7 @@
       <c r="F458" s="4"/>
       <c r="G458" s="4"/>
     </row>
-    <row r="459" spans="1:7" ht="17.75" customHeight="1">
+    <row r="459" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A459" s="5">
         <f t="shared" si="7"/>
         <v>456</v>
@@ -6938,7 +7228,7 @@
       <c r="F459" s="4"/>
       <c r="G459" s="4"/>
     </row>
-    <row r="460" spans="1:7" ht="17.75" customHeight="1">
+    <row r="460" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A460" s="5">
         <f t="shared" si="7"/>
         <v>457</v>
@@ -6950,7 +7240,7 @@
       <c r="F460" s="4"/>
       <c r="G460" s="4"/>
     </row>
-    <row r="461" spans="1:7" ht="17.75" customHeight="1">
+    <row r="461" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A461" s="5">
         <f t="shared" si="7"/>
         <v>458</v>
@@ -6962,7 +7252,7 @@
       <c r="F461" s="4"/>
       <c r="G461" s="4"/>
     </row>
-    <row r="462" spans="1:7" ht="17.75" customHeight="1">
+    <row r="462" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A462" s="5">
         <f t="shared" si="7"/>
         <v>459</v>
@@ -6974,7 +7264,7 @@
       <c r="F462" s="4"/>
       <c r="G462" s="4"/>
     </row>
-    <row r="463" spans="1:7" ht="17.75" customHeight="1">
+    <row r="463" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A463" s="5">
         <f t="shared" si="7"/>
         <v>460</v>
@@ -6986,7 +7276,7 @@
       <c r="F463" s="4"/>
       <c r="G463" s="4"/>
     </row>
-    <row r="464" spans="1:7" ht="17.75" customHeight="1">
+    <row r="464" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A464" s="5">
         <f t="shared" si="7"/>
         <v>461</v>
@@ -6998,7 +7288,7 @@
       <c r="F464" s="4"/>
       <c r="G464" s="4"/>
     </row>
-    <row r="465" spans="1:7" ht="17.75" customHeight="1">
+    <row r="465" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A465" s="5">
         <f t="shared" si="7"/>
         <v>462</v>
@@ -7010,7 +7300,7 @@
       <c r="F465" s="4"/>
       <c r="G465" s="4"/>
     </row>
-    <row r="466" spans="1:7" ht="17.75" customHeight="1">
+    <row r="466" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A466" s="5">
         <f t="shared" si="7"/>
         <v>463</v>
@@ -7022,7 +7312,7 @@
       <c r="F466" s="4"/>
       <c r="G466" s="4"/>
     </row>
-    <row r="467" spans="1:7" ht="17.75" customHeight="1">
+    <row r="467" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A467" s="5">
         <f t="shared" si="7"/>
         <v>464</v>
@@ -7034,7 +7324,7 @@
       <c r="F467" s="4"/>
       <c r="G467" s="4"/>
     </row>
-    <row r="468" spans="1:7" ht="17.75" customHeight="1">
+    <row r="468" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A468" s="5">
         <f t="shared" si="7"/>
         <v>465</v>
@@ -7046,7 +7336,7 @@
       <c r="F468" s="4"/>
       <c r="G468" s="4"/>
     </row>
-    <row r="469" spans="1:7" ht="17.75" customHeight="1">
+    <row r="469" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A469" s="5">
         <f t="shared" si="7"/>
         <v>466</v>
@@ -7058,7 +7348,7 @@
       <c r="F469" s="4"/>
       <c r="G469" s="4"/>
     </row>
-    <row r="470" spans="1:7" ht="17.75" customHeight="1">
+    <row r="470" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A470" s="5">
         <f t="shared" si="7"/>
         <v>467</v>
@@ -7070,7 +7360,7 @@
       <c r="F470" s="4"/>
       <c r="G470" s="4"/>
     </row>
-    <row r="471" spans="1:7" ht="17.75" customHeight="1">
+    <row r="471" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A471" s="5">
         <f t="shared" si="7"/>
         <v>468</v>
@@ -7082,7 +7372,7 @@
       <c r="F471" s="4"/>
       <c r="G471" s="4"/>
     </row>
-    <row r="472" spans="1:7" ht="17.75" customHeight="1">
+    <row r="472" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A472" s="5">
         <f t="shared" si="7"/>
         <v>469</v>
@@ -7094,7 +7384,7 @@
       <c r="F472" s="4"/>
       <c r="G472" s="4"/>
     </row>
-    <row r="473" spans="1:7" ht="17.75" customHeight="1">
+    <row r="473" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A473" s="5">
         <f t="shared" si="7"/>
         <v>470</v>
@@ -7106,7 +7396,7 @@
       <c r="F473" s="4"/>
       <c r="G473" s="4"/>
     </row>
-    <row r="474" spans="1:7" ht="17.75" customHeight="1">
+    <row r="474" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A474" s="5">
         <f t="shared" si="7"/>
         <v>471</v>
@@ -7118,7 +7408,7 @@
       <c r="F474" s="4"/>
       <c r="G474" s="4"/>
     </row>
-    <row r="475" spans="1:7" ht="17.75" customHeight="1">
+    <row r="475" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A475" s="5">
         <f t="shared" si="7"/>
         <v>472</v>
@@ -7130,7 +7420,7 @@
       <c r="F475" s="4"/>
       <c r="G475" s="4"/>
     </row>
-    <row r="476" spans="1:7" ht="17.75" customHeight="1">
+    <row r="476" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A476" s="5">
         <f t="shared" si="7"/>
         <v>473</v>
@@ -7142,7 +7432,7 @@
       <c r="F476" s="4"/>
       <c r="G476" s="4"/>
     </row>
-    <row r="477" spans="1:7" ht="17.75" customHeight="1">
+    <row r="477" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A477" s="5">
         <f t="shared" si="7"/>
         <v>474</v>
@@ -7154,7 +7444,7 @@
       <c r="F477" s="4"/>
       <c r="G477" s="4"/>
     </row>
-    <row r="478" spans="1:7" ht="17.75" customHeight="1">
+    <row r="478" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A478" s="5">
         <f t="shared" si="7"/>
         <v>475</v>
@@ -7166,7 +7456,7 @@
       <c r="F478" s="4"/>
       <c r="G478" s="4"/>
     </row>
-    <row r="479" spans="1:7" ht="17.75" customHeight="1">
+    <row r="479" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A479" s="5">
         <f t="shared" si="7"/>
         <v>476</v>
@@ -7178,7 +7468,7 @@
       <c r="F479" s="4"/>
       <c r="G479" s="4"/>
     </row>
-    <row r="480" spans="1:7" ht="17.75" customHeight="1">
+    <row r="480" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A480" s="5">
         <f t="shared" si="7"/>
         <v>477</v>
@@ -7190,7 +7480,7 @@
       <c r="F480" s="4"/>
       <c r="G480" s="4"/>
     </row>
-    <row r="481" spans="1:7" ht="17.75" customHeight="1">
+    <row r="481" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A481" s="5">
         <f t="shared" si="7"/>
         <v>478</v>
@@ -7202,7 +7492,7 @@
       <c r="F481" s="4"/>
       <c r="G481" s="4"/>
     </row>
-    <row r="482" spans="1:7" ht="17.75" customHeight="1">
+    <row r="482" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A482" s="5">
         <f t="shared" si="7"/>
         <v>479</v>
@@ -7214,7 +7504,7 @@
       <c r="F482" s="4"/>
       <c r="G482" s="4"/>
     </row>
-    <row r="483" spans="1:7" ht="17.75" customHeight="1">
+    <row r="483" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A483" s="5">
         <f t="shared" si="7"/>
         <v>480</v>
@@ -7226,7 +7516,7 @@
       <c r="F483" s="4"/>
       <c r="G483" s="4"/>
     </row>
-    <row r="484" spans="1:7" ht="17.75" customHeight="1">
+    <row r="484" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A484" s="5">
         <f t="shared" si="7"/>
         <v>481</v>
@@ -7238,7 +7528,7 @@
       <c r="F484" s="4"/>
       <c r="G484" s="4"/>
     </row>
-    <row r="485" spans="1:7" ht="17.75" customHeight="1">
+    <row r="485" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A485" s="5">
         <f t="shared" si="7"/>
         <v>482</v>
@@ -7250,7 +7540,7 @@
       <c r="F485" s="4"/>
       <c r="G485" s="4"/>
     </row>
-    <row r="486" spans="1:7" ht="17.75" customHeight="1">
+    <row r="486" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A486" s="5">
         <f t="shared" si="7"/>
         <v>483</v>
@@ -7262,7 +7552,7 @@
       <c r="F486" s="4"/>
       <c r="G486" s="4"/>
     </row>
-    <row r="487" spans="1:7" ht="17.75" customHeight="1">
+    <row r="487" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A487" s="5">
         <f t="shared" si="7"/>
         <v>484</v>
@@ -7274,7 +7564,7 @@
       <c r="F487" s="4"/>
       <c r="G487" s="4"/>
     </row>
-    <row r="488" spans="1:7" ht="17.75" customHeight="1">
+    <row r="488" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A488" s="5">
         <f t="shared" si="7"/>
         <v>485</v>
@@ -7286,7 +7576,7 @@
       <c r="F488" s="4"/>
       <c r="G488" s="4"/>
     </row>
-    <row r="489" spans="1:7" ht="17.75" customHeight="1">
+    <row r="489" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A489" s="5">
         <f t="shared" si="7"/>
         <v>486</v>
@@ -7298,7 +7588,7 @@
       <c r="F489" s="4"/>
       <c r="G489" s="4"/>
     </row>
-    <row r="490" spans="1:7" ht="17.75" customHeight="1">
+    <row r="490" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A490" s="5">
         <f t="shared" si="7"/>
         <v>487</v>
@@ -7310,7 +7600,7 @@
       <c r="F490" s="4"/>
       <c r="G490" s="4"/>
     </row>
-    <row r="491" spans="1:7" ht="17.75" customHeight="1">
+    <row r="491" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A491" s="5">
         <f t="shared" si="7"/>
         <v>488</v>
@@ -7322,7 +7612,7 @@
       <c r="F491" s="4"/>
       <c r="G491" s="4"/>
     </row>
-    <row r="492" spans="1:7" ht="17.75" customHeight="1">
+    <row r="492" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A492" s="5">
         <f t="shared" si="7"/>
         <v>489</v>
@@ -7334,7 +7624,7 @@
       <c r="F492" s="4"/>
       <c r="G492" s="4"/>
     </row>
-    <row r="493" spans="1:7" ht="17.75" customHeight="1">
+    <row r="493" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A493" s="5">
         <f t="shared" si="7"/>
         <v>490</v>
@@ -7346,7 +7636,7 @@
       <c r="F493" s="4"/>
       <c r="G493" s="4"/>
     </row>
-    <row r="494" spans="1:7" ht="17.75" customHeight="1">
+    <row r="494" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A494" s="5">
         <f t="shared" si="7"/>
         <v>491</v>
@@ -7358,7 +7648,7 @@
       <c r="F494" s="4"/>
       <c r="G494" s="4"/>
     </row>
-    <row r="495" spans="1:7" ht="17.75" customHeight="1">
+    <row r="495" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A495" s="5">
         <f t="shared" si="7"/>
         <v>492</v>
@@ -7370,7 +7660,7 @@
       <c r="F495" s="4"/>
       <c r="G495" s="4"/>
     </row>
-    <row r="496" spans="1:7" ht="17.75" customHeight="1">
+    <row r="496" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A496" s="5">
         <f t="shared" si="7"/>
         <v>493</v>
@@ -7382,7 +7672,7 @@
       <c r="F496" s="4"/>
       <c r="G496" s="4"/>
     </row>
-    <row r="497" spans="1:7" ht="17.75" customHeight="1">
+    <row r="497" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A497" s="5">
         <f t="shared" si="7"/>
         <v>494</v>
@@ -7394,7 +7684,7 @@
       <c r="F497" s="4"/>
       <c r="G497" s="4"/>
     </row>
-    <row r="498" spans="1:7" ht="17.75" customHeight="1">
+    <row r="498" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A498" s="5">
         <f t="shared" si="7"/>
         <v>495</v>
@@ -7406,7 +7696,7 @@
       <c r="F498" s="4"/>
       <c r="G498" s="4"/>
     </row>
-    <row r="499" spans="1:7" ht="17.75" customHeight="1">
+    <row r="499" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A499" s="5">
         <f t="shared" si="7"/>
         <v>496</v>
@@ -7418,7 +7708,7 @@
       <c r="F499" s="4"/>
       <c r="G499" s="4"/>
     </row>
-    <row r="500" spans="1:7" ht="17.75" customHeight="1">
+    <row r="500" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A500" s="5">
         <f t="shared" si="7"/>
         <v>497</v>
@@ -7430,7 +7720,7 @@
       <c r="F500" s="4"/>
       <c r="G500" s="4"/>
     </row>
-    <row r="501" spans="1:7" ht="17.75" customHeight="1">
+    <row r="501" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A501" s="5">
         <f t="shared" si="7"/>
         <v>498</v>
@@ -7442,7 +7732,7 @@
       <c r="F501" s="4"/>
       <c r="G501" s="4"/>
     </row>
-    <row r="502" spans="1:7" ht="17.75" customHeight="1">
+    <row r="502" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A502" s="5">
         <f t="shared" si="7"/>
         <v>499</v>
@@ -7454,7 +7744,7 @@
       <c r="F502" s="4"/>
       <c r="G502" s="4"/>
     </row>
-    <row r="503" spans="1:7" ht="17.75" customHeight="1">
+    <row r="503" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A503" s="5">
         <f t="shared" si="7"/>
         <v>500</v>
@@ -7466,7 +7756,7 @@
       <c r="F503" s="4"/>
       <c r="G503" s="4"/>
     </row>
-    <row r="504" spans="1:7" ht="17.75" customHeight="1">
+    <row r="504" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A504" s="5">
         <f t="shared" si="7"/>
         <v>501</v>
@@ -7478,7 +7768,7 @@
       <c r="F504" s="4"/>
       <c r="G504" s="4"/>
     </row>
-    <row r="505" spans="1:7" ht="17.75" customHeight="1">
+    <row r="505" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A505" s="5">
         <f t="shared" si="7"/>
         <v>502</v>
@@ -7490,7 +7780,7 @@
       <c r="F505" s="4"/>
       <c r="G505" s="4"/>
     </row>
-    <row r="506" spans="1:7" ht="17.75" customHeight="1">
+    <row r="506" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A506" s="5">
         <f t="shared" si="7"/>
         <v>503</v>
@@ -7502,7 +7792,7 @@
       <c r="F506" s="4"/>
       <c r="G506" s="4"/>
     </row>
-    <row r="507" spans="1:7" ht="17.75" customHeight="1">
+    <row r="507" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A507" s="5">
         <f t="shared" si="7"/>
         <v>504</v>
@@ -7514,7 +7804,7 @@
       <c r="F507" s="4"/>
       <c r="G507" s="4"/>
     </row>
-    <row r="508" spans="1:7" ht="17.75" customHeight="1">
+    <row r="508" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A508" s="5">
         <f t="shared" si="7"/>
         <v>505</v>
@@ -7526,7 +7816,7 @@
       <c r="F508" s="4"/>
       <c r="G508" s="4"/>
     </row>
-    <row r="509" spans="1:7" ht="17.75" customHeight="1">
+    <row r="509" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A509" s="5">
         <f t="shared" si="7"/>
         <v>506</v>
@@ -7538,7 +7828,7 @@
       <c r="F509" s="4"/>
       <c r="G509" s="4"/>
     </row>
-    <row r="510" spans="1:7" ht="17.75" customHeight="1">
+    <row r="510" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A510" s="5">
         <f t="shared" si="7"/>
         <v>507</v>
@@ -7550,7 +7840,7 @@
       <c r="F510" s="4"/>
       <c r="G510" s="4"/>
     </row>
-    <row r="511" spans="1:7" ht="17.75" customHeight="1">
+    <row r="511" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A511" s="5">
         <f t="shared" si="7"/>
         <v>508</v>
@@ -7562,7 +7852,7 @@
       <c r="F511" s="4"/>
       <c r="G511" s="4"/>
     </row>
-    <row r="512" spans="1:7" ht="17.75" customHeight="1">
+    <row r="512" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A512" s="5">
         <f t="shared" si="7"/>
         <v>509</v>
@@ -7574,7 +7864,7 @@
       <c r="F512" s="4"/>
       <c r="G512" s="4"/>
     </row>
-    <row r="513" spans="1:7" ht="17.75" customHeight="1">
+    <row r="513" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A513" s="5">
         <f t="shared" si="7"/>
         <v>510</v>
@@ -7586,9 +7876,9 @@
       <c r="F513" s="4"/>
       <c r="G513" s="4"/>
     </row>
-    <row r="514" spans="1:7" ht="17.75" customHeight="1">
+    <row r="514" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A514" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="A514:A577" si="8">ROW()-3</f>
         <v>511</v>
       </c>
       <c r="B514" s="3"/>
@@ -7598,9 +7888,9 @@
       <c r="F514" s="4"/>
       <c r="G514" s="4"/>
     </row>
-    <row r="515" spans="1:7" ht="17.75" customHeight="1">
+    <row r="515" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A515" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>512</v>
       </c>
       <c r="B515" s="3"/>
@@ -7610,9 +7900,9 @@
       <c r="F515" s="4"/>
       <c r="G515" s="4"/>
     </row>
-    <row r="516" spans="1:7" ht="17.75" customHeight="1">
+    <row r="516" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A516" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>513</v>
       </c>
       <c r="B516" s="3"/>
@@ -7622,9 +7912,9 @@
       <c r="F516" s="4"/>
       <c r="G516" s="4"/>
     </row>
-    <row r="517" spans="1:7" ht="17.75" customHeight="1">
+    <row r="517" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A517" s="5">
-        <f t="shared" ref="A517:A580" si="8">ROW()-3</f>
+        <f t="shared" si="8"/>
         <v>514</v>
       </c>
       <c r="B517" s="3"/>
@@ -7634,7 +7924,7 @@
       <c r="F517" s="4"/>
       <c r="G517" s="4"/>
     </row>
-    <row r="518" spans="1:7" ht="17.75" customHeight="1">
+    <row r="518" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A518" s="5">
         <f t="shared" si="8"/>
         <v>515</v>
@@ -7646,7 +7936,7 @@
       <c r="F518" s="4"/>
       <c r="G518" s="4"/>
     </row>
-    <row r="519" spans="1:7" ht="17.75" customHeight="1">
+    <row r="519" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A519" s="5">
         <f t="shared" si="8"/>
         <v>516</v>
@@ -7658,7 +7948,7 @@
       <c r="F519" s="4"/>
       <c r="G519" s="4"/>
     </row>
-    <row r="520" spans="1:7" ht="17.75" customHeight="1">
+    <row r="520" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A520" s="5">
         <f t="shared" si="8"/>
         <v>517</v>
@@ -7670,7 +7960,7 @@
       <c r="F520" s="4"/>
       <c r="G520" s="4"/>
     </row>
-    <row r="521" spans="1:7" ht="17.75" customHeight="1">
+    <row r="521" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A521" s="5">
         <f t="shared" si="8"/>
         <v>518</v>
@@ -7682,7 +7972,7 @@
       <c r="F521" s="4"/>
       <c r="G521" s="4"/>
     </row>
-    <row r="522" spans="1:7" ht="17.75" customHeight="1">
+    <row r="522" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A522" s="5">
         <f t="shared" si="8"/>
         <v>519</v>
@@ -7694,7 +7984,7 @@
       <c r="F522" s="4"/>
       <c r="G522" s="4"/>
     </row>
-    <row r="523" spans="1:7" ht="17.75" customHeight="1">
+    <row r="523" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A523" s="5">
         <f t="shared" si="8"/>
         <v>520</v>
@@ -7706,7 +7996,7 @@
       <c r="F523" s="4"/>
       <c r="G523" s="4"/>
     </row>
-    <row r="524" spans="1:7" ht="17.75" customHeight="1">
+    <row r="524" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A524" s="5">
         <f t="shared" si="8"/>
         <v>521</v>
@@ -7718,7 +8008,7 @@
       <c r="F524" s="4"/>
       <c r="G524" s="4"/>
     </row>
-    <row r="525" spans="1:7" ht="17.75" customHeight="1">
+    <row r="525" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A525" s="5">
         <f t="shared" si="8"/>
         <v>522</v>
@@ -7730,7 +8020,7 @@
       <c r="F525" s="4"/>
       <c r="G525" s="4"/>
     </row>
-    <row r="526" spans="1:7" ht="17.75" customHeight="1">
+    <row r="526" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A526" s="5">
         <f t="shared" si="8"/>
         <v>523</v>
@@ -7742,7 +8032,7 @@
       <c r="F526" s="4"/>
       <c r="G526" s="4"/>
     </row>
-    <row r="527" spans="1:7" ht="17.75" customHeight="1">
+    <row r="527" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A527" s="5">
         <f t="shared" si="8"/>
         <v>524</v>
@@ -7754,7 +8044,7 @@
       <c r="F527" s="4"/>
       <c r="G527" s="4"/>
     </row>
-    <row r="528" spans="1:7" ht="17.75" customHeight="1">
+    <row r="528" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A528" s="5">
         <f t="shared" si="8"/>
         <v>525</v>
@@ -7766,7 +8056,7 @@
       <c r="F528" s="4"/>
       <c r="G528" s="4"/>
     </row>
-    <row r="529" spans="1:7" ht="17.75" customHeight="1">
+    <row r="529" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A529" s="5">
         <f t="shared" si="8"/>
         <v>526</v>
@@ -7778,7 +8068,7 @@
       <c r="F529" s="4"/>
       <c r="G529" s="4"/>
     </row>
-    <row r="530" spans="1:7" ht="17.75" customHeight="1">
+    <row r="530" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A530" s="5">
         <f t="shared" si="8"/>
         <v>527</v>
@@ -7790,7 +8080,7 @@
       <c r="F530" s="4"/>
       <c r="G530" s="4"/>
     </row>
-    <row r="531" spans="1:7" ht="17.75" customHeight="1">
+    <row r="531" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A531" s="5">
         <f t="shared" si="8"/>
         <v>528</v>
@@ -7802,7 +8092,7 @@
       <c r="F531" s="4"/>
       <c r="G531" s="4"/>
     </row>
-    <row r="532" spans="1:7" ht="17.75" customHeight="1">
+    <row r="532" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A532" s="5">
         <f t="shared" si="8"/>
         <v>529</v>
@@ -7814,7 +8104,7 @@
       <c r="F532" s="4"/>
       <c r="G532" s="4"/>
     </row>
-    <row r="533" spans="1:7" ht="17.75" customHeight="1">
+    <row r="533" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A533" s="5">
         <f t="shared" si="8"/>
         <v>530</v>
@@ -7826,7 +8116,7 @@
       <c r="F533" s="4"/>
       <c r="G533" s="4"/>
     </row>
-    <row r="534" spans="1:7" ht="17.75" customHeight="1">
+    <row r="534" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A534" s="5">
         <f t="shared" si="8"/>
         <v>531</v>
@@ -7838,7 +8128,7 @@
       <c r="F534" s="4"/>
       <c r="G534" s="4"/>
     </row>
-    <row r="535" spans="1:7" ht="17.75" customHeight="1">
+    <row r="535" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A535" s="5">
         <f t="shared" si="8"/>
         <v>532</v>
@@ -7850,7 +8140,7 @@
       <c r="F535" s="4"/>
       <c r="G535" s="4"/>
     </row>
-    <row r="536" spans="1:7" ht="17.75" customHeight="1">
+    <row r="536" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A536" s="5">
         <f t="shared" si="8"/>
         <v>533</v>
@@ -7862,7 +8152,7 @@
       <c r="F536" s="4"/>
       <c r="G536" s="4"/>
     </row>
-    <row r="537" spans="1:7" ht="17.75" customHeight="1">
+    <row r="537" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A537" s="5">
         <f t="shared" si="8"/>
         <v>534</v>
@@ -7874,7 +8164,7 @@
       <c r="F537" s="4"/>
       <c r="G537" s="4"/>
     </row>
-    <row r="538" spans="1:7" ht="17.75" customHeight="1">
+    <row r="538" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A538" s="5">
         <f t="shared" si="8"/>
         <v>535</v>
@@ -7886,7 +8176,7 @@
       <c r="F538" s="4"/>
       <c r="G538" s="4"/>
     </row>
-    <row r="539" spans="1:7" ht="17.75" customHeight="1">
+    <row r="539" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A539" s="5">
         <f t="shared" si="8"/>
         <v>536</v>
@@ -7898,7 +8188,7 @@
       <c r="F539" s="4"/>
       <c r="G539" s="4"/>
     </row>
-    <row r="540" spans="1:7" ht="17.75" customHeight="1">
+    <row r="540" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A540" s="5">
         <f t="shared" si="8"/>
         <v>537</v>
@@ -7910,7 +8200,7 @@
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
     </row>
-    <row r="541" spans="1:7" ht="17.75" customHeight="1">
+    <row r="541" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A541" s="5">
         <f t="shared" si="8"/>
         <v>538</v>
@@ -7922,7 +8212,7 @@
       <c r="F541" s="4"/>
       <c r="G541" s="4"/>
     </row>
-    <row r="542" spans="1:7" ht="17.75" customHeight="1">
+    <row r="542" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A542" s="5">
         <f t="shared" si="8"/>
         <v>539</v>
@@ -7934,7 +8224,7 @@
       <c r="F542" s="4"/>
       <c r="G542" s="4"/>
     </row>
-    <row r="543" spans="1:7" ht="17.75" customHeight="1">
+    <row r="543" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A543" s="5">
         <f t="shared" si="8"/>
         <v>540</v>
@@ -7946,7 +8236,7 @@
       <c r="F543" s="4"/>
       <c r="G543" s="4"/>
     </row>
-    <row r="544" spans="1:7" ht="17.75" customHeight="1">
+    <row r="544" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A544" s="5">
         <f t="shared" si="8"/>
         <v>541</v>
@@ -7958,7 +8248,7 @@
       <c r="F544" s="4"/>
       <c r="G544" s="4"/>
     </row>
-    <row r="545" spans="1:7" ht="17.75" customHeight="1">
+    <row r="545" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A545" s="5">
         <f t="shared" si="8"/>
         <v>542</v>
@@ -7970,7 +8260,7 @@
       <c r="F545" s="4"/>
       <c r="G545" s="4"/>
     </row>
-    <row r="546" spans="1:7" ht="17.75" customHeight="1">
+    <row r="546" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A546" s="5">
         <f t="shared" si="8"/>
         <v>543</v>
@@ -7982,7 +8272,7 @@
       <c r="F546" s="4"/>
       <c r="G546" s="4"/>
     </row>
-    <row r="547" spans="1:7" ht="17.75" customHeight="1">
+    <row r="547" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A547" s="5">
         <f t="shared" si="8"/>
         <v>544</v>
@@ -7994,7 +8284,7 @@
       <c r="F547" s="4"/>
       <c r="G547" s="4"/>
     </row>
-    <row r="548" spans="1:7" ht="17.75" customHeight="1">
+    <row r="548" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A548" s="5">
         <f t="shared" si="8"/>
         <v>545</v>
@@ -8006,7 +8296,7 @@
       <c r="F548" s="4"/>
       <c r="G548" s="4"/>
     </row>
-    <row r="549" spans="1:7" ht="17.75" customHeight="1">
+    <row r="549" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A549" s="5">
         <f t="shared" si="8"/>
         <v>546</v>
@@ -8018,7 +8308,7 @@
       <c r="F549" s="4"/>
       <c r="G549" s="4"/>
     </row>
-    <row r="550" spans="1:7" ht="17.75" customHeight="1">
+    <row r="550" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A550" s="5">
         <f t="shared" si="8"/>
         <v>547</v>
@@ -8030,7 +8320,7 @@
       <c r="F550" s="4"/>
       <c r="G550" s="4"/>
     </row>
-    <row r="551" spans="1:7" ht="17.75" customHeight="1">
+    <row r="551" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A551" s="5">
         <f t="shared" si="8"/>
         <v>548</v>
@@ -8042,7 +8332,7 @@
       <c r="F551" s="4"/>
       <c r="G551" s="4"/>
     </row>
-    <row r="552" spans="1:7" ht="17.75" customHeight="1">
+    <row r="552" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A552" s="5">
         <f t="shared" si="8"/>
         <v>549</v>
@@ -8054,7 +8344,7 @@
       <c r="F552" s="4"/>
       <c r="G552" s="4"/>
     </row>
-    <row r="553" spans="1:7" ht="17.75" customHeight="1">
+    <row r="553" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A553" s="5">
         <f t="shared" si="8"/>
         <v>550</v>
@@ -8066,7 +8356,7 @@
       <c r="F553" s="4"/>
       <c r="G553" s="4"/>
     </row>
-    <row r="554" spans="1:7" ht="17.75" customHeight="1">
+    <row r="554" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A554" s="5">
         <f t="shared" si="8"/>
         <v>551</v>
@@ -8078,7 +8368,7 @@
       <c r="F554" s="4"/>
       <c r="G554" s="4"/>
     </row>
-    <row r="555" spans="1:7" ht="17.75" customHeight="1">
+    <row r="555" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A555" s="5">
         <f t="shared" si="8"/>
         <v>552</v>
@@ -8090,7 +8380,7 @@
       <c r="F555" s="4"/>
       <c r="G555" s="4"/>
     </row>
-    <row r="556" spans="1:7" ht="17.75" customHeight="1">
+    <row r="556" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A556" s="5">
         <f t="shared" si="8"/>
         <v>553</v>
@@ -8102,7 +8392,7 @@
       <c r="F556" s="4"/>
       <c r="G556" s="4"/>
     </row>
-    <row r="557" spans="1:7" ht="17.75" customHeight="1">
+    <row r="557" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A557" s="5">
         <f t="shared" si="8"/>
         <v>554</v>
@@ -8114,7 +8404,7 @@
       <c r="F557" s="4"/>
       <c r="G557" s="4"/>
     </row>
-    <row r="558" spans="1:7" ht="17.75" customHeight="1">
+    <row r="558" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A558" s="5">
         <f t="shared" si="8"/>
         <v>555</v>
@@ -8126,7 +8416,7 @@
       <c r="F558" s="4"/>
       <c r="G558" s="4"/>
     </row>
-    <row r="559" spans="1:7" ht="17.75" customHeight="1">
+    <row r="559" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A559" s="5">
         <f t="shared" si="8"/>
         <v>556</v>
@@ -8138,7 +8428,7 @@
       <c r="F559" s="4"/>
       <c r="G559" s="4"/>
     </row>
-    <row r="560" spans="1:7" ht="17.75" customHeight="1">
+    <row r="560" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A560" s="5">
         <f t="shared" si="8"/>
         <v>557</v>
@@ -8150,7 +8440,7 @@
       <c r="F560" s="4"/>
       <c r="G560" s="4"/>
     </row>
-    <row r="561" spans="1:7" ht="17.75" customHeight="1">
+    <row r="561" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A561" s="5">
         <f t="shared" si="8"/>
         <v>558</v>
@@ -8162,7 +8452,7 @@
       <c r="F561" s="4"/>
       <c r="G561" s="4"/>
     </row>
-    <row r="562" spans="1:7" ht="17.75" customHeight="1">
+    <row r="562" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A562" s="5">
         <f t="shared" si="8"/>
         <v>559</v>
@@ -8174,7 +8464,7 @@
       <c r="F562" s="4"/>
       <c r="G562" s="4"/>
     </row>
-    <row r="563" spans="1:7" ht="17.75" customHeight="1">
+    <row r="563" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A563" s="5">
         <f t="shared" si="8"/>
         <v>560</v>
@@ -8186,7 +8476,7 @@
       <c r="F563" s="4"/>
       <c r="G563" s="4"/>
     </row>
-    <row r="564" spans="1:7" ht="17.75" customHeight="1">
+    <row r="564" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A564" s="5">
         <f t="shared" si="8"/>
         <v>561</v>
@@ -8198,7 +8488,7 @@
       <c r="F564" s="4"/>
       <c r="G564" s="4"/>
     </row>
-    <row r="565" spans="1:7" ht="17.75" customHeight="1">
+    <row r="565" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A565" s="5">
         <f t="shared" si="8"/>
         <v>562</v>
@@ -8210,7 +8500,7 @@
       <c r="F565" s="4"/>
       <c r="G565" s="4"/>
     </row>
-    <row r="566" spans="1:7" ht="17.75" customHeight="1">
+    <row r="566" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A566" s="5">
         <f t="shared" si="8"/>
         <v>563</v>
@@ -8222,7 +8512,7 @@
       <c r="F566" s="4"/>
       <c r="G566" s="4"/>
     </row>
-    <row r="567" spans="1:7" ht="17.75" customHeight="1">
+    <row r="567" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A567" s="5">
         <f t="shared" si="8"/>
         <v>564</v>
@@ -8234,7 +8524,7 @@
       <c r="F567" s="4"/>
       <c r="G567" s="4"/>
     </row>
-    <row r="568" spans="1:7" ht="17.75" customHeight="1">
+    <row r="568" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A568" s="5">
         <f t="shared" si="8"/>
         <v>565</v>
@@ -8246,7 +8536,7 @@
       <c r="F568" s="4"/>
       <c r="G568" s="4"/>
     </row>
-    <row r="569" spans="1:7" ht="17.75" customHeight="1">
+    <row r="569" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A569" s="5">
         <f t="shared" si="8"/>
         <v>566</v>
@@ -8258,7 +8548,7 @@
       <c r="F569" s="4"/>
       <c r="G569" s="4"/>
     </row>
-    <row r="570" spans="1:7" ht="17.75" customHeight="1">
+    <row r="570" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A570" s="5">
         <f t="shared" si="8"/>
         <v>567</v>
@@ -8270,7 +8560,7 @@
       <c r="F570" s="4"/>
       <c r="G570" s="4"/>
     </row>
-    <row r="571" spans="1:7" ht="17.75" customHeight="1">
+    <row r="571" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A571" s="5">
         <f t="shared" si="8"/>
         <v>568</v>
@@ -8282,7 +8572,7 @@
       <c r="F571" s="4"/>
       <c r="G571" s="4"/>
     </row>
-    <row r="572" spans="1:7" ht="17.75" customHeight="1">
+    <row r="572" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A572" s="5">
         <f t="shared" si="8"/>
         <v>569</v>
@@ -8294,7 +8584,7 @@
       <c r="F572" s="4"/>
       <c r="G572" s="4"/>
     </row>
-    <row r="573" spans="1:7" ht="17.75" customHeight="1">
+    <row r="573" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A573" s="5">
         <f t="shared" si="8"/>
         <v>570</v>
@@ -8306,7 +8596,7 @@
       <c r="F573" s="4"/>
       <c r="G573" s="4"/>
     </row>
-    <row r="574" spans="1:7" ht="17.75" customHeight="1">
+    <row r="574" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A574" s="5">
         <f t="shared" si="8"/>
         <v>571</v>
@@ -8318,7 +8608,7 @@
       <c r="F574" s="4"/>
       <c r="G574" s="4"/>
     </row>
-    <row r="575" spans="1:7" ht="17.75" customHeight="1">
+    <row r="575" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A575" s="5">
         <f t="shared" si="8"/>
         <v>572</v>
@@ -8330,7 +8620,7 @@
       <c r="F575" s="4"/>
       <c r="G575" s="4"/>
     </row>
-    <row r="576" spans="1:7" ht="17.75" customHeight="1">
+    <row r="576" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A576" s="5">
         <f t="shared" si="8"/>
         <v>573</v>
@@ -8342,7 +8632,7 @@
       <c r="F576" s="4"/>
       <c r="G576" s="4"/>
     </row>
-    <row r="577" spans="1:7" ht="17.75" customHeight="1">
+    <row r="577" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A577" s="5">
         <f t="shared" si="8"/>
         <v>574</v>
@@ -8354,9 +8644,9 @@
       <c r="F577" s="4"/>
       <c r="G577" s="4"/>
     </row>
-    <row r="578" spans="1:7" ht="17.75" customHeight="1">
+    <row r="578" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A578" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="A578:A641" si="9">ROW()-3</f>
         <v>575</v>
       </c>
       <c r="B578" s="3"/>
@@ -8366,9 +8656,9 @@
       <c r="F578" s="4"/>
       <c r="G578" s="4"/>
     </row>
-    <row r="579" spans="1:7" ht="17.75" customHeight="1">
+    <row r="579" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A579" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>576</v>
       </c>
       <c r="B579" s="3"/>
@@ -8378,9 +8668,9 @@
       <c r="F579" s="4"/>
       <c r="G579" s="4"/>
     </row>
-    <row r="580" spans="1:7" ht="17.75" customHeight="1">
+    <row r="580" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A580" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>577</v>
       </c>
       <c r="B580" s="3"/>
@@ -8390,9 +8680,9 @@
       <c r="F580" s="4"/>
       <c r="G580" s="4"/>
     </row>
-    <row r="581" spans="1:7" ht="17.75" customHeight="1">
+    <row r="581" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A581" s="5">
-        <f t="shared" ref="A581:A644" si="9">ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>578</v>
       </c>
       <c r="B581" s="3"/>
@@ -8402,7 +8692,7 @@
       <c r="F581" s="4"/>
       <c r="G581" s="4"/>
     </row>
-    <row r="582" spans="1:7" ht="17.75" customHeight="1">
+    <row r="582" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A582" s="5">
         <f t="shared" si="9"/>
         <v>579</v>
@@ -8414,7 +8704,7 @@
       <c r="F582" s="4"/>
       <c r="G582" s="4"/>
     </row>
-    <row r="583" spans="1:7" ht="17.75" customHeight="1">
+    <row r="583" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A583" s="5">
         <f t="shared" si="9"/>
         <v>580</v>
@@ -8426,7 +8716,7 @@
       <c r="F583" s="4"/>
       <c r="G583" s="4"/>
     </row>
-    <row r="584" spans="1:7" ht="17.75" customHeight="1">
+    <row r="584" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A584" s="5">
         <f t="shared" si="9"/>
         <v>581</v>
@@ -8438,7 +8728,7 @@
       <c r="F584" s="4"/>
       <c r="G584" s="4"/>
     </row>
-    <row r="585" spans="1:7" ht="17.75" customHeight="1">
+    <row r="585" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A585" s="5">
         <f t="shared" si="9"/>
         <v>582</v>
@@ -8450,7 +8740,7 @@
       <c r="F585" s="4"/>
       <c r="G585" s="4"/>
     </row>
-    <row r="586" spans="1:7" ht="17.75" customHeight="1">
+    <row r="586" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A586" s="5">
         <f t="shared" si="9"/>
         <v>583</v>
@@ -8462,7 +8752,7 @@
       <c r="F586" s="4"/>
       <c r="G586" s="4"/>
     </row>
-    <row r="587" spans="1:7" ht="17.75" customHeight="1">
+    <row r="587" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A587" s="5">
         <f t="shared" si="9"/>
         <v>584</v>
@@ -8474,7 +8764,7 @@
       <c r="F587" s="4"/>
       <c r="G587" s="4"/>
     </row>
-    <row r="588" spans="1:7" ht="17.75" customHeight="1">
+    <row r="588" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A588" s="5">
         <f t="shared" si="9"/>
         <v>585</v>
@@ -8486,7 +8776,7 @@
       <c r="F588" s="4"/>
       <c r="G588" s="4"/>
     </row>
-    <row r="589" spans="1:7" ht="17.75" customHeight="1">
+    <row r="589" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A589" s="5">
         <f t="shared" si="9"/>
         <v>586</v>
@@ -8498,7 +8788,7 @@
       <c r="F589" s="4"/>
       <c r="G589" s="4"/>
     </row>
-    <row r="590" spans="1:7" ht="17.75" customHeight="1">
+    <row r="590" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A590" s="5">
         <f t="shared" si="9"/>
         <v>587</v>
@@ -8510,7 +8800,7 @@
       <c r="F590" s="4"/>
       <c r="G590" s="4"/>
     </row>
-    <row r="591" spans="1:7" ht="17.75" customHeight="1">
+    <row r="591" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A591" s="5">
         <f t="shared" si="9"/>
         <v>588</v>
@@ -8522,7 +8812,7 @@
       <c r="F591" s="4"/>
       <c r="G591" s="4"/>
     </row>
-    <row r="592" spans="1:7" ht="17.75" customHeight="1">
+    <row r="592" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A592" s="5">
         <f t="shared" si="9"/>
         <v>589</v>
@@ -8534,7 +8824,7 @@
       <c r="F592" s="4"/>
       <c r="G592" s="4"/>
     </row>
-    <row r="593" spans="1:7" ht="17.75" customHeight="1">
+    <row r="593" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A593" s="5">
         <f t="shared" si="9"/>
         <v>590</v>
@@ -8546,7 +8836,7 @@
       <c r="F593" s="4"/>
       <c r="G593" s="4"/>
     </row>
-    <row r="594" spans="1:7" ht="17.75" customHeight="1">
+    <row r="594" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A594" s="5">
         <f t="shared" si="9"/>
         <v>591</v>
@@ -8558,7 +8848,7 @@
       <c r="F594" s="4"/>
       <c r="G594" s="4"/>
     </row>
-    <row r="595" spans="1:7" ht="17.75" customHeight="1">
+    <row r="595" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A595" s="5">
         <f t="shared" si="9"/>
         <v>592</v>
@@ -8570,7 +8860,7 @@
       <c r="F595" s="4"/>
       <c r="G595" s="4"/>
     </row>
-    <row r="596" spans="1:7" ht="17.75" customHeight="1">
+    <row r="596" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A596" s="5">
         <f t="shared" si="9"/>
         <v>593</v>
@@ -8582,7 +8872,7 @@
       <c r="F596" s="4"/>
       <c r="G596" s="4"/>
     </row>
-    <row r="597" spans="1:7" ht="17.75" customHeight="1">
+    <row r="597" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A597" s="5">
         <f t="shared" si="9"/>
         <v>594</v>
@@ -8594,7 +8884,7 @@
       <c r="F597" s="4"/>
       <c r="G597" s="4"/>
     </row>
-    <row r="598" spans="1:7" ht="17.75" customHeight="1">
+    <row r="598" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A598" s="5">
         <f t="shared" si="9"/>
         <v>595</v>
@@ -8606,7 +8896,7 @@
       <c r="F598" s="4"/>
       <c r="G598" s="4"/>
     </row>
-    <row r="599" spans="1:7" ht="17.75" customHeight="1">
+    <row r="599" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A599" s="5">
         <f t="shared" si="9"/>
         <v>596</v>
@@ -8618,7 +8908,7 @@
       <c r="F599" s="4"/>
       <c r="G599" s="4"/>
     </row>
-    <row r="600" spans="1:7" ht="17.75" customHeight="1">
+    <row r="600" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A600" s="5">
         <f t="shared" si="9"/>
         <v>597</v>
@@ -8630,7 +8920,7 @@
       <c r="F600" s="4"/>
       <c r="G600" s="4"/>
     </row>
-    <row r="601" spans="1:7" ht="17.75" customHeight="1">
+    <row r="601" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A601" s="5">
         <f t="shared" si="9"/>
         <v>598</v>
@@ -8642,7 +8932,7 @@
       <c r="F601" s="4"/>
       <c r="G601" s="4"/>
     </row>
-    <row r="602" spans="1:7" ht="17.75" customHeight="1">
+    <row r="602" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A602" s="5">
         <f t="shared" si="9"/>
         <v>599</v>
@@ -8654,7 +8944,7 @@
       <c r="F602" s="4"/>
       <c r="G602" s="4"/>
     </row>
-    <row r="603" spans="1:7" ht="17.75" customHeight="1">
+    <row r="603" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A603" s="5">
         <f t="shared" si="9"/>
         <v>600</v>
@@ -8666,7 +8956,7 @@
       <c r="F603" s="4"/>
       <c r="G603" s="4"/>
     </row>
-    <row r="604" spans="1:7" ht="17.75" customHeight="1">
+    <row r="604" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A604" s="5">
         <f t="shared" si="9"/>
         <v>601</v>
@@ -8678,7 +8968,7 @@
       <c r="F604" s="4"/>
       <c r="G604" s="4"/>
     </row>
-    <row r="605" spans="1:7" ht="17.75" customHeight="1">
+    <row r="605" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A605" s="5">
         <f t="shared" si="9"/>
         <v>602</v>
@@ -8690,7 +8980,7 @@
       <c r="F605" s="4"/>
       <c r="G605" s="4"/>
     </row>
-    <row r="606" spans="1:7" ht="17.75" customHeight="1">
+    <row r="606" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A606" s="5">
         <f t="shared" si="9"/>
         <v>603</v>
@@ -8702,7 +8992,7 @@
       <c r="F606" s="4"/>
       <c r="G606" s="4"/>
     </row>
-    <row r="607" spans="1:7" ht="17.75" customHeight="1">
+    <row r="607" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A607" s="5">
         <f t="shared" si="9"/>
         <v>604</v>
@@ -8714,7 +9004,7 @@
       <c r="F607" s="4"/>
       <c r="G607" s="4"/>
     </row>
-    <row r="608" spans="1:7" ht="17.75" customHeight="1">
+    <row r="608" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A608" s="5">
         <f t="shared" si="9"/>
         <v>605</v>
@@ -8726,7 +9016,7 @@
       <c r="F608" s="4"/>
       <c r="G608" s="4"/>
     </row>
-    <row r="609" spans="1:7" ht="17.75" customHeight="1">
+    <row r="609" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A609" s="5">
         <f t="shared" si="9"/>
         <v>606</v>
@@ -8738,7 +9028,7 @@
       <c r="F609" s="4"/>
       <c r="G609" s="4"/>
     </row>
-    <row r="610" spans="1:7" ht="17.75" customHeight="1">
+    <row r="610" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A610" s="5">
         <f t="shared" si="9"/>
         <v>607</v>
@@ -8750,7 +9040,7 @@
       <c r="F610" s="4"/>
       <c r="G610" s="4"/>
     </row>
-    <row r="611" spans="1:7" ht="17.75" customHeight="1">
+    <row r="611" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A611" s="5">
         <f t="shared" si="9"/>
         <v>608</v>
@@ -8762,7 +9052,7 @@
       <c r="F611" s="4"/>
       <c r="G611" s="4"/>
     </row>
-    <row r="612" spans="1:7" ht="17.75" customHeight="1">
+    <row r="612" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A612" s="5">
         <f t="shared" si="9"/>
         <v>609</v>
@@ -8774,7 +9064,7 @@
       <c r="F612" s="4"/>
       <c r="G612" s="4"/>
     </row>
-    <row r="613" spans="1:7" ht="17.75" customHeight="1">
+    <row r="613" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A613" s="5">
         <f t="shared" si="9"/>
         <v>610</v>
@@ -8786,7 +9076,7 @@
       <c r="F613" s="4"/>
       <c r="G613" s="4"/>
     </row>
-    <row r="614" spans="1:7" ht="17.75" customHeight="1">
+    <row r="614" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A614" s="5">
         <f t="shared" si="9"/>
         <v>611</v>
@@ -8798,7 +9088,7 @@
       <c r="F614" s="4"/>
       <c r="G614" s="4"/>
     </row>
-    <row r="615" spans="1:7" ht="17.75" customHeight="1">
+    <row r="615" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A615" s="5">
         <f t="shared" si="9"/>
         <v>612</v>
@@ -8810,7 +9100,7 @@
       <c r="F615" s="4"/>
       <c r="G615" s="4"/>
     </row>
-    <row r="616" spans="1:7" ht="17.75" customHeight="1">
+    <row r="616" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A616" s="5">
         <f t="shared" si="9"/>
         <v>613</v>
@@ -8822,7 +9112,7 @@
       <c r="F616" s="4"/>
       <c r="G616" s="4"/>
     </row>
-    <row r="617" spans="1:7" ht="17.75" customHeight="1">
+    <row r="617" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A617" s="5">
         <f t="shared" si="9"/>
         <v>614</v>
@@ -8834,7 +9124,7 @@
       <c r="F617" s="4"/>
       <c r="G617" s="4"/>
     </row>
-    <row r="618" spans="1:7" ht="17.75" customHeight="1">
+    <row r="618" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A618" s="5">
         <f t="shared" si="9"/>
         <v>615</v>
@@ -8846,7 +9136,7 @@
       <c r="F618" s="4"/>
       <c r="G618" s="4"/>
     </row>
-    <row r="619" spans="1:7" ht="17.75" customHeight="1">
+    <row r="619" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A619" s="5">
         <f t="shared" si="9"/>
         <v>616</v>
@@ -8858,7 +9148,7 @@
       <c r="F619" s="4"/>
       <c r="G619" s="4"/>
     </row>
-    <row r="620" spans="1:7" ht="17.75" customHeight="1">
+    <row r="620" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A620" s="5">
         <f t="shared" si="9"/>
         <v>617</v>
@@ -8870,7 +9160,7 @@
       <c r="F620" s="4"/>
       <c r="G620" s="4"/>
     </row>
-    <row r="621" spans="1:7" ht="17.75" customHeight="1">
+    <row r="621" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A621" s="5">
         <f t="shared" si="9"/>
         <v>618</v>
@@ -8882,7 +9172,7 @@
       <c r="F621" s="4"/>
       <c r="G621" s="4"/>
     </row>
-    <row r="622" spans="1:7" ht="17.75" customHeight="1">
+    <row r="622" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A622" s="5">
         <f t="shared" si="9"/>
         <v>619</v>
@@ -8894,7 +9184,7 @@
       <c r="F622" s="4"/>
       <c r="G622" s="4"/>
     </row>
-    <row r="623" spans="1:7" ht="17.75" customHeight="1">
+    <row r="623" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A623" s="5">
         <f t="shared" si="9"/>
         <v>620</v>
@@ -8906,7 +9196,7 @@
       <c r="F623" s="4"/>
       <c r="G623" s="4"/>
     </row>
-    <row r="624" spans="1:7" ht="17.75" customHeight="1">
+    <row r="624" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A624" s="5">
         <f t="shared" si="9"/>
         <v>621</v>
@@ -8918,7 +9208,7 @@
       <c r="F624" s="4"/>
       <c r="G624" s="4"/>
     </row>
-    <row r="625" spans="1:7" ht="17.75" customHeight="1">
+    <row r="625" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A625" s="5">
         <f t="shared" si="9"/>
         <v>622</v>
@@ -8930,7 +9220,7 @@
       <c r="F625" s="4"/>
       <c r="G625" s="4"/>
     </row>
-    <row r="626" spans="1:7" ht="17.75" customHeight="1">
+    <row r="626" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A626" s="5">
         <f t="shared" si="9"/>
         <v>623</v>
@@ -8942,7 +9232,7 @@
       <c r="F626" s="4"/>
       <c r="G626" s="4"/>
     </row>
-    <row r="627" spans="1:7" ht="17.75" customHeight="1">
+    <row r="627" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A627" s="5">
         <f t="shared" si="9"/>
         <v>624</v>
@@ -8954,7 +9244,7 @@
       <c r="F627" s="4"/>
       <c r="G627" s="4"/>
     </row>
-    <row r="628" spans="1:7" ht="17.75" customHeight="1">
+    <row r="628" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A628" s="5">
         <f t="shared" si="9"/>
         <v>625</v>
@@ -8966,7 +9256,7 @@
       <c r="F628" s="4"/>
       <c r="G628" s="4"/>
     </row>
-    <row r="629" spans="1:7" ht="17.75" customHeight="1">
+    <row r="629" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A629" s="5">
         <f t="shared" si="9"/>
         <v>626</v>
@@ -8978,7 +9268,7 @@
       <c r="F629" s="4"/>
       <c r="G629" s="4"/>
     </row>
-    <row r="630" spans="1:7" ht="17.75" customHeight="1">
+    <row r="630" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A630" s="5">
         <f t="shared" si="9"/>
         <v>627</v>
@@ -8990,7 +9280,7 @@
       <c r="F630" s="4"/>
       <c r="G630" s="4"/>
     </row>
-    <row r="631" spans="1:7" ht="17.75" customHeight="1">
+    <row r="631" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A631" s="5">
         <f t="shared" si="9"/>
         <v>628</v>
@@ -9002,7 +9292,7 @@
       <c r="F631" s="4"/>
       <c r="G631" s="4"/>
     </row>
-    <row r="632" spans="1:7" ht="17.75" customHeight="1">
+    <row r="632" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A632" s="5">
         <f t="shared" si="9"/>
         <v>629</v>
@@ -9014,7 +9304,7 @@
       <c r="F632" s="4"/>
       <c r="G632" s="4"/>
     </row>
-    <row r="633" spans="1:7" ht="17.75" customHeight="1">
+    <row r="633" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A633" s="5">
         <f t="shared" si="9"/>
         <v>630</v>
@@ -9026,7 +9316,7 @@
       <c r="F633" s="4"/>
       <c r="G633" s="4"/>
     </row>
-    <row r="634" spans="1:7" ht="17.75" customHeight="1">
+    <row r="634" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A634" s="5">
         <f t="shared" si="9"/>
         <v>631</v>
@@ -9038,7 +9328,7 @@
       <c r="F634" s="4"/>
       <c r="G634" s="4"/>
     </row>
-    <row r="635" spans="1:7" ht="17.75" customHeight="1">
+    <row r="635" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A635" s="5">
         <f t="shared" si="9"/>
         <v>632</v>
@@ -9050,7 +9340,7 @@
       <c r="F635" s="4"/>
       <c r="G635" s="4"/>
     </row>
-    <row r="636" spans="1:7" ht="17.75" customHeight="1">
+    <row r="636" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A636" s="5">
         <f t="shared" si="9"/>
         <v>633</v>
@@ -9062,7 +9352,7 @@
       <c r="F636" s="4"/>
       <c r="G636" s="4"/>
     </row>
-    <row r="637" spans="1:7" ht="17.75" customHeight="1">
+    <row r="637" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A637" s="5">
         <f t="shared" si="9"/>
         <v>634</v>
@@ -9074,7 +9364,7 @@
       <c r="F637" s="4"/>
       <c r="G637" s="4"/>
     </row>
-    <row r="638" spans="1:7" ht="17.75" customHeight="1">
+    <row r="638" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A638" s="5">
         <f t="shared" si="9"/>
         <v>635</v>
@@ -9086,7 +9376,7 @@
       <c r="F638" s="4"/>
       <c r="G638" s="4"/>
     </row>
-    <row r="639" spans="1:7" ht="17.75" customHeight="1">
+    <row r="639" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A639" s="5">
         <f t="shared" si="9"/>
         <v>636</v>
@@ -9098,7 +9388,7 @@
       <c r="F639" s="4"/>
       <c r="G639" s="4"/>
     </row>
-    <row r="640" spans="1:7" ht="17.75" customHeight="1">
+    <row r="640" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A640" s="5">
         <f t="shared" si="9"/>
         <v>637</v>
@@ -9110,7 +9400,7 @@
       <c r="F640" s="4"/>
       <c r="G640" s="4"/>
     </row>
-    <row r="641" spans="1:7" ht="17.75" customHeight="1">
+    <row r="641" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A641" s="5">
         <f t="shared" si="9"/>
         <v>638</v>
@@ -9122,9 +9412,9 @@
       <c r="F641" s="4"/>
       <c r="G641" s="4"/>
     </row>
-    <row r="642" spans="1:7" ht="17.75" customHeight="1">
+    <row r="642" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A642" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="A642:A705" si="10">ROW()-3</f>
         <v>639</v>
       </c>
       <c r="B642" s="3"/>
@@ -9134,9 +9424,9 @@
       <c r="F642" s="4"/>
       <c r="G642" s="4"/>
     </row>
-    <row r="643" spans="1:7" ht="17.75" customHeight="1">
+    <row r="643" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A643" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>640</v>
       </c>
       <c r="B643" s="3"/>
@@ -9146,9 +9436,9 @@
       <c r="F643" s="4"/>
       <c r="G643" s="4"/>
     </row>
-    <row r="644" spans="1:7" ht="17.75" customHeight="1">
+    <row r="644" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A644" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>641</v>
       </c>
       <c r="B644" s="3"/>
@@ -9158,9 +9448,9 @@
       <c r="F644" s="4"/>
       <c r="G644" s="4"/>
     </row>
-    <row r="645" spans="1:7" ht="17.75" customHeight="1">
+    <row r="645" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A645" s="5">
-        <f t="shared" ref="A645:A708" si="10">ROW()-3</f>
+        <f t="shared" si="10"/>
         <v>642</v>
       </c>
       <c r="B645" s="3"/>
@@ -9170,7 +9460,7 @@
       <c r="F645" s="4"/>
       <c r="G645" s="4"/>
     </row>
-    <row r="646" spans="1:7" ht="17.75" customHeight="1">
+    <row r="646" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A646" s="5">
         <f t="shared" si="10"/>
         <v>643</v>
@@ -9182,7 +9472,7 @@
       <c r="F646" s="4"/>
       <c r="G646" s="4"/>
     </row>
-    <row r="647" spans="1:7" ht="17.75" customHeight="1">
+    <row r="647" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A647" s="5">
         <f t="shared" si="10"/>
         <v>644</v>
@@ -9194,7 +9484,7 @@
       <c r="F647" s="4"/>
       <c r="G647" s="4"/>
     </row>
-    <row r="648" spans="1:7" ht="17.75" customHeight="1">
+    <row r="648" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A648" s="5">
         <f t="shared" si="10"/>
         <v>645</v>
@@ -9206,7 +9496,7 @@
       <c r="F648" s="4"/>
       <c r="G648" s="4"/>
     </row>
-    <row r="649" spans="1:7" ht="17.75" customHeight="1">
+    <row r="649" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A649" s="5">
         <f t="shared" si="10"/>
         <v>646</v>
@@ -9218,7 +9508,7 @@
       <c r="F649" s="4"/>
       <c r="G649" s="4"/>
     </row>
-    <row r="650" spans="1:7" ht="17.75" customHeight="1">
+    <row r="650" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A650" s="5">
         <f t="shared" si="10"/>
         <v>647</v>
@@ -9230,7 +9520,7 @@
       <c r="F650" s="4"/>
       <c r="G650" s="4"/>
     </row>
-    <row r="651" spans="1:7" ht="17.75" customHeight="1">
+    <row r="651" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A651" s="5">
         <f t="shared" si="10"/>
         <v>648</v>
@@ -9242,7 +9532,7 @@
       <c r="F651" s="4"/>
       <c r="G651" s="4"/>
     </row>
-    <row r="652" spans="1:7" ht="17.75" customHeight="1">
+    <row r="652" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A652" s="5">
         <f t="shared" si="10"/>
         <v>649</v>
@@ -9254,7 +9544,7 @@
       <c r="F652" s="4"/>
       <c r="G652" s="4"/>
     </row>
-    <row r="653" spans="1:7" ht="17.75" customHeight="1">
+    <row r="653" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A653" s="5">
         <f t="shared" si="10"/>
         <v>650</v>
@@ -9266,7 +9556,7 @@
       <c r="F653" s="4"/>
       <c r="G653" s="4"/>
     </row>
-    <row r="654" spans="1:7" ht="17.75" customHeight="1">
+    <row r="654" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A654" s="5">
         <f t="shared" si="10"/>
         <v>651</v>
@@ -9278,7 +9568,7 @@
       <c r="F654" s="4"/>
       <c r="G654" s="4"/>
     </row>
-    <row r="655" spans="1:7" ht="17.75" customHeight="1">
+    <row r="655" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A655" s="5">
         <f t="shared" si="10"/>
         <v>652</v>
@@ -9290,7 +9580,7 @@
       <c r="F655" s="4"/>
       <c r="G655" s="4"/>
     </row>
-    <row r="656" spans="1:7" ht="17.75" customHeight="1">
+    <row r="656" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A656" s="5">
         <f t="shared" si="10"/>
         <v>653</v>
@@ -9302,7 +9592,7 @@
       <c r="F656" s="4"/>
       <c r="G656" s="4"/>
     </row>
-    <row r="657" spans="1:7" ht="17.75" customHeight="1">
+    <row r="657" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A657" s="5">
         <f t="shared" si="10"/>
         <v>654</v>
@@ -9314,7 +9604,7 @@
       <c r="F657" s="4"/>
       <c r="G657" s="4"/>
     </row>
-    <row r="658" spans="1:7" ht="17.75" customHeight="1">
+    <row r="658" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A658" s="5">
         <f t="shared" si="10"/>
         <v>655</v>
@@ -9326,7 +9616,7 @@
       <c r="F658" s="4"/>
       <c r="G658" s="4"/>
     </row>
-    <row r="659" spans="1:7" ht="17.75" customHeight="1">
+    <row r="659" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A659" s="5">
         <f t="shared" si="10"/>
         <v>656</v>
@@ -9338,7 +9628,7 @@
       <c r="F659" s="4"/>
       <c r="G659" s="4"/>
     </row>
-    <row r="660" spans="1:7" ht="17.75" customHeight="1">
+    <row r="660" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A660" s="5">
         <f t="shared" si="10"/>
         <v>657</v>
@@ -9350,7 +9640,7 @@
       <c r="F660" s="4"/>
       <c r="G660" s="4"/>
     </row>
-    <row r="661" spans="1:7" ht="17.75" customHeight="1">
+    <row r="661" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A661" s="5">
         <f t="shared" si="10"/>
         <v>658</v>
@@ -9362,7 +9652,7 @@
       <c r="F661" s="4"/>
       <c r="G661" s="4"/>
     </row>
-    <row r="662" spans="1:7" ht="17.75" customHeight="1">
+    <row r="662" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A662" s="5">
         <f t="shared" si="10"/>
         <v>659</v>
@@ -9374,7 +9664,7 @@
       <c r="F662" s="4"/>
       <c r="G662" s="4"/>
     </row>
-    <row r="663" spans="1:7" ht="17.75" customHeight="1">
+    <row r="663" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A663" s="5">
         <f t="shared" si="10"/>
         <v>660</v>
@@ -9386,7 +9676,7 @@
       <c r="F663" s="4"/>
       <c r="G663" s="4"/>
     </row>
-    <row r="664" spans="1:7" ht="17.75" customHeight="1">
+    <row r="664" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A664" s="5">
         <f t="shared" si="10"/>
         <v>661</v>
@@ -9398,7 +9688,7 @@
       <c r="F664" s="4"/>
       <c r="G664" s="4"/>
     </row>
-    <row r="665" spans="1:7" ht="17.75" customHeight="1">
+    <row r="665" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A665" s="5">
         <f t="shared" si="10"/>
         <v>662</v>
@@ -9410,7 +9700,7 @@
       <c r="F665" s="4"/>
       <c r="G665" s="4"/>
     </row>
-    <row r="666" spans="1:7" ht="17.75" customHeight="1">
+    <row r="666" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A666" s="5">
         <f t="shared" si="10"/>
         <v>663</v>
@@ -9422,7 +9712,7 @@
       <c r="F666" s="4"/>
       <c r="G666" s="4"/>
     </row>
-    <row r="667" spans="1:7" ht="17.75" customHeight="1">
+    <row r="667" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A667" s="5">
         <f t="shared" si="10"/>
         <v>664</v>
@@ -9434,7 +9724,7 @@
       <c r="F667" s="4"/>
       <c r="G667" s="4"/>
     </row>
-    <row r="668" spans="1:7" ht="17.75" customHeight="1">
+    <row r="668" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A668" s="5">
         <f t="shared" si="10"/>
         <v>665</v>
@@ -9446,7 +9736,7 @@
       <c r="F668" s="4"/>
       <c r="G668" s="4"/>
     </row>
-    <row r="669" spans="1:7" ht="17.75" customHeight="1">
+    <row r="669" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A669" s="5">
         <f t="shared" si="10"/>
         <v>666</v>
@@ -9458,7 +9748,7 @@
       <c r="F669" s="4"/>
       <c r="G669" s="4"/>
     </row>
-    <row r="670" spans="1:7" ht="17.75" customHeight="1">
+    <row r="670" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A670" s="5">
         <f t="shared" si="10"/>
         <v>667</v>
@@ -9470,7 +9760,7 @@
       <c r="F670" s="4"/>
       <c r="G670" s="4"/>
     </row>
-    <row r="671" spans="1:7" ht="17.75" customHeight="1">
+    <row r="671" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A671" s="5">
         <f t="shared" si="10"/>
         <v>668</v>
@@ -9482,7 +9772,7 @@
       <c r="F671" s="4"/>
       <c r="G671" s="4"/>
     </row>
-    <row r="672" spans="1:7" ht="17.75" customHeight="1">
+    <row r="672" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A672" s="5">
         <f t="shared" si="10"/>
         <v>669</v>
@@ -9494,7 +9784,7 @@
       <c r="F672" s="4"/>
       <c r="G672" s="4"/>
     </row>
-    <row r="673" spans="1:7" ht="17.75" customHeight="1">
+    <row r="673" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A673" s="5">
         <f t="shared" si="10"/>
         <v>670</v>
@@ -9506,7 +9796,7 @@
       <c r="F673" s="4"/>
       <c r="G673" s="4"/>
     </row>
-    <row r="674" spans="1:7" ht="17.75" customHeight="1">
+    <row r="674" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A674" s="5">
         <f t="shared" si="10"/>
         <v>671</v>
@@ -9518,7 +9808,7 @@
       <c r="F674" s="4"/>
       <c r="G674" s="4"/>
     </row>
-    <row r="675" spans="1:7" ht="17.75" customHeight="1">
+    <row r="675" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A675" s="5">
         <f t="shared" si="10"/>
         <v>672</v>
@@ -9530,7 +9820,7 @@
       <c r="F675" s="4"/>
       <c r="G675" s="4"/>
     </row>
-    <row r="676" spans="1:7" ht="17.75" customHeight="1">
+    <row r="676" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A676" s="5">
         <f t="shared" si="10"/>
         <v>673</v>
@@ -9542,7 +9832,7 @@
       <c r="F676" s="4"/>
       <c r="G676" s="4"/>
     </row>
-    <row r="677" spans="1:7" ht="17.75" customHeight="1">
+    <row r="677" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A677" s="5">
         <f t="shared" si="10"/>
         <v>674</v>
@@ -9554,7 +9844,7 @@
       <c r="F677" s="4"/>
       <c r="G677" s="4"/>
     </row>
-    <row r="678" spans="1:7" ht="17.75" customHeight="1">
+    <row r="678" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A678" s="5">
         <f t="shared" si="10"/>
         <v>675</v>
@@ -9566,7 +9856,7 @@
       <c r="F678" s="4"/>
       <c r="G678" s="4"/>
     </row>
-    <row r="679" spans="1:7" ht="17.75" customHeight="1">
+    <row r="679" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A679" s="5">
         <f t="shared" si="10"/>
         <v>676</v>
@@ -9578,7 +9868,7 @@
       <c r="F679" s="4"/>
       <c r="G679" s="4"/>
     </row>
-    <row r="680" spans="1:7" ht="17.75" customHeight="1">
+    <row r="680" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A680" s="5">
         <f t="shared" si="10"/>
         <v>677</v>
@@ -9590,7 +9880,7 @@
       <c r="F680" s="4"/>
       <c r="G680" s="4"/>
     </row>
-    <row r="681" spans="1:7" ht="17.75" customHeight="1">
+    <row r="681" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A681" s="5">
         <f t="shared" si="10"/>
         <v>678</v>
@@ -9602,7 +9892,7 @@
       <c r="F681" s="4"/>
       <c r="G681" s="4"/>
     </row>
-    <row r="682" spans="1:7" ht="17.75" customHeight="1">
+    <row r="682" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A682" s="5">
         <f t="shared" si="10"/>
         <v>679</v>
@@ -9614,7 +9904,7 @@
       <c r="F682" s="4"/>
       <c r="G682" s="4"/>
     </row>
-    <row r="683" spans="1:7" ht="17.75" customHeight="1">
+    <row r="683" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A683" s="5">
         <f t="shared" si="10"/>
         <v>680</v>
@@ -9626,7 +9916,7 @@
       <c r="F683" s="4"/>
       <c r="G683" s="4"/>
     </row>
-    <row r="684" spans="1:7" ht="17.75" customHeight="1">
+    <row r="684" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A684" s="5">
         <f t="shared" si="10"/>
         <v>681</v>
@@ -9638,7 +9928,7 @@
       <c r="F684" s="4"/>
       <c r="G684" s="4"/>
     </row>
-    <row r="685" spans="1:7" ht="17.75" customHeight="1">
+    <row r="685" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A685" s="5">
         <f t="shared" si="10"/>
         <v>682</v>
@@ -9650,7 +9940,7 @@
       <c r="F685" s="4"/>
       <c r="G685" s="4"/>
     </row>
-    <row r="686" spans="1:7" ht="17.75" customHeight="1">
+    <row r="686" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A686" s="5">
         <f t="shared" si="10"/>
         <v>683</v>
@@ -9662,7 +9952,7 @@
       <c r="F686" s="4"/>
       <c r="G686" s="4"/>
     </row>
-    <row r="687" spans="1:7" ht="17.75" customHeight="1">
+    <row r="687" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A687" s="5">
         <f t="shared" si="10"/>
         <v>684</v>
@@ -9674,7 +9964,7 @@
       <c r="F687" s="4"/>
       <c r="G687" s="4"/>
     </row>
-    <row r="688" spans="1:7" ht="17.75" customHeight="1">
+    <row r="688" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A688" s="5">
         <f t="shared" si="10"/>
         <v>685</v>
@@ -9686,7 +9976,7 @@
       <c r="F688" s="4"/>
       <c r="G688" s="4"/>
     </row>
-    <row r="689" spans="1:7" ht="17.75" customHeight="1">
+    <row r="689" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A689" s="5">
         <f t="shared" si="10"/>
         <v>686</v>
@@ -9698,7 +9988,7 @@
       <c r="F689" s="4"/>
       <c r="G689" s="4"/>
     </row>
-    <row r="690" spans="1:7" ht="17.75" customHeight="1">
+    <row r="690" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A690" s="5">
         <f t="shared" si="10"/>
         <v>687</v>
@@ -9710,7 +10000,7 @@
       <c r="F690" s="4"/>
       <c r="G690" s="4"/>
     </row>
-    <row r="691" spans="1:7" ht="17.75" customHeight="1">
+    <row r="691" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A691" s="5">
         <f t="shared" si="10"/>
         <v>688</v>
@@ -9722,7 +10012,7 @@
       <c r="F691" s="4"/>
       <c r="G691" s="4"/>
     </row>
-    <row r="692" spans="1:7" ht="17.75" customHeight="1">
+    <row r="692" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A692" s="5">
         <f t="shared" si="10"/>
         <v>689</v>
@@ -9734,7 +10024,7 @@
       <c r="F692" s="4"/>
       <c r="G692" s="4"/>
     </row>
-    <row r="693" spans="1:7" ht="17.75" customHeight="1">
+    <row r="693" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A693" s="5">
         <f t="shared" si="10"/>
         <v>690</v>
@@ -9746,7 +10036,7 @@
       <c r="F693" s="4"/>
       <c r="G693" s="4"/>
     </row>
-    <row r="694" spans="1:7" ht="17.75" customHeight="1">
+    <row r="694" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A694" s="5">
         <f t="shared" si="10"/>
         <v>691</v>
@@ -9758,7 +10048,7 @@
       <c r="F694" s="4"/>
       <c r="G694" s="4"/>
     </row>
-    <row r="695" spans="1:7" ht="17.75" customHeight="1">
+    <row r="695" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A695" s="5">
         <f t="shared" si="10"/>
         <v>692</v>
@@ -9770,7 +10060,7 @@
       <c r="F695" s="4"/>
       <c r="G695" s="4"/>
     </row>
-    <row r="696" spans="1:7" ht="17.75" customHeight="1">
+    <row r="696" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A696" s="5">
         <f t="shared" si="10"/>
         <v>693</v>
@@ -9782,7 +10072,7 @@
       <c r="F696" s="4"/>
       <c r="G696" s="4"/>
     </row>
-    <row r="697" spans="1:7" ht="17.75" customHeight="1">
+    <row r="697" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A697" s="5">
         <f t="shared" si="10"/>
         <v>694</v>
@@ -9794,7 +10084,7 @@
       <c r="F697" s="4"/>
       <c r="G697" s="4"/>
     </row>
-    <row r="698" spans="1:7" ht="17.75" customHeight="1">
+    <row r="698" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A698" s="5">
         <f t="shared" si="10"/>
         <v>695</v>
@@ -9806,7 +10096,7 @@
       <c r="F698" s="4"/>
       <c r="G698" s="4"/>
     </row>
-    <row r="699" spans="1:7" ht="17.75" customHeight="1">
+    <row r="699" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A699" s="5">
         <f t="shared" si="10"/>
         <v>696</v>
@@ -9818,7 +10108,7 @@
       <c r="F699" s="4"/>
       <c r="G699" s="4"/>
     </row>
-    <row r="700" spans="1:7" ht="17.75" customHeight="1">
+    <row r="700" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A700" s="5">
         <f t="shared" si="10"/>
         <v>697</v>
@@ -9830,7 +10120,7 @@
       <c r="F700" s="4"/>
       <c r="G700" s="4"/>
     </row>
-    <row r="701" spans="1:7" ht="17.75" customHeight="1">
+    <row r="701" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A701" s="5">
         <f t="shared" si="10"/>
         <v>698</v>
@@ -9842,7 +10132,7 @@
       <c r="F701" s="4"/>
       <c r="G701" s="4"/>
     </row>
-    <row r="702" spans="1:7" ht="17.75" customHeight="1">
+    <row r="702" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A702" s="5">
         <f t="shared" si="10"/>
         <v>699</v>
@@ -9854,7 +10144,7 @@
       <c r="F702" s="4"/>
       <c r="G702" s="4"/>
     </row>
-    <row r="703" spans="1:7" ht="17.75" customHeight="1">
+    <row r="703" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A703" s="5">
         <f t="shared" si="10"/>
         <v>700</v>
@@ -9866,7 +10156,7 @@
       <c r="F703" s="4"/>
       <c r="G703" s="4"/>
     </row>
-    <row r="704" spans="1:7" ht="17.75" customHeight="1">
+    <row r="704" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A704" s="5">
         <f t="shared" si="10"/>
         <v>701</v>
@@ -9878,7 +10168,7 @@
       <c r="F704" s="4"/>
       <c r="G704" s="4"/>
     </row>
-    <row r="705" spans="1:7" ht="17.75" customHeight="1">
+    <row r="705" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A705" s="5">
         <f t="shared" si="10"/>
         <v>702</v>
@@ -9890,9 +10180,9 @@
       <c r="F705" s="4"/>
       <c r="G705" s="4"/>
     </row>
-    <row r="706" spans="1:7" ht="17.75" customHeight="1">
+    <row r="706" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A706" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="A706:A769" si="11">ROW()-3</f>
         <v>703</v>
       </c>
       <c r="B706" s="3"/>
@@ -9902,9 +10192,9 @@
       <c r="F706" s="4"/>
       <c r="G706" s="4"/>
     </row>
-    <row r="707" spans="1:7" ht="17.75" customHeight="1">
+    <row r="707" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A707" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>704</v>
       </c>
       <c r="B707" s="3"/>
@@ -9914,9 +10204,9 @@
       <c r="F707" s="4"/>
       <c r="G707" s="4"/>
     </row>
-    <row r="708" spans="1:7" ht="17.75" customHeight="1">
+    <row r="708" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A708" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>705</v>
       </c>
       <c r="B708" s="3"/>
@@ -9926,9 +10216,9 @@
       <c r="F708" s="4"/>
       <c r="G708" s="4"/>
     </row>
-    <row r="709" spans="1:7" ht="17.75" customHeight="1">
+    <row r="709" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A709" s="5">
-        <f t="shared" ref="A709:A772" si="11">ROW()-3</f>
+        <f t="shared" si="11"/>
         <v>706</v>
       </c>
       <c r="B709" s="3"/>
@@ -9938,7 +10228,7 @@
       <c r="F709" s="4"/>
       <c r="G709" s="4"/>
     </row>
-    <row r="710" spans="1:7" ht="17.75" customHeight="1">
+    <row r="710" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A710" s="5">
         <f t="shared" si="11"/>
         <v>707</v>
@@ -9950,7 +10240,7 @@
       <c r="F710" s="4"/>
       <c r="G710" s="4"/>
     </row>
-    <row r="711" spans="1:7" ht="17.75" customHeight="1">
+    <row r="711" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A711" s="5">
         <f t="shared" si="11"/>
         <v>708</v>
@@ -9962,7 +10252,7 @@
       <c r="F711" s="4"/>
       <c r="G711" s="4"/>
     </row>
-    <row r="712" spans="1:7" ht="17.75" customHeight="1">
+    <row r="712" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A712" s="5">
         <f t="shared" si="11"/>
         <v>709</v>
@@ -9974,7 +10264,7 @@
       <c r="F712" s="4"/>
       <c r="G712" s="4"/>
     </row>
-    <row r="713" spans="1:7" ht="17.75" customHeight="1">
+    <row r="713" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A713" s="5">
         <f t="shared" si="11"/>
         <v>710</v>
@@ -9986,7 +10276,7 @@
       <c r="F713" s="4"/>
       <c r="G713" s="4"/>
     </row>
-    <row r="714" spans="1:7" ht="17.75" customHeight="1">
+    <row r="714" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A714" s="5">
         <f t="shared" si="11"/>
         <v>711</v>
@@ -9998,7 +10288,7 @@
       <c r="F714" s="4"/>
       <c r="G714" s="4"/>
     </row>
-    <row r="715" spans="1:7" ht="17.75" customHeight="1">
+    <row r="715" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A715" s="5">
         <f t="shared" si="11"/>
         <v>712</v>
@@ -10010,7 +10300,7 @@
       <c r="F715" s="4"/>
       <c r="G715" s="4"/>
     </row>
-    <row r="716" spans="1:7" ht="17.75" customHeight="1">
+    <row r="716" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A716" s="5">
         <f t="shared" si="11"/>
         <v>713</v>
@@ -10022,7 +10312,7 @@
       <c r="F716" s="4"/>
       <c r="G716" s="4"/>
     </row>
-    <row r="717" spans="1:7" ht="17.75" customHeight="1">
+    <row r="717" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A717" s="5">
         <f t="shared" si="11"/>
         <v>714</v>
@@ -10034,7 +10324,7 @@
       <c r="F717" s="4"/>
       <c r="G717" s="4"/>
     </row>
-    <row r="718" spans="1:7" ht="17.75" customHeight="1">
+    <row r="718" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A718" s="5">
         <f t="shared" si="11"/>
         <v>715</v>
@@ -10046,7 +10336,7 @@
       <c r="F718" s="4"/>
       <c r="G718" s="4"/>
     </row>
-    <row r="719" spans="1:7" ht="17.75" customHeight="1">
+    <row r="719" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A719" s="5">
         <f t="shared" si="11"/>
         <v>716</v>
@@ -10058,7 +10348,7 @@
       <c r="F719" s="4"/>
       <c r="G719" s="4"/>
     </row>
-    <row r="720" spans="1:7" ht="17.75" customHeight="1">
+    <row r="720" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A720" s="5">
         <f t="shared" si="11"/>
         <v>717</v>
@@ -10070,7 +10360,7 @@
       <c r="F720" s="4"/>
       <c r="G720" s="4"/>
     </row>
-    <row r="721" spans="1:7" ht="17.75" customHeight="1">
+    <row r="721" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A721" s="5">
         <f t="shared" si="11"/>
         <v>718</v>
@@ -10082,7 +10372,7 @@
       <c r="F721" s="4"/>
       <c r="G721" s="4"/>
     </row>
-    <row r="722" spans="1:7" ht="17.75" customHeight="1">
+    <row r="722" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A722" s="5">
         <f t="shared" si="11"/>
         <v>719</v>
@@ -10094,7 +10384,7 @@
       <c r="F722" s="4"/>
       <c r="G722" s="4"/>
     </row>
-    <row r="723" spans="1:7" ht="17.75" customHeight="1">
+    <row r="723" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A723" s="5">
         <f t="shared" si="11"/>
         <v>720</v>
@@ -10106,7 +10396,7 @@
       <c r="F723" s="4"/>
       <c r="G723" s="4"/>
     </row>
-    <row r="724" spans="1:7" ht="17.75" customHeight="1">
+    <row r="724" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A724" s="5">
         <f t="shared" si="11"/>
         <v>721</v>
@@ -10118,7 +10408,7 @@
       <c r="F724" s="4"/>
       <c r="G724" s="4"/>
     </row>
-    <row r="725" spans="1:7" ht="17.75" customHeight="1">
+    <row r="725" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A725" s="5">
         <f t="shared" si="11"/>
         <v>722</v>
@@ -10130,7 +10420,7 @@
       <c r="F725" s="4"/>
       <c r="G725" s="4"/>
     </row>
-    <row r="726" spans="1:7" ht="17.75" customHeight="1">
+    <row r="726" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A726" s="5">
         <f t="shared" si="11"/>
         <v>723</v>
@@ -10142,7 +10432,7 @@
       <c r="F726" s="4"/>
       <c r="G726" s="4"/>
     </row>
-    <row r="727" spans="1:7" ht="17.75" customHeight="1">
+    <row r="727" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A727" s="5">
         <f t="shared" si="11"/>
         <v>724</v>
@@ -10154,7 +10444,7 @@
       <c r="F727" s="4"/>
       <c r="G727" s="4"/>
     </row>
-    <row r="728" spans="1:7" ht="17.75" customHeight="1">
+    <row r="728" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A728" s="5">
         <f t="shared" si="11"/>
         <v>725</v>
@@ -10166,7 +10456,7 @@
       <c r="F728" s="4"/>
       <c r="G728" s="4"/>
     </row>
-    <row r="729" spans="1:7" ht="17.75" customHeight="1">
+    <row r="729" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A729" s="5">
         <f t="shared" si="11"/>
         <v>726</v>
@@ -10178,7 +10468,7 @@
       <c r="F729" s="4"/>
       <c r="G729" s="4"/>
     </row>
-    <row r="730" spans="1:7" ht="17.75" customHeight="1">
+    <row r="730" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A730" s="5">
         <f t="shared" si="11"/>
         <v>727</v>
@@ -10190,7 +10480,7 @@
       <c r="F730" s="4"/>
       <c r="G730" s="4"/>
     </row>
-    <row r="731" spans="1:7" ht="17.75" customHeight="1">
+    <row r="731" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A731" s="5">
         <f t="shared" si="11"/>
         <v>728</v>
@@ -10202,7 +10492,7 @@
       <c r="F731" s="4"/>
       <c r="G731" s="4"/>
     </row>
-    <row r="732" spans="1:7" ht="17.75" customHeight="1">
+    <row r="732" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A732" s="5">
         <f t="shared" si="11"/>
         <v>729</v>
@@ -10214,7 +10504,7 @@
       <c r="F732" s="4"/>
       <c r="G732" s="4"/>
     </row>
-    <row r="733" spans="1:7" ht="17.75" customHeight="1">
+    <row r="733" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A733" s="5">
         <f t="shared" si="11"/>
         <v>730</v>
@@ -10226,7 +10516,7 @@
       <c r="F733" s="4"/>
       <c r="G733" s="4"/>
     </row>
-    <row r="734" spans="1:7" ht="17.75" customHeight="1">
+    <row r="734" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A734" s="5">
         <f t="shared" si="11"/>
         <v>731</v>
@@ -10238,7 +10528,7 @@
       <c r="F734" s="4"/>
       <c r="G734" s="4"/>
     </row>
-    <row r="735" spans="1:7" ht="17.75" customHeight="1">
+    <row r="735" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A735" s="5">
         <f t="shared" si="11"/>
         <v>732</v>
@@ -10250,7 +10540,7 @@
       <c r="F735" s="4"/>
       <c r="G735" s="4"/>
     </row>
-    <row r="736" spans="1:7" ht="17.75" customHeight="1">
+    <row r="736" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A736" s="5">
         <f t="shared" si="11"/>
         <v>733</v>
@@ -10262,7 +10552,7 @@
       <c r="F736" s="4"/>
       <c r="G736" s="4"/>
     </row>
-    <row r="737" spans="1:7" ht="17.75" customHeight="1">
+    <row r="737" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A737" s="5">
         <f t="shared" si="11"/>
         <v>734</v>
@@ -10274,7 +10564,7 @@
       <c r="F737" s="4"/>
       <c r="G737" s="4"/>
     </row>
-    <row r="738" spans="1:7" ht="17.75" customHeight="1">
+    <row r="738" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A738" s="5">
         <f t="shared" si="11"/>
         <v>735</v>
@@ -10286,7 +10576,7 @@
       <c r="F738" s="4"/>
       <c r="G738" s="4"/>
     </row>
-    <row r="739" spans="1:7" ht="17.75" customHeight="1">
+    <row r="739" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A739" s="5">
         <f t="shared" si="11"/>
         <v>736</v>
@@ -10298,7 +10588,7 @@
       <c r="F739" s="4"/>
       <c r="G739" s="4"/>
     </row>
-    <row r="740" spans="1:7" ht="17.75" customHeight="1">
+    <row r="740" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A740" s="5">
         <f t="shared" si="11"/>
         <v>737</v>
@@ -10310,7 +10600,7 @@
       <c r="F740" s="4"/>
       <c r="G740" s="4"/>
     </row>
-    <row r="741" spans="1:7" ht="17.75" customHeight="1">
+    <row r="741" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A741" s="5">
         <f t="shared" si="11"/>
         <v>738</v>
@@ -10322,7 +10612,7 @@
       <c r="F741" s="4"/>
       <c r="G741" s="4"/>
     </row>
-    <row r="742" spans="1:7" ht="17.75" customHeight="1">
+    <row r="742" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A742" s="5">
         <f t="shared" si="11"/>
         <v>739</v>
@@ -10334,7 +10624,7 @@
       <c r="F742" s="4"/>
       <c r="G742" s="4"/>
     </row>
-    <row r="743" spans="1:7" ht="17.75" customHeight="1">
+    <row r="743" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A743" s="5">
         <f t="shared" si="11"/>
         <v>740</v>
@@ -10346,7 +10636,7 @@
       <c r="F743" s="4"/>
       <c r="G743" s="4"/>
     </row>
-    <row r="744" spans="1:7" ht="17.75" customHeight="1">
+    <row r="744" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A744" s="5">
         <f t="shared" si="11"/>
         <v>741</v>
@@ -10358,7 +10648,7 @@
       <c r="F744" s="4"/>
       <c r="G744" s="4"/>
     </row>
-    <row r="745" spans="1:7" ht="17.75" customHeight="1">
+    <row r="745" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A745" s="5">
         <f t="shared" si="11"/>
         <v>742</v>
@@ -10370,7 +10660,7 @@
       <c r="F745" s="4"/>
       <c r="G745" s="4"/>
     </row>
-    <row r="746" spans="1:7" ht="17.75" customHeight="1">
+    <row r="746" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A746" s="5">
         <f t="shared" si="11"/>
         <v>743</v>
@@ -10382,7 +10672,7 @@
       <c r="F746" s="4"/>
       <c r="G746" s="4"/>
     </row>
-    <row r="747" spans="1:7" ht="17.75" customHeight="1">
+    <row r="747" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A747" s="5">
         <f t="shared" si="11"/>
         <v>744</v>
@@ -10394,7 +10684,7 @@
       <c r="F747" s="4"/>
       <c r="G747" s="4"/>
     </row>
-    <row r="748" spans="1:7" ht="17.75" customHeight="1">
+    <row r="748" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A748" s="5">
         <f t="shared" si="11"/>
         <v>745</v>
@@ -10406,7 +10696,7 @@
       <c r="F748" s="4"/>
       <c r="G748" s="4"/>
     </row>
-    <row r="749" spans="1:7" ht="17.75" customHeight="1">
+    <row r="749" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A749" s="5">
         <f t="shared" si="11"/>
         <v>746</v>
@@ -10418,7 +10708,7 @@
       <c r="F749" s="4"/>
       <c r="G749" s="4"/>
     </row>
-    <row r="750" spans="1:7" ht="17.75" customHeight="1">
+    <row r="750" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A750" s="5">
         <f t="shared" si="11"/>
         <v>747</v>
@@ -10430,7 +10720,7 @@
       <c r="F750" s="4"/>
       <c r="G750" s="4"/>
     </row>
-    <row r="751" spans="1:7" ht="17.75" customHeight="1">
+    <row r="751" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A751" s="5">
         <f t="shared" si="11"/>
         <v>748</v>
@@ -10442,7 +10732,7 @@
       <c r="F751" s="4"/>
       <c r="G751" s="4"/>
     </row>
-    <row r="752" spans="1:7" ht="17.75" customHeight="1">
+    <row r="752" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A752" s="5">
         <f t="shared" si="11"/>
         <v>749</v>
@@ -10454,7 +10744,7 @@
       <c r="F752" s="4"/>
       <c r="G752" s="4"/>
     </row>
-    <row r="753" spans="1:7" ht="17.75" customHeight="1">
+    <row r="753" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A753" s="5">
         <f t="shared" si="11"/>
         <v>750</v>
@@ -10466,7 +10756,7 @@
       <c r="F753" s="4"/>
       <c r="G753" s="4"/>
     </row>
-    <row r="754" spans="1:7" ht="17.75" customHeight="1">
+    <row r="754" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A754" s="5">
         <f t="shared" si="11"/>
         <v>751</v>
@@ -10478,7 +10768,7 @@
       <c r="F754" s="4"/>
       <c r="G754" s="4"/>
     </row>
-    <row r="755" spans="1:7" ht="17.75" customHeight="1">
+    <row r="755" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A755" s="5">
         <f t="shared" si="11"/>
         <v>752</v>
@@ -10490,7 +10780,7 @@
       <c r="F755" s="4"/>
       <c r="G755" s="4"/>
     </row>
-    <row r="756" spans="1:7" ht="17.75" customHeight="1">
+    <row r="756" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A756" s="5">
         <f t="shared" si="11"/>
         <v>753</v>
@@ -10502,7 +10792,7 @@
       <c r="F756" s="4"/>
       <c r="G756" s="4"/>
     </row>
-    <row r="757" spans="1:7" ht="17.75" customHeight="1">
+    <row r="757" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A757" s="5">
         <f t="shared" si="11"/>
         <v>754</v>
@@ -10514,7 +10804,7 @@
       <c r="F757" s="4"/>
       <c r="G757" s="4"/>
     </row>
-    <row r="758" spans="1:7" ht="17.75" customHeight="1">
+    <row r="758" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A758" s="5">
         <f t="shared" si="11"/>
         <v>755</v>
@@ -10526,7 +10816,7 @@
       <c r="F758" s="4"/>
       <c r="G758" s="4"/>
     </row>
-    <row r="759" spans="1:7" ht="17.75" customHeight="1">
+    <row r="759" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A759" s="5">
         <f t="shared" si="11"/>
         <v>756</v>
@@ -10538,7 +10828,7 @@
       <c r="F759" s="4"/>
       <c r="G759" s="4"/>
     </row>
-    <row r="760" spans="1:7" ht="17.75" customHeight="1">
+    <row r="760" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A760" s="5">
         <f t="shared" si="11"/>
         <v>757</v>
@@ -10550,7 +10840,7 @@
       <c r="F760" s="4"/>
       <c r="G760" s="4"/>
     </row>
-    <row r="761" spans="1:7" ht="17.75" customHeight="1">
+    <row r="761" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A761" s="5">
         <f t="shared" si="11"/>
         <v>758</v>
@@ -10562,7 +10852,7 @@
       <c r="F761" s="4"/>
       <c r="G761" s="4"/>
     </row>
-    <row r="762" spans="1:7" ht="17.75" customHeight="1">
+    <row r="762" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A762" s="5">
         <f t="shared" si="11"/>
         <v>759</v>
@@ -10574,7 +10864,7 @@
       <c r="F762" s="4"/>
       <c r="G762" s="4"/>
     </row>
-    <row r="763" spans="1:7" ht="17.75" customHeight="1">
+    <row r="763" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A763" s="5">
         <f t="shared" si="11"/>
         <v>760</v>
@@ -10586,7 +10876,7 @@
       <c r="F763" s="4"/>
       <c r="G763" s="4"/>
     </row>
-    <row r="764" spans="1:7" ht="17.75" customHeight="1">
+    <row r="764" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A764" s="5">
         <f t="shared" si="11"/>
         <v>761</v>
@@ -10598,7 +10888,7 @@
       <c r="F764" s="4"/>
       <c r="G764" s="4"/>
     </row>
-    <row r="765" spans="1:7" ht="17.75" customHeight="1">
+    <row r="765" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A765" s="5">
         <f t="shared" si="11"/>
         <v>762</v>
@@ -10610,7 +10900,7 @@
       <c r="F765" s="4"/>
       <c r="G765" s="4"/>
     </row>
-    <row r="766" spans="1:7" ht="17.75" customHeight="1">
+    <row r="766" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A766" s="5">
         <f t="shared" si="11"/>
         <v>763</v>
@@ -10622,7 +10912,7 @@
       <c r="F766" s="4"/>
       <c r="G766" s="4"/>
     </row>
-    <row r="767" spans="1:7" ht="17.75" customHeight="1">
+    <row r="767" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A767" s="5">
         <f t="shared" si="11"/>
         <v>764</v>
@@ -10634,7 +10924,7 @@
       <c r="F767" s="4"/>
       <c r="G767" s="4"/>
     </row>
-    <row r="768" spans="1:7" ht="17.75" customHeight="1">
+    <row r="768" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A768" s="5">
         <f t="shared" si="11"/>
         <v>765</v>
@@ -10646,7 +10936,7 @@
       <c r="F768" s="4"/>
       <c r="G768" s="4"/>
     </row>
-    <row r="769" spans="1:7" ht="17.75" customHeight="1">
+    <row r="769" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A769" s="5">
         <f t="shared" si="11"/>
         <v>766</v>
@@ -10658,9 +10948,9 @@
       <c r="F769" s="4"/>
       <c r="G769" s="4"/>
     </row>
-    <row r="770" spans="1:7" ht="17.75" customHeight="1">
+    <row r="770" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A770" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="A770:A833" si="12">ROW()-3</f>
         <v>767</v>
       </c>
       <c r="B770" s="3"/>
@@ -10670,9 +10960,9 @@
       <c r="F770" s="4"/>
       <c r="G770" s="4"/>
     </row>
-    <row r="771" spans="1:7" ht="17.75" customHeight="1">
+    <row r="771" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A771" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>768</v>
       </c>
       <c r="B771" s="3"/>
@@ -10682,9 +10972,9 @@
       <c r="F771" s="4"/>
       <c r="G771" s="4"/>
     </row>
-    <row r="772" spans="1:7" ht="17.75" customHeight="1">
+    <row r="772" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A772" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>769</v>
       </c>
       <c r="B772" s="3"/>
@@ -10694,9 +10984,9 @@
       <c r="F772" s="4"/>
       <c r="G772" s="4"/>
     </row>
-    <row r="773" spans="1:7" ht="17.75" customHeight="1">
+    <row r="773" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A773" s="5">
-        <f t="shared" ref="A773:A836" si="12">ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>770</v>
       </c>
       <c r="B773" s="3"/>
@@ -10706,7 +10996,7 @@
       <c r="F773" s="4"/>
       <c r="G773" s="4"/>
     </row>
-    <row r="774" spans="1:7" ht="17.75" customHeight="1">
+    <row r="774" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A774" s="5">
         <f t="shared" si="12"/>
         <v>771</v>
@@ -10718,7 +11008,7 @@
       <c r="F774" s="4"/>
       <c r="G774" s="4"/>
     </row>
-    <row r="775" spans="1:7" ht="17.75" customHeight="1">
+    <row r="775" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A775" s="5">
         <f t="shared" si="12"/>
         <v>772</v>
@@ -10730,7 +11020,7 @@
       <c r="F775" s="4"/>
       <c r="G775" s="4"/>
     </row>
-    <row r="776" spans="1:7" ht="17.75" customHeight="1">
+    <row r="776" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A776" s="5">
         <f t="shared" si="12"/>
         <v>773</v>
@@ -10742,7 +11032,7 @@
       <c r="F776" s="4"/>
       <c r="G776" s="4"/>
     </row>
-    <row r="777" spans="1:7" ht="17.75" customHeight="1">
+    <row r="777" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A777" s="5">
         <f t="shared" si="12"/>
         <v>774</v>
@@ -10754,7 +11044,7 @@
       <c r="F777" s="4"/>
       <c r="G777" s="4"/>
     </row>
-    <row r="778" spans="1:7" ht="17.75" customHeight="1">
+    <row r="778" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A778" s="5">
         <f t="shared" si="12"/>
         <v>775</v>
@@ -10766,7 +11056,7 @@
       <c r="F778" s="4"/>
       <c r="G778" s="4"/>
     </row>
-    <row r="779" spans="1:7" ht="17.75" customHeight="1">
+    <row r="779" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A779" s="5">
         <f t="shared" si="12"/>
         <v>776</v>
@@ -10778,7 +11068,7 @@
       <c r="F779" s="4"/>
       <c r="G779" s="4"/>
     </row>
-    <row r="780" spans="1:7" ht="17.75" customHeight="1">
+    <row r="780" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A780" s="5">
         <f t="shared" si="12"/>
         <v>777</v>
@@ -10790,7 +11080,7 @@
       <c r="F780" s="4"/>
       <c r="G780" s="4"/>
     </row>
-    <row r="781" spans="1:7" ht="17.75" customHeight="1">
+    <row r="781" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A781" s="5">
         <f t="shared" si="12"/>
         <v>778</v>
@@ -10802,7 +11092,7 @@
       <c r="F781" s="4"/>
       <c r="G781" s="4"/>
     </row>
-    <row r="782" spans="1:7" ht="17.75" customHeight="1">
+    <row r="782" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A782" s="5">
         <f t="shared" si="12"/>
         <v>779</v>
@@ -10814,7 +11104,7 @@
       <c r="F782" s="4"/>
       <c r="G782" s="4"/>
     </row>
-    <row r="783" spans="1:7" ht="17.75" customHeight="1">
+    <row r="783" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A783" s="5">
         <f t="shared" si="12"/>
         <v>780</v>
@@ -10826,7 +11116,7 @@
       <c r="F783" s="4"/>
       <c r="G783" s="4"/>
     </row>
-    <row r="784" spans="1:7" ht="17.75" customHeight="1">
+    <row r="784" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A784" s="5">
         <f t="shared" si="12"/>
         <v>781</v>
@@ -10838,7 +11128,7 @@
       <c r="F784" s="4"/>
       <c r="G784" s="4"/>
     </row>
-    <row r="785" spans="1:7" ht="17.75" customHeight="1">
+    <row r="785" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A785" s="5">
         <f t="shared" si="12"/>
         <v>782</v>
@@ -10850,7 +11140,7 @@
       <c r="F785" s="4"/>
       <c r="G785" s="4"/>
     </row>
-    <row r="786" spans="1:7" ht="17.75" customHeight="1">
+    <row r="786" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A786" s="5">
         <f t="shared" si="12"/>
         <v>783</v>
@@ -10862,7 +11152,7 @@
       <c r="F786" s="4"/>
       <c r="G786" s="4"/>
     </row>
-    <row r="787" spans="1:7" ht="17.75" customHeight="1">
+    <row r="787" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A787" s="5">
         <f t="shared" si="12"/>
         <v>784</v>
@@ -10874,7 +11164,7 @@
       <c r="F787" s="4"/>
       <c r="G787" s="4"/>
     </row>
-    <row r="788" spans="1:7" ht="17.75" customHeight="1">
+    <row r="788" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A788" s="5">
         <f t="shared" si="12"/>
         <v>785</v>
@@ -10886,7 +11176,7 @@
       <c r="F788" s="4"/>
       <c r="G788" s="4"/>
     </row>
-    <row r="789" spans="1:7" ht="17.75" customHeight="1">
+    <row r="789" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A789" s="5">
         <f t="shared" si="12"/>
         <v>786</v>
@@ -10898,7 +11188,7 @@
       <c r="F789" s="4"/>
       <c r="G789" s="4"/>
     </row>
-    <row r="790" spans="1:7" ht="17.75" customHeight="1">
+    <row r="790" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A790" s="5">
         <f t="shared" si="12"/>
         <v>787</v>
@@ -10910,7 +11200,7 @@
       <c r="F790" s="4"/>
       <c r="G790" s="4"/>
     </row>
-    <row r="791" spans="1:7" ht="17.75" customHeight="1">
+    <row r="791" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A791" s="5">
         <f t="shared" si="12"/>
         <v>788</v>
@@ -10922,7 +11212,7 @@
       <c r="F791" s="4"/>
       <c r="G791" s="4"/>
     </row>
-    <row r="792" spans="1:7" ht="17.75" customHeight="1">
+    <row r="792" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A792" s="5">
         <f t="shared" si="12"/>
         <v>789</v>
@@ -10934,7 +11224,7 @@
       <c r="F792" s="4"/>
       <c r="G792" s="4"/>
     </row>
-    <row r="793" spans="1:7" ht="17.75" customHeight="1">
+    <row r="793" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A793" s="5">
         <f t="shared" si="12"/>
         <v>790</v>
@@ -10946,7 +11236,7 @@
       <c r="F793" s="4"/>
       <c r="G793" s="4"/>
     </row>
-    <row r="794" spans="1:7" ht="17.75" customHeight="1">
+    <row r="794" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A794" s="5">
         <f t="shared" si="12"/>
         <v>791</v>
@@ -10958,7 +11248,7 @@
       <c r="F794" s="4"/>
       <c r="G794" s="4"/>
     </row>
-    <row r="795" spans="1:7" ht="17.75" customHeight="1">
+    <row r="795" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A795" s="5">
         <f t="shared" si="12"/>
         <v>792</v>
@@ -10970,7 +11260,7 @@
       <c r="F795" s="4"/>
       <c r="G795" s="4"/>
     </row>
-    <row r="796" spans="1:7" ht="17.75" customHeight="1">
+    <row r="796" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A796" s="5">
         <f t="shared" si="12"/>
         <v>793</v>
@@ -10982,7 +11272,7 @@
       <c r="F796" s="4"/>
       <c r="G796" s="4"/>
     </row>
-    <row r="797" spans="1:7" ht="17.75" customHeight="1">
+    <row r="797" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A797" s="5">
         <f t="shared" si="12"/>
         <v>794</v>
@@ -10994,7 +11284,7 @@
       <c r="F797" s="4"/>
       <c r="G797" s="4"/>
     </row>
-    <row r="798" spans="1:7" ht="17.75" customHeight="1">
+    <row r="798" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A798" s="5">
         <f t="shared" si="12"/>
         <v>795</v>
@@ -11006,7 +11296,7 @@
       <c r="F798" s="4"/>
       <c r="G798" s="4"/>
     </row>
-    <row r="799" spans="1:7" ht="17.75" customHeight="1">
+    <row r="799" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A799" s="5">
         <f t="shared" si="12"/>
         <v>796</v>
@@ -11018,7 +11308,7 @@
       <c r="F799" s="4"/>
       <c r="G799" s="4"/>
     </row>
-    <row r="800" spans="1:7" ht="17.75" customHeight="1">
+    <row r="800" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A800" s="5">
         <f t="shared" si="12"/>
         <v>797</v>
@@ -11030,7 +11320,7 @@
       <c r="F800" s="4"/>
       <c r="G800" s="4"/>
     </row>
-    <row r="801" spans="1:7" ht="17.75" customHeight="1">
+    <row r="801" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A801" s="5">
         <f t="shared" si="12"/>
         <v>798</v>
@@ -11042,7 +11332,7 @@
       <c r="F801" s="4"/>
       <c r="G801" s="4"/>
     </row>
-    <row r="802" spans="1:7" ht="17.75" customHeight="1">
+    <row r="802" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A802" s="5">
         <f t="shared" si="12"/>
         <v>799</v>
@@ -11054,7 +11344,7 @@
       <c r="F802" s="4"/>
       <c r="G802" s="4"/>
     </row>
-    <row r="803" spans="1:7" ht="17.75" customHeight="1">
+    <row r="803" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A803" s="5">
         <f t="shared" si="12"/>
         <v>800</v>
@@ -11066,7 +11356,7 @@
       <c r="F803" s="4"/>
       <c r="G803" s="4"/>
     </row>
-    <row r="804" spans="1:7" ht="17.75" customHeight="1">
+    <row r="804" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A804" s="5">
         <f t="shared" si="12"/>
         <v>801</v>
@@ -11078,7 +11368,7 @@
       <c r="F804" s="4"/>
       <c r="G804" s="4"/>
     </row>
-    <row r="805" spans="1:7" ht="17.75" customHeight="1">
+    <row r="805" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A805" s="5">
         <f t="shared" si="12"/>
         <v>802</v>
@@ -11090,7 +11380,7 @@
       <c r="F805" s="4"/>
       <c r="G805" s="4"/>
     </row>
-    <row r="806" spans="1:7" ht="17.75" customHeight="1">
+    <row r="806" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A806" s="5">
         <f t="shared" si="12"/>
         <v>803</v>
@@ -11102,7 +11392,7 @@
       <c r="F806" s="4"/>
       <c r="G806" s="4"/>
     </row>
-    <row r="807" spans="1:7" ht="17.75" customHeight="1">
+    <row r="807" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A807" s="5">
         <f t="shared" si="12"/>
         <v>804</v>
@@ -11114,7 +11404,7 @@
       <c r="F807" s="4"/>
       <c r="G807" s="4"/>
     </row>
-    <row r="808" spans="1:7" ht="17.75" customHeight="1">
+    <row r="808" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A808" s="5">
         <f t="shared" si="12"/>
         <v>805</v>
@@ -11126,7 +11416,7 @@
       <c r="F808" s="4"/>
       <c r="G808" s="4"/>
     </row>
-    <row r="809" spans="1:7" ht="17.75" customHeight="1">
+    <row r="809" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A809" s="5">
         <f t="shared" si="12"/>
         <v>806</v>
@@ -11138,7 +11428,7 @@
       <c r="F809" s="4"/>
       <c r="G809" s="4"/>
     </row>
-    <row r="810" spans="1:7" ht="17.75" customHeight="1">
+    <row r="810" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A810" s="5">
         <f t="shared" si="12"/>
         <v>807</v>
@@ -11150,7 +11440,7 @@
       <c r="F810" s="4"/>
       <c r="G810" s="4"/>
     </row>
-    <row r="811" spans="1:7" ht="17.75" customHeight="1">
+    <row r="811" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A811" s="5">
         <f t="shared" si="12"/>
         <v>808</v>
@@ -11162,7 +11452,7 @@
       <c r="F811" s="4"/>
       <c r="G811" s="4"/>
     </row>
-    <row r="812" spans="1:7" ht="17.75" customHeight="1">
+    <row r="812" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A812" s="5">
         <f t="shared" si="12"/>
         <v>809</v>
@@ -11174,7 +11464,7 @@
       <c r="F812" s="4"/>
       <c r="G812" s="4"/>
     </row>
-    <row r="813" spans="1:7" ht="17.75" customHeight="1">
+    <row r="813" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A813" s="5">
         <f t="shared" si="12"/>
         <v>810</v>
@@ -11186,7 +11476,7 @@
       <c r="F813" s="4"/>
       <c r="G813" s="4"/>
     </row>
-    <row r="814" spans="1:7" ht="17.75" customHeight="1">
+    <row r="814" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A814" s="5">
         <f t="shared" si="12"/>
         <v>811</v>
@@ -11198,7 +11488,7 @@
       <c r="F814" s="4"/>
       <c r="G814" s="4"/>
     </row>
-    <row r="815" spans="1:7" ht="17.75" customHeight="1">
+    <row r="815" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A815" s="5">
         <f t="shared" si="12"/>
         <v>812</v>
@@ -11210,7 +11500,7 @@
       <c r="F815" s="4"/>
       <c r="G815" s="4"/>
     </row>
-    <row r="816" spans="1:7" ht="17.75" customHeight="1">
+    <row r="816" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A816" s="5">
         <f t="shared" si="12"/>
         <v>813</v>
@@ -11222,7 +11512,7 @@
       <c r="F816" s="4"/>
       <c r="G816" s="4"/>
     </row>
-    <row r="817" spans="1:7" ht="17.75" customHeight="1">
+    <row r="817" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A817" s="5">
         <f t="shared" si="12"/>
         <v>814</v>
@@ -11234,7 +11524,7 @@
       <c r="F817" s="4"/>
       <c r="G817" s="4"/>
     </row>
-    <row r="818" spans="1:7" ht="17.75" customHeight="1">
+    <row r="818" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A818" s="5">
         <f t="shared" si="12"/>
         <v>815</v>
@@ -11246,7 +11536,7 @@
       <c r="F818" s="4"/>
       <c r="G818" s="4"/>
     </row>
-    <row r="819" spans="1:7" ht="17.75" customHeight="1">
+    <row r="819" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A819" s="5">
         <f t="shared" si="12"/>
         <v>816</v>
@@ -11258,7 +11548,7 @@
       <c r="F819" s="4"/>
       <c r="G819" s="4"/>
     </row>
-    <row r="820" spans="1:7" ht="17.75" customHeight="1">
+    <row r="820" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A820" s="5">
         <f t="shared" si="12"/>
         <v>817</v>
@@ -11270,7 +11560,7 @@
       <c r="F820" s="4"/>
       <c r="G820" s="4"/>
     </row>
-    <row r="821" spans="1:7" ht="17.75" customHeight="1">
+    <row r="821" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A821" s="5">
         <f t="shared" si="12"/>
         <v>818</v>
@@ -11282,7 +11572,7 @@
       <c r="F821" s="4"/>
       <c r="G821" s="4"/>
     </row>
-    <row r="822" spans="1:7" ht="17.75" customHeight="1">
+    <row r="822" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A822" s="5">
         <f t="shared" si="12"/>
         <v>819</v>
@@ -11294,7 +11584,7 @@
       <c r="F822" s="4"/>
       <c r="G822" s="4"/>
     </row>
-    <row r="823" spans="1:7" ht="17.75" customHeight="1">
+    <row r="823" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A823" s="5">
         <f t="shared" si="12"/>
         <v>820</v>
@@ -11306,7 +11596,7 @@
       <c r="F823" s="4"/>
       <c r="G823" s="4"/>
     </row>
-    <row r="824" spans="1:7" ht="17.75" customHeight="1">
+    <row r="824" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A824" s="5">
         <f t="shared" si="12"/>
         <v>821</v>
@@ -11318,7 +11608,7 @@
       <c r="F824" s="4"/>
       <c r="G824" s="4"/>
     </row>
-    <row r="825" spans="1:7" ht="17.75" customHeight="1">
+    <row r="825" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A825" s="5">
         <f t="shared" si="12"/>
         <v>822</v>
@@ -11330,7 +11620,7 @@
       <c r="F825" s="4"/>
       <c r="G825" s="4"/>
     </row>
-    <row r="826" spans="1:7" ht="17.75" customHeight="1">
+    <row r="826" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A826" s="5">
         <f t="shared" si="12"/>
         <v>823</v>
@@ -11342,7 +11632,7 @@
       <c r="F826" s="4"/>
       <c r="G826" s="4"/>
     </row>
-    <row r="827" spans="1:7" ht="17.75" customHeight="1">
+    <row r="827" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A827" s="5">
         <f t="shared" si="12"/>
         <v>824</v>
@@ -11354,7 +11644,7 @@
       <c r="F827" s="4"/>
       <c r="G827" s="4"/>
     </row>
-    <row r="828" spans="1:7" ht="17.75" customHeight="1">
+    <row r="828" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A828" s="5">
         <f t="shared" si="12"/>
         <v>825</v>
@@ -11366,7 +11656,7 @@
       <c r="F828" s="4"/>
       <c r="G828" s="4"/>
     </row>
-    <row r="829" spans="1:7" ht="17.75" customHeight="1">
+    <row r="829" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A829" s="5">
         <f t="shared" si="12"/>
         <v>826</v>
@@ -11378,7 +11668,7 @@
       <c r="F829" s="4"/>
       <c r="G829" s="4"/>
     </row>
-    <row r="830" spans="1:7" ht="17.75" customHeight="1">
+    <row r="830" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A830" s="5">
         <f t="shared" si="12"/>
         <v>827</v>
@@ -11390,7 +11680,7 @@
       <c r="F830" s="4"/>
       <c r="G830" s="4"/>
     </row>
-    <row r="831" spans="1:7" ht="17.75" customHeight="1">
+    <row r="831" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A831" s="5">
         <f t="shared" si="12"/>
         <v>828</v>
@@ -11402,7 +11692,7 @@
       <c r="F831" s="4"/>
       <c r="G831" s="4"/>
     </row>
-    <row r="832" spans="1:7" ht="17.75" customHeight="1">
+    <row r="832" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A832" s="5">
         <f t="shared" si="12"/>
         <v>829</v>
@@ -11414,7 +11704,7 @@
       <c r="F832" s="4"/>
       <c r="G832" s="4"/>
     </row>
-    <row r="833" spans="1:7" ht="17.75" customHeight="1">
+    <row r="833" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A833" s="5">
         <f t="shared" si="12"/>
         <v>830</v>
@@ -11426,9 +11716,9 @@
       <c r="F833" s="4"/>
       <c r="G833" s="4"/>
     </row>
-    <row r="834" spans="1:7" ht="17.75" customHeight="1">
+    <row r="834" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A834" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="A834:A897" si="13">ROW()-3</f>
         <v>831</v>
       </c>
       <c r="B834" s="3"/>
@@ -11438,9 +11728,9 @@
       <c r="F834" s="4"/>
       <c r="G834" s="4"/>
     </row>
-    <row r="835" spans="1:7" ht="17.75" customHeight="1">
+    <row r="835" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A835" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>832</v>
       </c>
       <c r="B835" s="3"/>
@@ -11450,9 +11740,9 @@
       <c r="F835" s="4"/>
       <c r="G835" s="4"/>
     </row>
-    <row r="836" spans="1:7" ht="17.75" customHeight="1">
+    <row r="836" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A836" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>833</v>
       </c>
       <c r="B836" s="3"/>
@@ -11462,9 +11752,9 @@
       <c r="F836" s="4"/>
       <c r="G836" s="4"/>
     </row>
-    <row r="837" spans="1:7" ht="17.75" customHeight="1">
+    <row r="837" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A837" s="5">
-        <f t="shared" ref="A837:A900" si="13">ROW()-3</f>
+        <f t="shared" si="13"/>
         <v>834</v>
       </c>
       <c r="B837" s="3"/>
@@ -11474,7 +11764,7 @@
       <c r="F837" s="4"/>
       <c r="G837" s="4"/>
     </row>
-    <row r="838" spans="1:7" ht="17.75" customHeight="1">
+    <row r="838" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A838" s="5">
         <f t="shared" si="13"/>
         <v>835</v>
@@ -11486,7 +11776,7 @@
       <c r="F838" s="4"/>
       <c r="G838" s="4"/>
     </row>
-    <row r="839" spans="1:7" ht="17.75" customHeight="1">
+    <row r="839" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A839" s="5">
         <f t="shared" si="13"/>
         <v>836</v>
@@ -11498,7 +11788,7 @@
       <c r="F839" s="4"/>
       <c r="G839" s="4"/>
     </row>
-    <row r="840" spans="1:7" ht="17.75" customHeight="1">
+    <row r="840" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A840" s="5">
         <f t="shared" si="13"/>
         <v>837</v>
@@ -11510,7 +11800,7 @@
       <c r="F840" s="4"/>
       <c r="G840" s="4"/>
     </row>
-    <row r="841" spans="1:7" ht="17.75" customHeight="1">
+    <row r="841" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A841" s="5">
         <f t="shared" si="13"/>
         <v>838</v>
@@ -11522,7 +11812,7 @@
       <c r="F841" s="4"/>
       <c r="G841" s="4"/>
     </row>
-    <row r="842" spans="1:7" ht="17.75" customHeight="1">
+    <row r="842" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A842" s="5">
         <f t="shared" si="13"/>
         <v>839</v>
@@ -11534,7 +11824,7 @@
       <c r="F842" s="4"/>
       <c r="G842" s="4"/>
     </row>
-    <row r="843" spans="1:7" ht="17.75" customHeight="1">
+    <row r="843" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A843" s="5">
         <f t="shared" si="13"/>
         <v>840</v>
@@ -11546,7 +11836,7 @@
       <c r="F843" s="4"/>
       <c r="G843" s="4"/>
     </row>
-    <row r="844" spans="1:7" ht="17.75" customHeight="1">
+    <row r="844" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A844" s="5">
         <f t="shared" si="13"/>
         <v>841</v>
@@ -11558,7 +11848,7 @@
       <c r="F844" s="4"/>
       <c r="G844" s="4"/>
     </row>
-    <row r="845" spans="1:7" ht="17.75" customHeight="1">
+    <row r="845" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A845" s="5">
         <f t="shared" si="13"/>
         <v>842</v>
@@ -11570,7 +11860,7 @@
       <c r="F845" s="4"/>
       <c r="G845" s="4"/>
     </row>
-    <row r="846" spans="1:7" ht="17.75" customHeight="1">
+    <row r="846" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A846" s="5">
         <f t="shared" si="13"/>
         <v>843</v>
@@ -11582,7 +11872,7 @@
       <c r="F846" s="4"/>
       <c r="G846" s="4"/>
     </row>
-    <row r="847" spans="1:7" ht="17.75" customHeight="1">
+    <row r="847" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A847" s="5">
         <f t="shared" si="13"/>
         <v>844</v>
@@ -11594,7 +11884,7 @@
       <c r="F847" s="4"/>
       <c r="G847" s="4"/>
     </row>
-    <row r="848" spans="1:7" ht="17.75" customHeight="1">
+    <row r="848" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A848" s="5">
         <f t="shared" si="13"/>
         <v>845</v>
@@ -11606,7 +11896,7 @@
       <c r="F848" s="4"/>
       <c r="G848" s="4"/>
     </row>
-    <row r="849" spans="1:7" ht="17.75" customHeight="1">
+    <row r="849" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A849" s="5">
         <f t="shared" si="13"/>
         <v>846</v>
@@ -11618,7 +11908,7 @@
       <c r="F849" s="4"/>
       <c r="G849" s="4"/>
     </row>
-    <row r="850" spans="1:7" ht="17.75" customHeight="1">
+    <row r="850" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A850" s="5">
         <f t="shared" si="13"/>
         <v>847</v>
@@ -11630,7 +11920,7 @@
       <c r="F850" s="4"/>
       <c r="G850" s="4"/>
     </row>
-    <row r="851" spans="1:7" ht="17.75" customHeight="1">
+    <row r="851" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A851" s="5">
         <f t="shared" si="13"/>
         <v>848</v>
@@ -11642,7 +11932,7 @@
       <c r="F851" s="4"/>
       <c r="G851" s="4"/>
     </row>
-    <row r="852" spans="1:7" ht="17.75" customHeight="1">
+    <row r="852" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A852" s="5">
         <f t="shared" si="13"/>
         <v>849</v>
@@ -11654,7 +11944,7 @@
       <c r="F852" s="4"/>
       <c r="G852" s="4"/>
     </row>
-    <row r="853" spans="1:7" ht="17.75" customHeight="1">
+    <row r="853" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A853" s="5">
         <f t="shared" si="13"/>
         <v>850</v>
@@ -11666,7 +11956,7 @@
       <c r="F853" s="4"/>
       <c r="G853" s="4"/>
     </row>
-    <row r="854" spans="1:7" ht="17.75" customHeight="1">
+    <row r="854" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A854" s="5">
         <f t="shared" si="13"/>
         <v>851</v>
@@ -11678,7 +11968,7 @@
       <c r="F854" s="4"/>
       <c r="G854" s="4"/>
     </row>
-    <row r="855" spans="1:7" ht="17.75" customHeight="1">
+    <row r="855" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A855" s="5">
         <f t="shared" si="13"/>
         <v>852</v>
@@ -11690,7 +11980,7 @@
       <c r="F855" s="4"/>
       <c r="G855" s="4"/>
     </row>
-    <row r="856" spans="1:7" ht="17.75" customHeight="1">
+    <row r="856" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A856" s="5">
         <f t="shared" si="13"/>
         <v>853</v>
@@ -11702,7 +11992,7 @@
       <c r="F856" s="4"/>
       <c r="G856" s="4"/>
     </row>
-    <row r="857" spans="1:7" ht="17.75" customHeight="1">
+    <row r="857" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A857" s="5">
         <f t="shared" si="13"/>
         <v>854</v>
@@ -11714,7 +12004,7 @@
       <c r="F857" s="4"/>
       <c r="G857" s="4"/>
     </row>
-    <row r="858" spans="1:7" ht="17.75" customHeight="1">
+    <row r="858" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A858" s="5">
         <f t="shared" si="13"/>
         <v>855</v>
@@ -11726,7 +12016,7 @@
       <c r="F858" s="4"/>
       <c r="G858" s="4"/>
     </row>
-    <row r="859" spans="1:7" ht="17.75" customHeight="1">
+    <row r="859" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A859" s="5">
         <f t="shared" si="13"/>
         <v>856</v>
@@ -11738,7 +12028,7 @@
       <c r="F859" s="4"/>
       <c r="G859" s="4"/>
     </row>
-    <row r="860" spans="1:7" ht="17.75" customHeight="1">
+    <row r="860" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A860" s="5">
         <f t="shared" si="13"/>
         <v>857</v>
@@ -11750,7 +12040,7 @@
       <c r="F860" s="4"/>
       <c r="G860" s="4"/>
     </row>
-    <row r="861" spans="1:7" ht="17.75" customHeight="1">
+    <row r="861" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A861" s="5">
         <f t="shared" si="13"/>
         <v>858</v>
@@ -11762,7 +12052,7 @@
       <c r="F861" s="4"/>
       <c r="G861" s="4"/>
     </row>
-    <row r="862" spans="1:7" ht="17.75" customHeight="1">
+    <row r="862" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A862" s="5">
         <f t="shared" si="13"/>
         <v>859</v>
@@ -11774,7 +12064,7 @@
       <c r="F862" s="4"/>
       <c r="G862" s="4"/>
     </row>
-    <row r="863" spans="1:7" ht="17.75" customHeight="1">
+    <row r="863" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A863" s="5">
         <f t="shared" si="13"/>
         <v>860</v>
@@ -11786,7 +12076,7 @@
       <c r="F863" s="4"/>
       <c r="G863" s="4"/>
     </row>
-    <row r="864" spans="1:7" ht="17.75" customHeight="1">
+    <row r="864" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A864" s="5">
         <f t="shared" si="13"/>
         <v>861</v>
@@ -11798,7 +12088,7 @@
       <c r="F864" s="4"/>
       <c r="G864" s="4"/>
     </row>
-    <row r="865" spans="1:7" ht="17.75" customHeight="1">
+    <row r="865" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A865" s="5">
         <f t="shared" si="13"/>
         <v>862</v>
@@ -11810,7 +12100,7 @@
       <c r="F865" s="4"/>
       <c r="G865" s="4"/>
     </row>
-    <row r="866" spans="1:7" ht="17.75" customHeight="1">
+    <row r="866" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A866" s="5">
         <f t="shared" si="13"/>
         <v>863</v>
@@ -11822,7 +12112,7 @@
       <c r="F866" s="4"/>
       <c r="G866" s="4"/>
     </row>
-    <row r="867" spans="1:7" ht="17.75" customHeight="1">
+    <row r="867" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A867" s="5">
         <f t="shared" si="13"/>
         <v>864</v>
@@ -11834,7 +12124,7 @@
       <c r="F867" s="4"/>
       <c r="G867" s="4"/>
     </row>
-    <row r="868" spans="1:7" ht="17.75" customHeight="1">
+    <row r="868" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A868" s="5">
         <f t="shared" si="13"/>
         <v>865</v>
@@ -11846,7 +12136,7 @@
       <c r="F868" s="4"/>
       <c r="G868" s="4"/>
     </row>
-    <row r="869" spans="1:7" ht="17.75" customHeight="1">
+    <row r="869" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A869" s="5">
         <f t="shared" si="13"/>
         <v>866</v>
@@ -11858,7 +12148,7 @@
       <c r="F869" s="4"/>
       <c r="G869" s="4"/>
     </row>
-    <row r="870" spans="1:7" ht="17.75" customHeight="1">
+    <row r="870" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A870" s="5">
         <f t="shared" si="13"/>
         <v>867</v>
@@ -11870,7 +12160,7 @@
       <c r="F870" s="4"/>
       <c r="G870" s="4"/>
     </row>
-    <row r="871" spans="1:7" ht="17.75" customHeight="1">
+    <row r="871" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A871" s="5">
         <f t="shared" si="13"/>
         <v>868</v>
@@ -11882,7 +12172,7 @@
       <c r="F871" s="4"/>
       <c r="G871" s="4"/>
     </row>
-    <row r="872" spans="1:7" ht="17.75" customHeight="1">
+    <row r="872" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A872" s="5">
         <f t="shared" si="13"/>
         <v>869</v>
@@ -11894,7 +12184,7 @@
       <c r="F872" s="4"/>
       <c r="G872" s="4"/>
     </row>
-    <row r="873" spans="1:7" ht="17.75" customHeight="1">
+    <row r="873" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A873" s="5">
         <f t="shared" si="13"/>
         <v>870</v>
@@ -11906,7 +12196,7 @@
       <c r="F873" s="4"/>
       <c r="G873" s="4"/>
     </row>
-    <row r="874" spans="1:7" ht="17.75" customHeight="1">
+    <row r="874" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A874" s="5">
         <f t="shared" si="13"/>
         <v>871</v>
@@ -11918,7 +12208,7 @@
       <c r="F874" s="4"/>
       <c r="G874" s="4"/>
     </row>
-    <row r="875" spans="1:7" ht="17.75" customHeight="1">
+    <row r="875" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A875" s="5">
         <f t="shared" si="13"/>
         <v>872</v>
@@ -11930,7 +12220,7 @@
       <c r="F875" s="4"/>
       <c r="G875" s="4"/>
     </row>
-    <row r="876" spans="1:7" ht="17.75" customHeight="1">
+    <row r="876" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A876" s="5">
         <f t="shared" si="13"/>
         <v>873</v>
@@ -11942,7 +12232,7 @@
       <c r="F876" s="4"/>
       <c r="G876" s="4"/>
     </row>
-    <row r="877" spans="1:7" ht="17.75" customHeight="1">
+    <row r="877" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A877" s="5">
         <f t="shared" si="13"/>
         <v>874</v>
@@ -11954,7 +12244,7 @@
       <c r="F877" s="4"/>
       <c r="G877" s="4"/>
     </row>
-    <row r="878" spans="1:7" ht="17.75" customHeight="1">
+    <row r="878" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A878" s="5">
         <f t="shared" si="13"/>
         <v>875</v>
@@ -11966,7 +12256,7 @@
       <c r="F878" s="4"/>
       <c r="G878" s="4"/>
     </row>
-    <row r="879" spans="1:7" ht="17.75" customHeight="1">
+    <row r="879" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A879" s="5">
         <f t="shared" si="13"/>
         <v>876</v>
@@ -11978,7 +12268,7 @@
       <c r="F879" s="4"/>
       <c r="G879" s="4"/>
     </row>
-    <row r="880" spans="1:7" ht="17.75" customHeight="1">
+    <row r="880" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A880" s="5">
         <f t="shared" si="13"/>
         <v>877</v>
@@ -11990,7 +12280,7 @@
       <c r="F880" s="4"/>
       <c r="G880" s="4"/>
     </row>
-    <row r="881" spans="1:7" ht="17.75" customHeight="1">
+    <row r="881" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A881" s="5">
         <f t="shared" si="13"/>
         <v>878</v>
@@ -12002,7 +12292,7 @@
       <c r="F881" s="4"/>
       <c r="G881" s="4"/>
     </row>
-    <row r="882" spans="1:7" ht="17.75" customHeight="1">
+    <row r="882" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A882" s="5">
         <f t="shared" si="13"/>
         <v>879</v>
@@ -12014,7 +12304,7 @@
       <c r="F882" s="4"/>
       <c r="G882" s="4"/>
     </row>
-    <row r="883" spans="1:7" ht="17.75" customHeight="1">
+    <row r="883" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A883" s="5">
         <f t="shared" si="13"/>
         <v>880</v>
@@ -12026,7 +12316,7 @@
       <c r="F883" s="4"/>
       <c r="G883" s="4"/>
     </row>
-    <row r="884" spans="1:7" ht="17.75" customHeight="1">
+    <row r="884" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A884" s="5">
         <f t="shared" si="13"/>
         <v>881</v>
@@ -12038,7 +12328,7 @@
       <c r="F884" s="4"/>
       <c r="G884" s="4"/>
     </row>
-    <row r="885" spans="1:7" ht="17.75" customHeight="1">
+    <row r="885" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A885" s="5">
         <f t="shared" si="13"/>
         <v>882</v>
@@ -12050,7 +12340,7 @@
       <c r="F885" s="4"/>
       <c r="G885" s="4"/>
     </row>
-    <row r="886" spans="1:7" ht="17.75" customHeight="1">
+    <row r="886" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A886" s="5">
         <f t="shared" si="13"/>
         <v>883</v>
@@ -12062,7 +12352,7 @@
       <c r="F886" s="4"/>
       <c r="G886" s="4"/>
     </row>
-    <row r="887" spans="1:7" ht="17.75" customHeight="1">
+    <row r="887" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A887" s="5">
         <f t="shared" si="13"/>
         <v>884</v>
@@ -12074,7 +12364,7 @@
       <c r="F887" s="4"/>
       <c r="G887" s="4"/>
     </row>
-    <row r="888" spans="1:7" ht="17.75" customHeight="1">
+    <row r="888" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A888" s="5">
         <f t="shared" si="13"/>
         <v>885</v>
@@ -12086,7 +12376,7 @@
       <c r="F888" s="4"/>
       <c r="G888" s="4"/>
     </row>
-    <row r="889" spans="1:7" ht="17.75" customHeight="1">
+    <row r="889" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A889" s="5">
         <f t="shared" si="13"/>
         <v>886</v>
@@ -12098,7 +12388,7 @@
       <c r="F889" s="4"/>
       <c r="G889" s="4"/>
     </row>
-    <row r="890" spans="1:7" ht="17.75" customHeight="1">
+    <row r="890" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A890" s="5">
         <f t="shared" si="13"/>
         <v>887</v>
@@ -12110,7 +12400,7 @@
       <c r="F890" s="4"/>
       <c r="G890" s="4"/>
     </row>
-    <row r="891" spans="1:7" ht="17.75" customHeight="1">
+    <row r="891" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A891" s="5">
         <f t="shared" si="13"/>
         <v>888</v>
@@ -12122,7 +12412,7 @@
       <c r="F891" s="4"/>
       <c r="G891" s="4"/>
     </row>
-    <row r="892" spans="1:7" ht="17.75" customHeight="1">
+    <row r="892" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A892" s="5">
         <f t="shared" si="13"/>
         <v>889</v>
@@ -12134,7 +12424,7 @@
       <c r="F892" s="4"/>
       <c r="G892" s="4"/>
     </row>
-    <row r="893" spans="1:7" ht="17.75" customHeight="1">
+    <row r="893" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A893" s="5">
         <f t="shared" si="13"/>
         <v>890</v>
@@ -12146,7 +12436,7 @@
       <c r="F893" s="4"/>
       <c r="G893" s="4"/>
     </row>
-    <row r="894" spans="1:7" ht="17.75" customHeight="1">
+    <row r="894" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A894" s="5">
         <f t="shared" si="13"/>
         <v>891</v>
@@ -12158,7 +12448,7 @@
       <c r="F894" s="4"/>
       <c r="G894" s="4"/>
     </row>
-    <row r="895" spans="1:7" ht="17.75" customHeight="1">
+    <row r="895" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A895" s="5">
         <f t="shared" si="13"/>
         <v>892</v>
@@ -12170,7 +12460,7 @@
       <c r="F895" s="4"/>
       <c r="G895" s="4"/>
     </row>
-    <row r="896" spans="1:7" ht="17.75" customHeight="1">
+    <row r="896" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A896" s="5">
         <f t="shared" si="13"/>
         <v>893</v>
@@ -12182,7 +12472,7 @@
       <c r="F896" s="4"/>
       <c r="G896" s="4"/>
     </row>
-    <row r="897" spans="1:7" ht="17.75" customHeight="1">
+    <row r="897" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A897" s="5">
         <f t="shared" si="13"/>
         <v>894</v>
@@ -12194,9 +12484,9 @@
       <c r="F897" s="4"/>
       <c r="G897" s="4"/>
     </row>
-    <row r="898" spans="1:7" ht="17.75" customHeight="1">
+    <row r="898" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A898" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="A898:A961" si="14">ROW()-3</f>
         <v>895</v>
       </c>
       <c r="B898" s="3"/>
@@ -12206,9 +12496,9 @@
       <c r="F898" s="4"/>
       <c r="G898" s="4"/>
     </row>
-    <row r="899" spans="1:7" ht="17.75" customHeight="1">
+    <row r="899" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A899" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>896</v>
       </c>
       <c r="B899" s="3"/>
@@ -12218,9 +12508,9 @@
       <c r="F899" s="4"/>
       <c r="G899" s="4"/>
     </row>
-    <row r="900" spans="1:7" ht="17.75" customHeight="1">
+    <row r="900" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A900" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>897</v>
       </c>
       <c r="B900" s="3"/>
@@ -12230,9 +12520,9 @@
       <c r="F900" s="4"/>
       <c r="G900" s="4"/>
     </row>
-    <row r="901" spans="1:7" ht="17.75" customHeight="1">
+    <row r="901" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A901" s="5">
-        <f t="shared" ref="A901:A964" si="14">ROW()-3</f>
+        <f t="shared" si="14"/>
         <v>898</v>
       </c>
       <c r="B901" s="3"/>
@@ -12242,7 +12532,7 @@
       <c r="F901" s="4"/>
       <c r="G901" s="4"/>
     </row>
-    <row r="902" spans="1:7" ht="17.75" customHeight="1">
+    <row r="902" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A902" s="5">
         <f t="shared" si="14"/>
         <v>899</v>
@@ -12254,7 +12544,7 @@
       <c r="F902" s="4"/>
       <c r="G902" s="4"/>
     </row>
-    <row r="903" spans="1:7" ht="17.75" customHeight="1">
+    <row r="903" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A903" s="5">
         <f t="shared" si="14"/>
         <v>900</v>
@@ -12266,7 +12556,7 @@
       <c r="F903" s="4"/>
       <c r="G903" s="4"/>
     </row>
-    <row r="904" spans="1:7" ht="17.75" customHeight="1">
+    <row r="904" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A904" s="5">
         <f t="shared" si="14"/>
         <v>901</v>
@@ -12278,7 +12568,7 @@
       <c r="F904" s="4"/>
       <c r="G904" s="4"/>
     </row>
-    <row r="905" spans="1:7" ht="17.75" customHeight="1">
+    <row r="905" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A905" s="5">
         <f t="shared" si="14"/>
         <v>902</v>
@@ -12290,7 +12580,7 @@
       <c r="F905" s="4"/>
       <c r="G905" s="4"/>
     </row>
-    <row r="906" spans="1:7" ht="17.75" customHeight="1">
+    <row r="906" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A906" s="5">
         <f t="shared" si="14"/>
         <v>903</v>
@@ -12302,7 +12592,7 @@
       <c r="F906" s="4"/>
       <c r="G906" s="4"/>
     </row>
-    <row r="907" spans="1:7" ht="17.75" customHeight="1">
+    <row r="907" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A907" s="5">
         <f t="shared" si="14"/>
         <v>904</v>
@@ -12314,7 +12604,7 @@
       <c r="F907" s="4"/>
       <c r="G907" s="4"/>
     </row>
-    <row r="908" spans="1:7" ht="17.75" customHeight="1">
+    <row r="908" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A908" s="5">
         <f t="shared" si="14"/>
         <v>905</v>
@@ -12326,7 +12616,7 @@
       <c r="F908" s="4"/>
       <c r="G908" s="4"/>
     </row>
-    <row r="909" spans="1:7" ht="17.75" customHeight="1">
+    <row r="909" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A909" s="5">
         <f t="shared" si="14"/>
         <v>906</v>
@@ -12338,7 +12628,7 @@
       <c r="F909" s="4"/>
       <c r="G909" s="4"/>
     </row>
-    <row r="910" spans="1:7" ht="17.75" customHeight="1">
+    <row r="910" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A910" s="5">
         <f t="shared" si="14"/>
         <v>907</v>
@@ -12350,7 +12640,7 @@
       <c r="F910" s="4"/>
       <c r="G910" s="4"/>
     </row>
-    <row r="911" spans="1:7" ht="17.75" customHeight="1">
+    <row r="911" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A911" s="5">
         <f t="shared" si="14"/>
         <v>908</v>
@@ -12362,7 +12652,7 @@
       <c r="F911" s="4"/>
       <c r="G911" s="4"/>
     </row>
-    <row r="912" spans="1:7" ht="17.75" customHeight="1">
+    <row r="912" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A912" s="5">
         <f t="shared" si="14"/>
         <v>909</v>
@@ -12374,7 +12664,7 @@
       <c r="F912" s="4"/>
       <c r="G912" s="4"/>
     </row>
-    <row r="913" spans="1:7" ht="17.75" customHeight="1">
+    <row r="913" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A913" s="5">
         <f t="shared" si="14"/>
         <v>910</v>
@@ -12386,7 +12676,7 @@
       <c r="F913" s="4"/>
       <c r="G913" s="4"/>
     </row>
-    <row r="914" spans="1:7" ht="17.75" customHeight="1">
+    <row r="914" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A914" s="5">
         <f t="shared" si="14"/>
         <v>911</v>
@@ -12398,7 +12688,7 @@
       <c r="F914" s="4"/>
       <c r="G914" s="4"/>
     </row>
-    <row r="915" spans="1:7" ht="17.75" customHeight="1">
+    <row r="915" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A915" s="5">
         <f t="shared" si="14"/>
         <v>912</v>
@@ -12410,7 +12700,7 @@
       <c r="F915" s="4"/>
       <c r="G915" s="4"/>
     </row>
-    <row r="916" spans="1:7" ht="17.75" customHeight="1">
+    <row r="916" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A916" s="5">
         <f t="shared" si="14"/>
         <v>913</v>
@@ -12422,7 +12712,7 @@
       <c r="F916" s="4"/>
       <c r="G916" s="4"/>
     </row>
-    <row r="917" spans="1:7" ht="17.75" customHeight="1">
+    <row r="917" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A917" s="5">
         <f t="shared" si="14"/>
         <v>914</v>
@@ -12434,7 +12724,7 @@
       <c r="F917" s="4"/>
       <c r="G917" s="4"/>
     </row>
-    <row r="918" spans="1:7" ht="17.75" customHeight="1">
+    <row r="918" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A918" s="5">
         <f t="shared" si="14"/>
         <v>915</v>
@@ -12446,7 +12736,7 @@
       <c r="F918" s="4"/>
       <c r="G918" s="4"/>
     </row>
-    <row r="919" spans="1:7" ht="17.75" customHeight="1">
+    <row r="919" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A919" s="5">
         <f t="shared" si="14"/>
         <v>916</v>
@@ -12458,7 +12748,7 @@
       <c r="F919" s="4"/>
       <c r="G919" s="4"/>
     </row>
-    <row r="920" spans="1:7" ht="17.75" customHeight="1">
+    <row r="920" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A920" s="5">
         <f t="shared" si="14"/>
         <v>917</v>
@@ -12470,7 +12760,7 @@
       <c r="F920" s="4"/>
       <c r="G920" s="4"/>
     </row>
-    <row r="921" spans="1:7" ht="17.75" customHeight="1">
+    <row r="921" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A921" s="5">
         <f t="shared" si="14"/>
         <v>918</v>
@@ -12482,7 +12772,7 @@
       <c r="F921" s="4"/>
       <c r="G921" s="4"/>
     </row>
-    <row r="922" spans="1:7" ht="17.75" customHeight="1">
+    <row r="922" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A922" s="5">
         <f t="shared" si="14"/>
         <v>919</v>
@@ -12494,7 +12784,7 @@
       <c r="F922" s="4"/>
       <c r="G922" s="4"/>
     </row>
-    <row r="923" spans="1:7" ht="17.75" customHeight="1">
+    <row r="923" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A923" s="5">
         <f t="shared" si="14"/>
         <v>920</v>
@@ -12506,7 +12796,7 @@
       <c r="F923" s="4"/>
       <c r="G923" s="4"/>
     </row>
-    <row r="924" spans="1:7" ht="17.75" customHeight="1">
+    <row r="924" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A924" s="5">
         <f t="shared" si="14"/>
         <v>921</v>
@@ -12518,7 +12808,7 @@
       <c r="F924" s="4"/>
       <c r="G924" s="4"/>
     </row>
-    <row r="925" spans="1:7" ht="17.75" customHeight="1">
+    <row r="925" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A925" s="5">
         <f t="shared" si="14"/>
         <v>922</v>
@@ -12530,7 +12820,7 @@
       <c r="F925" s="4"/>
       <c r="G925" s="4"/>
     </row>
-    <row r="926" spans="1:7" ht="17.75" customHeight="1">
+    <row r="926" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A926" s="5">
         <f t="shared" si="14"/>
         <v>923</v>
@@ -12542,7 +12832,7 @@
       <c r="F926" s="4"/>
       <c r="G926" s="4"/>
     </row>
-    <row r="927" spans="1:7" ht="17.75" customHeight="1">
+    <row r="927" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A927" s="5">
         <f t="shared" si="14"/>
         <v>924</v>
@@ -12554,7 +12844,7 @@
       <c r="F927" s="4"/>
       <c r="G927" s="4"/>
     </row>
-    <row r="928" spans="1:7" ht="17.75" customHeight="1">
+    <row r="928" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A928" s="5">
         <f t="shared" si="14"/>
         <v>925</v>
@@ -12566,7 +12856,7 @@
       <c r="F928" s="4"/>
       <c r="G928" s="4"/>
     </row>
-    <row r="929" spans="1:7" ht="17.75" customHeight="1">
+    <row r="929" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A929" s="5">
         <f t="shared" si="14"/>
         <v>926</v>
@@ -12578,7 +12868,7 @@
       <c r="F929" s="4"/>
       <c r="G929" s="4"/>
     </row>
-    <row r="930" spans="1:7" ht="17.75" customHeight="1">
+    <row r="930" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A930" s="5">
         <f t="shared" si="14"/>
         <v>927</v>
@@ -12590,7 +12880,7 @@
       <c r="F930" s="4"/>
       <c r="G930" s="4"/>
     </row>
-    <row r="931" spans="1:7" ht="17.75" customHeight="1">
+    <row r="931" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A931" s="5">
         <f t="shared" si="14"/>
         <v>928</v>
@@ -12602,7 +12892,7 @@
       <c r="F931" s="4"/>
       <c r="G931" s="4"/>
     </row>
-    <row r="932" spans="1:7" ht="17.75" customHeight="1">
+    <row r="932" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A932" s="5">
         <f t="shared" si="14"/>
         <v>929</v>
@@ -12614,7 +12904,7 @@
       <c r="F932" s="4"/>
       <c r="G932" s="4"/>
     </row>
-    <row r="933" spans="1:7" ht="17.75" customHeight="1">
+    <row r="933" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A933" s="5">
         <f t="shared" si="14"/>
         <v>930</v>
@@ -12626,7 +12916,7 @@
       <c r="F933" s="4"/>
       <c r="G933" s="4"/>
     </row>
-    <row r="934" spans="1:7" ht="17.75" customHeight="1">
+    <row r="934" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A934" s="5">
         <f t="shared" si="14"/>
         <v>931</v>
@@ -12638,7 +12928,7 @@
       <c r="F934" s="4"/>
       <c r="G934" s="4"/>
     </row>
-    <row r="935" spans="1:7" ht="17.75" customHeight="1">
+    <row r="935" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A935" s="5">
         <f t="shared" si="14"/>
         <v>932</v>
@@ -12650,7 +12940,7 @@
       <c r="F935" s="4"/>
       <c r="G935" s="4"/>
     </row>
-    <row r="936" spans="1:7" ht="17.75" customHeight="1">
+    <row r="936" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A936" s="5">
         <f t="shared" si="14"/>
         <v>933</v>
@@ -12662,7 +12952,7 @@
       <c r="F936" s="4"/>
       <c r="G936" s="4"/>
     </row>
-    <row r="937" spans="1:7" ht="17.75" customHeight="1">
+    <row r="937" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A937" s="5">
         <f t="shared" si="14"/>
         <v>934</v>
@@ -12674,7 +12964,7 @@
       <c r="F937" s="4"/>
       <c r="G937" s="4"/>
     </row>
-    <row r="938" spans="1:7" ht="17.75" customHeight="1">
+    <row r="938" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A938" s="5">
         <f t="shared" si="14"/>
         <v>935</v>
@@ -12686,7 +12976,7 @@
       <c r="F938" s="4"/>
       <c r="G938" s="4"/>
     </row>
-    <row r="939" spans="1:7" ht="17.75" customHeight="1">
+    <row r="939" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A939" s="5">
         <f t="shared" si="14"/>
         <v>936</v>
@@ -12698,7 +12988,7 @@
       <c r="F939" s="4"/>
       <c r="G939" s="4"/>
     </row>
-    <row r="940" spans="1:7" ht="17.75" customHeight="1">
+    <row r="940" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A940" s="5">
         <f t="shared" si="14"/>
         <v>937</v>
@@ -12710,7 +13000,7 @@
       <c r="F940" s="4"/>
       <c r="G940" s="4"/>
     </row>
-    <row r="941" spans="1:7" ht="17.75" customHeight="1">
+    <row r="941" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A941" s="5">
         <f t="shared" si="14"/>
         <v>938</v>
@@ -12722,7 +13012,7 @@
       <c r="F941" s="4"/>
       <c r="G941" s="4"/>
     </row>
-    <row r="942" spans="1:7" ht="17.75" customHeight="1">
+    <row r="942" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A942" s="5">
         <f t="shared" si="14"/>
         <v>939</v>
@@ -12734,7 +13024,7 @@
       <c r="F942" s="4"/>
       <c r="G942" s="4"/>
     </row>
-    <row r="943" spans="1:7" ht="17.75" customHeight="1">
+    <row r="943" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A943" s="5">
         <f t="shared" si="14"/>
         <v>940</v>
@@ -12746,7 +13036,7 @@
       <c r="F943" s="4"/>
       <c r="G943" s="4"/>
     </row>
-    <row r="944" spans="1:7" ht="17.75" customHeight="1">
+    <row r="944" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A944" s="5">
         <f t="shared" si="14"/>
         <v>941</v>
@@ -12758,7 +13048,7 @@
       <c r="F944" s="4"/>
       <c r="G944" s="4"/>
     </row>
-    <row r="945" spans="1:7" ht="17.75" customHeight="1">
+    <row r="945" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A945" s="5">
         <f t="shared" si="14"/>
         <v>942</v>
@@ -12770,7 +13060,7 @@
       <c r="F945" s="4"/>
       <c r="G945" s="4"/>
     </row>
-    <row r="946" spans="1:7" ht="17.75" customHeight="1">
+    <row r="946" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A946" s="5">
         <f t="shared" si="14"/>
         <v>943</v>
@@ -12782,7 +13072,7 @@
       <c r="F946" s="4"/>
       <c r="G946" s="4"/>
     </row>
-    <row r="947" spans="1:7" ht="17.75" customHeight="1">
+    <row r="947" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A947" s="5">
         <f t="shared" si="14"/>
         <v>944</v>
@@ -12794,7 +13084,7 @@
       <c r="F947" s="4"/>
       <c r="G947" s="4"/>
     </row>
-    <row r="948" spans="1:7" ht="17.75" customHeight="1">
+    <row r="948" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A948" s="5">
         <f t="shared" si="14"/>
         <v>945</v>
@@ -12806,7 +13096,7 @@
       <c r="F948" s="4"/>
       <c r="G948" s="4"/>
     </row>
-    <row r="949" spans="1:7" ht="17.75" customHeight="1">
+    <row r="949" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A949" s="5">
         <f t="shared" si="14"/>
         <v>946</v>
@@ -12818,7 +13108,7 @@
       <c r="F949" s="4"/>
       <c r="G949" s="4"/>
     </row>
-    <row r="950" spans="1:7" ht="17.75" customHeight="1">
+    <row r="950" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A950" s="5">
         <f t="shared" si="14"/>
         <v>947</v>
@@ -12830,7 +13120,7 @@
       <c r="F950" s="4"/>
       <c r="G950" s="4"/>
     </row>
-    <row r="951" spans="1:7" ht="17.75" customHeight="1">
+    <row r="951" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A951" s="5">
         <f t="shared" si="14"/>
         <v>948</v>
@@ -12842,7 +13132,7 @@
       <c r="F951" s="4"/>
       <c r="G951" s="4"/>
     </row>
-    <row r="952" spans="1:7" ht="17.75" customHeight="1">
+    <row r="952" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A952" s="5">
         <f t="shared" si="14"/>
         <v>949</v>
@@ -12854,7 +13144,7 @@
       <c r="F952" s="4"/>
       <c r="G952" s="4"/>
     </row>
-    <row r="953" spans="1:7" ht="17.75" customHeight="1">
+    <row r="953" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A953" s="5">
         <f t="shared" si="14"/>
         <v>950</v>
@@ -12866,7 +13156,7 @@
       <c r="F953" s="4"/>
       <c r="G953" s="4"/>
     </row>
-    <row r="954" spans="1:7" ht="17.75" customHeight="1">
+    <row r="954" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A954" s="5">
         <f t="shared" si="14"/>
         <v>951</v>
@@ -12878,7 +13168,7 @@
       <c r="F954" s="4"/>
       <c r="G954" s="4"/>
     </row>
-    <row r="955" spans="1:7" ht="17.75" customHeight="1">
+    <row r="955" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A955" s="5">
         <f t="shared" si="14"/>
         <v>952</v>
@@ -12890,7 +13180,7 @@
       <c r="F955" s="4"/>
       <c r="G955" s="4"/>
     </row>
-    <row r="956" spans="1:7" ht="17.75" customHeight="1">
+    <row r="956" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A956" s="5">
         <f t="shared" si="14"/>
         <v>953</v>
@@ -12902,7 +13192,7 @@
       <c r="F956" s="4"/>
       <c r="G956" s="4"/>
     </row>
-    <row r="957" spans="1:7" ht="17.75" customHeight="1">
+    <row r="957" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A957" s="5">
         <f t="shared" si="14"/>
         <v>954</v>
@@ -12914,7 +13204,7 @@
       <c r="F957" s="4"/>
       <c r="G957" s="4"/>
     </row>
-    <row r="958" spans="1:7" ht="17.75" customHeight="1">
+    <row r="958" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A958" s="5">
         <f t="shared" si="14"/>
         <v>955</v>
@@ -12926,7 +13216,7 @@
       <c r="F958" s="4"/>
       <c r="G958" s="4"/>
     </row>
-    <row r="959" spans="1:7" ht="17.75" customHeight="1">
+    <row r="959" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A959" s="5">
         <f t="shared" si="14"/>
         <v>956</v>
@@ -12938,7 +13228,7 @@
       <c r="F959" s="4"/>
       <c r="G959" s="4"/>
     </row>
-    <row r="960" spans="1:7" ht="17.75" customHeight="1">
+    <row r="960" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A960" s="5">
         <f t="shared" si="14"/>
         <v>957</v>
@@ -12950,7 +13240,7 @@
       <c r="F960" s="4"/>
       <c r="G960" s="4"/>
     </row>
-    <row r="961" spans="1:7" ht="17.75" customHeight="1">
+    <row r="961" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A961" s="5">
         <f t="shared" si="14"/>
         <v>958</v>
@@ -12962,9 +13252,9 @@
       <c r="F961" s="4"/>
       <c r="G961" s="4"/>
     </row>
-    <row r="962" spans="1:7" ht="17.75" customHeight="1">
+    <row r="962" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A962" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="A962:A997" si="15">ROW()-3</f>
         <v>959</v>
       </c>
       <c r="B962" s="3"/>
@@ -12974,9 +13264,9 @@
       <c r="F962" s="4"/>
       <c r="G962" s="4"/>
     </row>
-    <row r="963" spans="1:7" ht="17.75" customHeight="1">
+    <row r="963" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A963" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>960</v>
       </c>
       <c r="B963" s="3"/>
@@ -12986,9 +13276,9 @@
       <c r="F963" s="4"/>
       <c r="G963" s="4"/>
     </row>
-    <row r="964" spans="1:7" ht="17.75" customHeight="1">
+    <row r="964" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A964" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>961</v>
       </c>
       <c r="B964" s="3"/>
@@ -12998,9 +13288,9 @@
       <c r="F964" s="4"/>
       <c r="G964" s="4"/>
     </row>
-    <row r="965" spans="1:7" ht="17.75" customHeight="1">
+    <row r="965" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A965" s="5">
-        <f t="shared" ref="A965:A1000" si="15">ROW()-3</f>
+        <f t="shared" si="15"/>
         <v>962</v>
       </c>
       <c r="B965" s="3"/>
@@ -13010,7 +13300,7 @@
       <c r="F965" s="4"/>
       <c r="G965" s="4"/>
     </row>
-    <row r="966" spans="1:7" ht="17.75" customHeight="1">
+    <row r="966" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A966" s="5">
         <f t="shared" si="15"/>
         <v>963</v>
@@ -13022,7 +13312,7 @@
       <c r="F966" s="4"/>
       <c r="G966" s="4"/>
     </row>
-    <row r="967" spans="1:7" ht="17.75" customHeight="1">
+    <row r="967" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A967" s="5">
         <f t="shared" si="15"/>
         <v>964</v>
@@ -13034,7 +13324,7 @@
       <c r="F967" s="4"/>
       <c r="G967" s="4"/>
     </row>
-    <row r="968" spans="1:7" ht="17.75" customHeight="1">
+    <row r="968" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A968" s="5">
         <f t="shared" si="15"/>
         <v>965</v>
@@ -13046,7 +13336,7 @@
       <c r="F968" s="4"/>
       <c r="G968" s="4"/>
     </row>
-    <row r="969" spans="1:7" ht="17.75" customHeight="1">
+    <row r="969" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A969" s="5">
         <f t="shared" si="15"/>
         <v>966</v>
@@ -13058,7 +13348,7 @@
       <c r="F969" s="4"/>
       <c r="G969" s="4"/>
     </row>
-    <row r="970" spans="1:7" ht="17.75" customHeight="1">
+    <row r="970" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A970" s="5">
         <f t="shared" si="15"/>
         <v>967</v>
@@ -13070,7 +13360,7 @@
       <c r="F970" s="4"/>
       <c r="G970" s="4"/>
     </row>
-    <row r="971" spans="1:7" ht="17.75" customHeight="1">
+    <row r="971" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A971" s="5">
         <f t="shared" si="15"/>
         <v>968</v>
@@ -13082,7 +13372,7 @@
       <c r="F971" s="4"/>
       <c r="G971" s="4"/>
     </row>
-    <row r="972" spans="1:7" ht="17.75" customHeight="1">
+    <row r="972" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A972" s="5">
         <f t="shared" si="15"/>
         <v>969</v>
@@ -13094,7 +13384,7 @@
       <c r="F972" s="4"/>
       <c r="G972" s="4"/>
     </row>
-    <row r="973" spans="1:7" ht="17.75" customHeight="1">
+    <row r="973" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A973" s="5">
         <f t="shared" si="15"/>
         <v>970</v>
@@ -13106,7 +13396,7 @@
       <c r="F973" s="4"/>
       <c r="G973" s="4"/>
     </row>
-    <row r="974" spans="1:7" ht="17.75" customHeight="1">
+    <row r="974" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A974" s="5">
         <f t="shared" si="15"/>
         <v>971</v>
@@ -13118,7 +13408,7 @@
       <c r="F974" s="4"/>
       <c r="G974" s="4"/>
     </row>
-    <row r="975" spans="1:7" ht="17.75" customHeight="1">
+    <row r="975" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A975" s="5">
         <f t="shared" si="15"/>
         <v>972</v>
@@ -13130,7 +13420,7 @@
       <c r="F975" s="4"/>
       <c r="G975" s="4"/>
     </row>
-    <row r="976" spans="1:7" ht="17.75" customHeight="1">
+    <row r="976" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A976" s="5">
         <f t="shared" si="15"/>
         <v>973</v>
@@ -13142,7 +13432,7 @@
       <c r="F976" s="4"/>
       <c r="G976" s="4"/>
     </row>
-    <row r="977" spans="1:7" ht="17.75" customHeight="1">
+    <row r="977" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A977" s="5">
         <f t="shared" si="15"/>
         <v>974</v>
@@ -13154,7 +13444,7 @@
       <c r="F977" s="4"/>
       <c r="G977" s="4"/>
     </row>
-    <row r="978" spans="1:7" ht="17.75" customHeight="1">
+    <row r="978" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A978" s="5">
         <f t="shared" si="15"/>
         <v>975</v>
@@ -13166,7 +13456,7 @@
       <c r="F978" s="4"/>
       <c r="G978" s="4"/>
     </row>
-    <row r="979" spans="1:7" ht="17.75" customHeight="1">
+    <row r="979" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A979" s="5">
         <f t="shared" si="15"/>
         <v>976</v>
@@ -13178,7 +13468,7 @@
       <c r="F979" s="4"/>
       <c r="G979" s="4"/>
     </row>
-    <row r="980" spans="1:7" ht="17.75" customHeight="1">
+    <row r="980" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A980" s="5">
         <f t="shared" si="15"/>
         <v>977</v>
@@ -13190,7 +13480,7 @@
       <c r="F980" s="4"/>
       <c r="G980" s="4"/>
     </row>
-    <row r="981" spans="1:7" ht="17.75" customHeight="1">
+    <row r="981" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A981" s="5">
         <f t="shared" si="15"/>
         <v>978</v>
@@ -13202,7 +13492,7 @@
       <c r="F981" s="4"/>
       <c r="G981" s="4"/>
     </row>
-    <row r="982" spans="1:7" ht="17.75" customHeight="1">
+    <row r="982" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A982" s="5">
         <f t="shared" si="15"/>
         <v>979</v>
@@ -13214,7 +13504,7 @@
       <c r="F982" s="4"/>
       <c r="G982" s="4"/>
     </row>
-    <row r="983" spans="1:7" ht="17.75" customHeight="1">
+    <row r="983" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A983" s="5">
         <f t="shared" si="15"/>
         <v>980</v>
@@ -13226,7 +13516,7 @@
       <c r="F983" s="4"/>
       <c r="G983" s="4"/>
     </row>
-    <row r="984" spans="1:7" ht="17.75" customHeight="1">
+    <row r="984" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A984" s="5">
         <f t="shared" si="15"/>
         <v>981</v>
@@ -13238,7 +13528,7 @@
       <c r="F984" s="4"/>
       <c r="G984" s="4"/>
     </row>
-    <row r="985" spans="1:7" ht="17.75" customHeight="1">
+    <row r="985" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A985" s="5">
         <f t="shared" si="15"/>
         <v>982</v>
@@ -13250,7 +13540,7 @@
       <c r="F985" s="4"/>
       <c r="G985" s="4"/>
     </row>
-    <row r="986" spans="1:7" ht="17.75" customHeight="1">
+    <row r="986" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A986" s="5">
         <f t="shared" si="15"/>
         <v>983</v>
@@ -13262,7 +13552,7 @@
       <c r="F986" s="4"/>
       <c r="G986" s="4"/>
     </row>
-    <row r="987" spans="1:7" ht="17.75" customHeight="1">
+    <row r="987" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A987" s="5">
         <f t="shared" si="15"/>
         <v>984</v>
@@ -13274,7 +13564,7 @@
       <c r="F987" s="4"/>
       <c r="G987" s="4"/>
     </row>
-    <row r="988" spans="1:7" ht="17.75" customHeight="1">
+    <row r="988" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A988" s="5">
         <f t="shared" si="15"/>
         <v>985</v>
@@ -13286,7 +13576,7 @@
       <c r="F988" s="4"/>
       <c r="G988" s="4"/>
     </row>
-    <row r="989" spans="1:7" ht="17.75" customHeight="1">
+    <row r="989" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A989" s="5">
         <f t="shared" si="15"/>
         <v>986</v>
@@ -13298,7 +13588,7 @@
       <c r="F989" s="4"/>
       <c r="G989" s="4"/>
     </row>
-    <row r="990" spans="1:7" ht="17.75" customHeight="1">
+    <row r="990" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A990" s="5">
         <f t="shared" si="15"/>
         <v>987</v>
@@ -13310,7 +13600,7 @@
       <c r="F990" s="4"/>
       <c r="G990" s="4"/>
     </row>
-    <row r="991" spans="1:7" ht="17.75" customHeight="1">
+    <row r="991" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A991" s="5">
         <f t="shared" si="15"/>
         <v>988</v>
@@ -13322,7 +13612,7 @@
       <c r="F991" s="4"/>
       <c r="G991" s="4"/>
     </row>
-    <row r="992" spans="1:7" ht="17.75" customHeight="1">
+    <row r="992" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A992" s="5">
         <f t="shared" si="15"/>
         <v>989</v>
@@ -13334,7 +13624,7 @@
       <c r="F992" s="4"/>
       <c r="G992" s="4"/>
     </row>
-    <row r="993" spans="1:7" ht="17.75" customHeight="1">
+    <row r="993" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A993" s="5">
         <f t="shared" si="15"/>
         <v>990</v>
@@ -13346,7 +13636,7 @@
       <c r="F993" s="4"/>
       <c r="G993" s="4"/>
     </row>
-    <row r="994" spans="1:7" ht="17.75" customHeight="1">
+    <row r="994" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A994" s="5">
         <f t="shared" si="15"/>
         <v>991</v>
@@ -13358,7 +13648,7 @@
       <c r="F994" s="4"/>
       <c r="G994" s="4"/>
     </row>
-    <row r="995" spans="1:7" ht="17.75" customHeight="1">
+    <row r="995" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A995" s="5">
         <f t="shared" si="15"/>
         <v>992</v>
@@ -13370,7 +13660,7 @@
       <c r="F995" s="4"/>
       <c r="G995" s="4"/>
     </row>
-    <row r="996" spans="1:7" ht="17.75" customHeight="1">
+    <row r="996" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A996" s="5">
         <f t="shared" si="15"/>
         <v>993</v>
@@ -13382,7 +13672,7 @@
       <c r="F996" s="4"/>
       <c r="G996" s="4"/>
     </row>
-    <row r="997" spans="1:7" ht="17.75" customHeight="1">
+    <row r="997" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A997" s="5">
         <f t="shared" si="15"/>
         <v>994</v>
@@ -13393,42 +13683,6 @@
       <c r="E997" s="4"/>
       <c r="F997" s="4"/>
       <c r="G997" s="4"/>
-    </row>
-    <row r="998" spans="1:7" ht="17.75" customHeight="1">
-      <c r="A998" s="5">
-        <f t="shared" si="15"/>
-        <v>995</v>
-      </c>
-      <c r="B998" s="3"/>
-      <c r="C998" s="4"/>
-      <c r="D998" s="4"/>
-      <c r="E998" s="4"/>
-      <c r="F998" s="4"/>
-      <c r="G998" s="4"/>
-    </row>
-    <row r="999" spans="1:7" ht="17.75" customHeight="1">
-      <c r="A999" s="5">
-        <f t="shared" si="15"/>
-        <v>996</v>
-      </c>
-      <c r="B999" s="3"/>
-      <c r="C999" s="4"/>
-      <c r="D999" s="4"/>
-      <c r="E999" s="4"/>
-      <c r="F999" s="4"/>
-      <c r="G999" s="4"/>
-    </row>
-    <row r="1000" spans="1:7" ht="17.75" customHeight="1">
-      <c r="A1000" s="5">
-        <f t="shared" si="15"/>
-        <v>997</v>
-      </c>
-      <c r="B1000" s="3"/>
-      <c r="C1000" s="4"/>
-      <c r="D1000" s="4"/>
-      <c r="E1000" s="4"/>
-      <c r="F1000" s="4"/>
-      <c r="G1000" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -13437,19 +13691,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451FB631-7754-4BC6-B130-862EC1AB6D90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="4" width="13.5625" customWidth="1"/>
+    <col min="1" max="4" width="13.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>34</v>
       </c>
@@ -13457,7 +13711,7 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -13471,7 +13725,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="15.75">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -13485,7 +13739,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="1" t="s">
         <v>42</v>
       </c>
@@ -13499,7 +13753,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -13513,7 +13767,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>50</v>
@@ -13525,7 +13779,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
         <v>53</v>
@@ -13537,7 +13791,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="15.75">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>56</v>
@@ -13547,7 +13801,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>58</v>
@@ -13557,7 +13811,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="15.75">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>60</v>
@@ -13567,7 +13821,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="15.75">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
@@ -13575,7 +13829,7 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="15.75">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
@@ -13583,7 +13837,7 @@
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="15.75">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">

--- a/wk/DB設計/001_テーブル定義/カラム名一覧.xlsx
+++ b/wk/DB設計/001_テーブル定義/カラム名一覧.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="250">
   <si>
     <t>No</t>
     <phoneticPr fontId="3"/>
@@ -73,16 +73,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>退職年月日</t>
-    <rPh sb="0" eb="2">
-      <t>タイショク</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ネンガッピ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>生年月日</t>
     <rPh sb="0" eb="2">
       <t>セイネン</t>
@@ -187,19 +177,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>休暇/休出理由</t>
-    <rPh sb="0" eb="2">
-      <t>キュウカ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キュウシュツ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>リユウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>作業内容</t>
     <rPh sb="0" eb="2">
       <t>サギョウ</t>
@@ -310,10 +287,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>SyainNo</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>データ型</t>
     <rPh sb="3" eb="4">
       <t>カタ</t>
@@ -462,10 +435,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>NyusyaDate</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>RetireDate</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -530,10 +499,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Reason</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>WorkContents</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -834,10 +799,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ApprovalDate</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>追加(あきもと)</t>
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
@@ -903,13 +864,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>承認日</t>
-    <rPh sb="0" eb="2">
-      <t>ショウニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ApprovalUser</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -939,6 +893,926 @@
       <t>ジュンイ</t>
     </rPh>
     <rPh sb="12" eb="14">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>休暇取得日（FROM）</t>
+    <rPh sb="0" eb="2">
+      <t>キュウカ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シュトクビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>休暇取得日（TO）</t>
+    <rPh sb="0" eb="2">
+      <t>キュウカ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>シュトクビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>休暇区分</t>
+    <rPh sb="0" eb="2">
+      <t>キュウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HolidayFrom</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HolidayTo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HolidayKbn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コード定義の「休暇区分」参照</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キュウカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>休暇日数</t>
+    <rPh sb="0" eb="2">
+      <t>キュウカ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HolidayCount</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>対象年月</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ネンゲツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>交通機関種類</t>
+    <rPh sb="0" eb="2">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入区分</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通勤区間（FROM）</t>
+    <rPh sb="0" eb="2">
+      <t>ツウキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通勤区間（TO）</t>
+    <rPh sb="0" eb="2">
+      <t>ツウキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TransKbn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コード定義の「交通機関種類」参照</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウツウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BuyKbn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コード定義の「購入区分」参照</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NUMBER</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>経費区分</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ExpenseKbn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コード定義の「経費区分」参照</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイヒ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>書籍名</t>
+    <rPh sb="0" eb="2">
+      <t>ショセキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>精算方法</t>
+    <rPh sb="0" eb="2">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>承認区分</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入理由</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特記事項</t>
+    <rPh sb="0" eb="2">
+      <t>トッキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BookName</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ApprovalKbn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>PayoffKbn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コード定義の「精算方法」参照</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイサン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コード定義の「承認区分」参照</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>購入年月日</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BuyDay</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>作業日</t>
+    <rPh sb="0" eb="2">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>休日出勤理由</t>
+    <rPh sb="0" eb="2">
+      <t>キュウジツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>振替休日取得区分</t>
+    <rPh sb="0" eb="2">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キュウジツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>クブン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>振替休日</t>
+    <rPh sb="0" eb="2">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キュウジツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>振替休日なし理由</t>
+    <rPh sb="0" eb="2">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キュウジツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リユウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TransHoliday</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TransHolidayKbn</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コード定義の「振替休日取得区分」参照</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>フリカエ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キュウジツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クブン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>WorkDay</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BuyReason</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>BuyAmount</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>NoTransReason</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HolidayWorkReason</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CommutingFeeMonth</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CommutingFeeDay</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>通勤費（1ヶ月）</t>
+    <rPh sb="0" eb="2">
+      <t>ツウキン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通勤費（1日）</t>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通勤日数</t>
+    <rPh sb="0" eb="2">
+      <t>ツウキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニッスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>CommutingCount</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>経費</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ExpenseAmount</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ExpenseContents</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>経費内容</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Notices</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CommutingYｍ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CommutingFrom</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>CommutingTo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>経費発生年月日</t>
+    <rPh sb="0" eb="2">
+      <t>ケイヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ExpenseDay</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>購入金額</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キンガク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>明細No.</t>
+    <rPh sb="0" eb="2">
+      <t>メイサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LineNo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>JoinDate</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>退社年月日</t>
+    <rPh sb="0" eb="2">
+      <t>タイシャ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ネンガッピ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>EmployeeNo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <rPh sb="0" eb="2">
+      <t>セイベツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Gender</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コード定義の「性別」参照</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>セイベツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>役職</t>
+    <rPh sb="0" eb="2">
+      <t>ヤクショク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>承認権限</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>自宅住所１</t>
+    <rPh sb="0" eb="2">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>自宅住所２</t>
+    <rPh sb="0" eb="2">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>自宅住所３</t>
+    <rPh sb="0" eb="2">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>自宅住所４</t>
+    <rPh sb="0" eb="2">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュウショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>自宅電話番号１</t>
+    <rPh sb="0" eb="2">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>自宅電話番号２</t>
+    <rPh sb="0" eb="2">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>自宅電話番号３</t>
+    <rPh sb="0" eb="2">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>携帯電話番号１</t>
+    <rPh sb="0" eb="2">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>携帯電話番号２</t>
+    <rPh sb="0" eb="2">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>携帯電話番号３</t>
+    <rPh sb="0" eb="2">
+      <t>ケイタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>デンワ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>部署</t>
+    <rPh sb="0" eb="2">
+      <t>ブショ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>グループ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Group</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Position</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ApprovalAuth</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HomeZip1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>自宅郵便番号１</t>
+    <rPh sb="0" eb="2">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユウビン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>自宅郵便番号２</t>
+    <rPh sb="0" eb="2">
+      <t>ジタク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユウビン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HomeZip2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HomeAddress1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HomeAddress2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HomeAddress3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HomeAddress4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Department</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HomePhoneNo1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HomePhoneNo2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>HomePhoneNo3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MobilePhoneNo1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MobilePhoneNo2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MobilePhoneNo3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>組織番号</t>
+    <rPh sb="0" eb="2">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>組織名</t>
+    <rPh sb="0" eb="3">
+      <t>ソシキメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>上位組織番号</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソシキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SystemNo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SystemName</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UpperSystemNo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コード定義の「役職」参照</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヤクショク</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>旧申請番号</t>
+    <rPh sb="0" eb="1">
+      <t>キュウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>OldAppNo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>曜日</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Weekday</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>コード定義の「曜日」参照</t>
+    <rPh sb="3" eb="5">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウビ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
       <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="3"/>
@@ -1324,11 +2198,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:H997"/>
+  <dimension ref="A3:H995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1346,19 +2220,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>113</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>1</v>
@@ -1373,38 +2247,38 @@
         <v>3</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E4" s="4">
         <v>10</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A5" s="5">
-        <f t="shared" ref="A5:A65" si="0">ROW()-3</f>
+        <f t="shared" ref="A5:A63" si="0">ROW()-3</f>
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E5" s="4">
         <v>50</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G5" s="4"/>
     </row>
@@ -1417,16 +2291,16 @@
         <v>5</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E6" s="4">
         <v>8</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G6" s="4"/>
     </row>
@@ -1436,19 +2310,19 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>6</v>
+        <v>201</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E7" s="4">
         <v>8</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -1458,19 +2332,19 @@
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E8" s="4">
         <v>8</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G8" s="4"/>
     </row>
@@ -1480,13 +2354,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E9" s="4">
         <v>3</v>
@@ -1500,13 +2374,13 @@
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E10" s="4">
         <v>256</v>
@@ -1520,19 +2394,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E11" s="4">
         <v>6</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G11" s="4"/>
     </row>
@@ -1542,19 +2416,19 @@
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E12" s="4">
         <v>2</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G12" s="4"/>
     </row>
@@ -1564,13 +2438,13 @@
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E13" s="4">
         <v>2</v>
@@ -1584,13 +2458,13 @@
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -1602,13 +2476,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1620,13 +2494,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -1638,13 +2512,13 @@
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1656,13 +2530,13 @@
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -1674,13 +2548,13 @@
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -1692,13 +2566,13 @@
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E20" s="4">
         <v>300</v>
@@ -1712,16 +2586,16 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E21" s="4">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1732,16 +2606,16 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E22" s="4">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1752,18 +2626,20 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E23" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F23" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="17.850000000000001" customHeight="1">
@@ -1772,20 +2648,18 @@
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E24" s="4">
-        <v>1</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>106</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="17.850000000000001" customHeight="1">
@@ -1794,19 +2668,24 @@
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E25" s="4">
-        <v>1000</v>
-      </c>
-      <c r="F25" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="G25" s="4"/>
+      <c r="H25" s="7" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A26" s="5">
@@ -1814,24 +2693,19 @@
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E26" s="4">
-        <v>3</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F26" s="4"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="7" t="s">
-        <v>123</v>
-      </c>
     </row>
     <row r="27" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A27" s="5">
@@ -1839,18 +2713,20 @@
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E27" s="4">
-        <v>100</v>
-      </c>
-      <c r="F27" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:8" ht="17.850000000000001" customHeight="1">
@@ -1859,16 +2735,20 @@
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E28" s="4">
+        <v>8</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:8" ht="17.850000000000001" customHeight="1">
@@ -1877,16 +2757,20 @@
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>100</v>
+      </c>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:8" ht="17.850000000000001" customHeight="1">
@@ -1895,20 +2779,18 @@
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E30" s="4">
-        <v>1</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>105</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:8" ht="17.850000000000001" customHeight="1">
@@ -1917,16 +2799,16 @@
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E31" s="4">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
@@ -1937,17 +2819,15 @@
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="4">
-        <v>100</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
     </row>
@@ -1957,15 +2837,17 @@
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E33" s="4">
+        <v>10</v>
+      </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
@@ -1975,17 +2857,15 @@
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E34" s="4">
-        <v>10</v>
-      </c>
+      <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
     </row>
@@ -1995,15 +2875,17 @@
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E35" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E35" s="4">
+        <v>10</v>
+      </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
     </row>
@@ -2013,18 +2895,20 @@
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E36" s="4">
-        <v>10</v>
-      </c>
-      <c r="F36" s="4"/>
       <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:8" ht="17.850000000000001" customHeight="1">
@@ -2033,20 +2917,18 @@
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="C37" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="4">
         <v>100</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>104</v>
-      </c>
+      <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:8" ht="17.850000000000001" customHeight="1">
@@ -2055,18 +2937,20 @@
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="4">
+        <v>8</v>
+      </c>
+      <c r="F38" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="4">
-        <v>100</v>
-      </c>
-      <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:8" ht="17.850000000000001" customHeight="1">
@@ -2075,21 +2959,26 @@
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2</v>
+      </c>
+      <c r="F39" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="4">
-        <v>8</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G39" s="4"/>
+      <c r="G39" s="8">
+        <v>43227</v>
+      </c>
+      <c r="H39" s="7" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A40" s="5">
@@ -2103,19 +2992,17 @@
         <v>120</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E40" s="4">
-        <v>2</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>122</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="F40" s="4"/>
       <c r="G40" s="8">
         <v>43227</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="17.850000000000001" customHeight="1">
@@ -2124,23 +3011,25 @@
         <v>38</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E41" s="4">
-        <v>100</v>
-      </c>
-      <c r="F41" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="G41" s="8">
         <v>43227</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="17.850000000000001" customHeight="1">
@@ -2149,25 +3038,23 @@
         <v>39</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E42" s="4">
-        <v>1</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>132</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="F42" s="4"/>
       <c r="G42" s="8">
         <v>43227</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="17.850000000000001" customHeight="1">
@@ -2176,23 +3063,25 @@
         <v>40</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E43" s="4">
-        <v>10</v>
-      </c>
-      <c r="F43" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="G43" s="8">
         <v>43227</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="17.850000000000001" customHeight="1">
@@ -2201,21 +3090,25 @@
         <v>41</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
+        <v>62</v>
+      </c>
+      <c r="E44" s="4">
+        <v>1</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>133</v>
+      </c>
       <c r="G44" s="8">
         <v>43227</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="17.850000000000001" customHeight="1">
@@ -2224,25 +3117,25 @@
         <v>42</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E45" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="G45" s="8">
-        <v>43227</v>
+        <v>43237</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="17.850000000000001" customHeight="1">
@@ -2251,25 +3144,25 @@
         <v>43</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="D46" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E46" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="G46" s="8">
-        <v>43227</v>
+        <v>43237</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="17.850000000000001" customHeight="1">
@@ -2277,590 +3170,1257 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
+      <c r="B47" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="4">
+        <v>1</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A48" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
+      <c r="B48" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E48" s="4">
+        <v>2</v>
+      </c>
       <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G48" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A49" s="5">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="B49" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E49" s="4">
+        <v>6</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G49" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A50" s="5">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="B50" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E50" s="4">
+        <v>2</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G50" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A51" s="5">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="B51" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G51" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H51" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A52" s="5">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
+      <c r="B52" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="4">
+        <v>30</v>
+      </c>
       <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G52" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H52" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A53" s="5">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
+      <c r="B53" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E53" s="4">
+        <v>30</v>
+      </c>
       <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G53" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H53" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A54" s="5">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
+      <c r="B54" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" s="4">
+        <v>10</v>
+      </c>
       <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G54" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H54" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A55" s="5">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
+      <c r="B55" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" s="4">
+        <v>10</v>
+      </c>
       <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G55" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H55" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A56" s="5">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
+      <c r="B56" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="4">
+        <v>2</v>
+      </c>
       <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G56" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A57" s="5">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B57" s="3"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="B57" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E57" s="4">
+        <v>2</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H57" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A58" s="5">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
+      <c r="B58" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E58" s="4">
+        <v>100</v>
+      </c>
       <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-    </row>
-    <row r="59" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G58" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H58" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A59" s="5">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B59" s="3"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
+      <c r="B59" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E59" s="4">
+        <v>10</v>
+      </c>
       <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-    </row>
-    <row r="60" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G59" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H59" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A60" s="5">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B60" s="3"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
+      <c r="B60" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E60" s="4">
+        <v>100</v>
+      </c>
       <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-    </row>
-    <row r="61" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G60" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H60" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A61" s="5">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-    </row>
-    <row r="62" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="B61" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61" s="4">
+        <v>1</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G61" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H61" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A62" s="5">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-    </row>
-    <row r="63" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="B62" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E62" s="4">
+        <v>1</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G62" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H62" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A63" s="5">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
+      <c r="B63" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63" s="4">
+        <v>300</v>
+      </c>
       <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-    </row>
-    <row r="64" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G63" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A64" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="A64:A127" si="1">ROW()-3</f>
         <v>61</v>
       </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
+      <c r="B64" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E64" s="4">
+        <v>1000</v>
+      </c>
       <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-    </row>
-    <row r="65" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G64" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H64" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A65" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-    </row>
-    <row r="66" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="B65" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E65" s="4">
+        <v>8</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G65" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H65" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A66" s="5">
-        <f t="shared" ref="A66:A129" si="1">ROW()-3</f>
+        <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
+      <c r="B66" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" s="4">
+        <v>300</v>
+      </c>
       <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-    </row>
-    <row r="67" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G66" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H66" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A67" s="5">
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="B67" s="3"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-    </row>
-    <row r="68" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="B67" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E67" s="4">
+        <v>8</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G67" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H67" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A68" s="5">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-    </row>
-    <row r="69" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="B68" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G68" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A69" s="5">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="B69" s="3"/>
-      <c r="C69" s="4"/>
-      <c r="D69" s="4"/>
-      <c r="E69" s="4"/>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-    </row>
-    <row r="70" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="B69" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E69" s="4">
+        <v>8</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G69" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H69" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A70" s="5">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
+      <c r="B70" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E70" s="4">
+        <v>300</v>
+      </c>
       <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-    </row>
-    <row r="71" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G70" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A71" s="5">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="4"/>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-    </row>
-    <row r="72" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="B71" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E71" s="4">
+        <v>8</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G71" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H71" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A72" s="5">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
+      <c r="B72" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E72" s="4">
+        <v>10</v>
+      </c>
       <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-    </row>
-    <row r="73" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G72" s="8">
+        <v>43237</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A73" s="5">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
+      <c r="B73" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E73" s="4">
+        <v>5</v>
+      </c>
       <c r="F73" s="4"/>
-      <c r="G73" s="4"/>
-    </row>
-    <row r="74" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G73" s="8">
+        <v>43238</v>
+      </c>
+      <c r="H73" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A74" s="5">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-    </row>
-    <row r="75" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="B74" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E74" s="4">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="G74" s="8">
+        <v>43238</v>
+      </c>
+      <c r="H74" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A75" s="5">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+      <c r="B75" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E75" s="4">
+        <v>2</v>
+      </c>
       <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-    </row>
-    <row r="76" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G75" s="8">
+        <v>43238</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A76" s="5">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-      <c r="B76" s="3"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+      <c r="B76" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E76" s="4">
+        <v>2</v>
+      </c>
       <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-    </row>
-    <row r="77" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G76" s="8">
+        <v>43238</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A77" s="5">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-    </row>
-    <row r="78" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="B77" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E77" s="4">
+        <v>2</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="G77" s="8">
+        <v>43238</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A78" s="5">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
+      <c r="B78" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E78" s="4">
+        <v>1</v>
+      </c>
       <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-    </row>
-    <row r="79" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G78" s="8">
+        <v>43238</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A79" s="5">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
+      <c r="B79" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E79" s="4">
+        <v>3</v>
+      </c>
       <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-    </row>
-    <row r="80" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G79" s="8">
+        <v>43238</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A80" s="5">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
+      <c r="B80" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E80" s="4">
+        <v>4</v>
+      </c>
       <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-    </row>
-    <row r="81" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G80" s="8">
+        <v>43238</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A81" s="5">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-      <c r="E81" s="4"/>
+      <c r="B81" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E81" s="4">
+        <v>50</v>
+      </c>
       <c r="F81" s="4"/>
-      <c r="G81" s="4"/>
-    </row>
-    <row r="82" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G81" s="8">
+        <v>43238</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A82" s="5">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
+      <c r="B82" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E82" s="4">
+        <v>50</v>
+      </c>
       <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-    </row>
-    <row r="83" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G82" s="8">
+        <v>43238</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A83" s="5">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4"/>
+      <c r="B83" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E83" s="4">
+        <v>50</v>
+      </c>
       <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-    </row>
-    <row r="84" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G83" s="8">
+        <v>43238</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A84" s="5">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
+      <c r="B84" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E84" s="4">
+        <v>50</v>
+      </c>
       <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-    </row>
-    <row r="85" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G84" s="8">
+        <v>43238</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A85" s="5">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
+      <c r="B85" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E85" s="4">
+        <v>5</v>
+      </c>
       <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-    </row>
-    <row r="86" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G85" s="8">
+        <v>43238</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A86" s="5">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="B86" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E86" s="4">
+        <v>5</v>
+      </c>
       <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-    </row>
-    <row r="87" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G86" s="8">
+        <v>43238</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A87" s="5">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
+      <c r="B87" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E87" s="4">
+        <v>5</v>
+      </c>
       <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-    </row>
-    <row r="88" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G87" s="8">
+        <v>43238</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A88" s="5">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
+      <c r="B88" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E88" s="4">
+        <v>5</v>
+      </c>
       <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-    </row>
-    <row r="89" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G88" s="8">
+        <v>43238</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A89" s="5">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
+      <c r="B89" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E89" s="4">
+        <v>5</v>
+      </c>
       <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-    </row>
-    <row r="90" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G89" s="8">
+        <v>43238</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A90" s="5">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
+      <c r="B90" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E90" s="4">
+        <v>5</v>
+      </c>
       <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-    </row>
-    <row r="91" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G90" s="8">
+        <v>43238</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A91" s="5">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
+      <c r="B91" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E91" s="4">
+        <v>3</v>
+      </c>
       <c r="F91" s="4"/>
-      <c r="G91" s="4"/>
-    </row>
-    <row r="92" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G91" s="8">
+        <v>43238</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A92" s="5">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
+      <c r="B92" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E92" s="4">
+        <v>30</v>
+      </c>
       <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-    </row>
-    <row r="93" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G92" s="8">
+        <v>43238</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A93" s="5">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="B93" s="3"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
+      <c r="B93" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E93" s="4">
+        <v>3</v>
+      </c>
       <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-    </row>
-    <row r="94" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G93" s="8">
+        <v>43238</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A94" s="5">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
+      <c r="B94" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E94" s="4">
+        <v>10</v>
+      </c>
       <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-    </row>
-    <row r="95" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="G94" s="8">
+        <v>43238</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A95" s="5">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-    </row>
-    <row r="96" spans="1:7" ht="17.850000000000001" customHeight="1">
+      <c r="B95" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E95" s="4">
+        <v>1</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="G95" s="8">
+        <v>43250</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="17.850000000000001" customHeight="1">
       <c r="A96" s="5">
         <f t="shared" si="1"/>
         <v>93</v>
@@ -3246,7 +4806,7 @@
     </row>
     <row r="128" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A128" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A128:A191" si="2">ROW()-3</f>
         <v>125</v>
       </c>
       <c r="B128" s="3"/>
@@ -3258,7 +4818,7 @@
     </row>
     <row r="129" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A129" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>126</v>
       </c>
       <c r="B129" s="3"/>
@@ -3270,7 +4830,7 @@
     </row>
     <row r="130" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A130" s="5">
-        <f t="shared" ref="A130:A193" si="2">ROW()-3</f>
+        <f t="shared" si="2"/>
         <v>127</v>
       </c>
       <c r="B130" s="3"/>
@@ -4014,7 +5574,7 @@
     </row>
     <row r="192" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A192" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A192:A255" si="3">ROW()-3</f>
         <v>189</v>
       </c>
       <c r="B192" s="3"/>
@@ -4026,7 +5586,7 @@
     </row>
     <row r="193" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A193" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="B193" s="3"/>
@@ -4038,7 +5598,7 @@
     </row>
     <row r="194" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A194" s="5">
-        <f t="shared" ref="A194:A257" si="3">ROW()-3</f>
+        <f t="shared" si="3"/>
         <v>191</v>
       </c>
       <c r="B194" s="3"/>
@@ -4782,7 +6342,7 @@
     </row>
     <row r="256" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A256" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="A256:A319" si="4">ROW()-3</f>
         <v>253</v>
       </c>
       <c r="B256" s="3"/>
@@ -4794,7 +6354,7 @@
     </row>
     <row r="257" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A257" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>254</v>
       </c>
       <c r="B257" s="3"/>
@@ -4806,7 +6366,7 @@
     </row>
     <row r="258" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A258" s="5">
-        <f t="shared" ref="A258:A321" si="4">ROW()-3</f>
+        <f t="shared" si="4"/>
         <v>255</v>
       </c>
       <c r="B258" s="3"/>
@@ -5550,7 +7110,7 @@
     </row>
     <row r="320" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A320" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="A320:A383" si="5">ROW()-3</f>
         <v>317</v>
       </c>
       <c r="B320" s="3"/>
@@ -5562,7 +7122,7 @@
     </row>
     <row r="321" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A321" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>318</v>
       </c>
       <c r="B321" s="3"/>
@@ -5574,7 +7134,7 @@
     </row>
     <row r="322" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A322" s="5">
-        <f t="shared" ref="A322:A385" si="5">ROW()-3</f>
+        <f t="shared" si="5"/>
         <v>319</v>
       </c>
       <c r="B322" s="3"/>
@@ -6318,7 +7878,7 @@
     </row>
     <row r="384" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A384" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="A384:A447" si="6">ROW()-3</f>
         <v>381</v>
       </c>
       <c r="B384" s="3"/>
@@ -6330,7 +7890,7 @@
     </row>
     <row r="385" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A385" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>382</v>
       </c>
       <c r="B385" s="3"/>
@@ -6342,7 +7902,7 @@
     </row>
     <row r="386" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A386" s="5">
-        <f t="shared" ref="A386:A449" si="6">ROW()-3</f>
+        <f t="shared" si="6"/>
         <v>383</v>
       </c>
       <c r="B386" s="3"/>
@@ -7086,7 +8646,7 @@
     </row>
     <row r="448" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A448" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="A448:A511" si="7">ROW()-3</f>
         <v>445</v>
       </c>
       <c r="B448" s="3"/>
@@ -7098,7 +8658,7 @@
     </row>
     <row r="449" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A449" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>446</v>
       </c>
       <c r="B449" s="3"/>
@@ -7110,7 +8670,7 @@
     </row>
     <row r="450" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A450" s="5">
-        <f t="shared" ref="A450:A513" si="7">ROW()-3</f>
+        <f t="shared" si="7"/>
         <v>447</v>
       </c>
       <c r="B450" s="3"/>
@@ -7854,7 +9414,7 @@
     </row>
     <row r="512" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A512" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="A512:A575" si="8">ROW()-3</f>
         <v>509</v>
       </c>
       <c r="B512" s="3"/>
@@ -7866,7 +9426,7 @@
     </row>
     <row r="513" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A513" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>510</v>
       </c>
       <c r="B513" s="3"/>
@@ -7878,7 +9438,7 @@
     </row>
     <row r="514" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A514" s="5">
-        <f t="shared" ref="A514:A577" si="8">ROW()-3</f>
+        <f t="shared" si="8"/>
         <v>511</v>
       </c>
       <c r="B514" s="3"/>
@@ -8622,7 +10182,7 @@
     </row>
     <row r="576" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A576" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="A576:A639" si="9">ROW()-3</f>
         <v>573</v>
       </c>
       <c r="B576" s="3"/>
@@ -8634,7 +10194,7 @@
     </row>
     <row r="577" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A577" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>574</v>
       </c>
       <c r="B577" s="3"/>
@@ -8646,7 +10206,7 @@
     </row>
     <row r="578" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A578" s="5">
-        <f t="shared" ref="A578:A641" si="9">ROW()-3</f>
+        <f t="shared" si="9"/>
         <v>575</v>
       </c>
       <c r="B578" s="3"/>
@@ -9390,7 +10950,7 @@
     </row>
     <row r="640" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A640" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="A640:A703" si="10">ROW()-3</f>
         <v>637</v>
       </c>
       <c r="B640" s="3"/>
@@ -9402,7 +10962,7 @@
     </row>
     <row r="641" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A641" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>638</v>
       </c>
       <c r="B641" s="3"/>
@@ -9414,7 +10974,7 @@
     </row>
     <row r="642" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A642" s="5">
-        <f t="shared" ref="A642:A705" si="10">ROW()-3</f>
+        <f t="shared" si="10"/>
         <v>639</v>
       </c>
       <c r="B642" s="3"/>
@@ -10158,7 +11718,7 @@
     </row>
     <row r="704" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A704" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="A704:A767" si="11">ROW()-3</f>
         <v>701</v>
       </c>
       <c r="B704" s="3"/>
@@ -10170,7 +11730,7 @@
     </row>
     <row r="705" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A705" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>702</v>
       </c>
       <c r="B705" s="3"/>
@@ -10182,7 +11742,7 @@
     </row>
     <row r="706" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A706" s="5">
-        <f t="shared" ref="A706:A769" si="11">ROW()-3</f>
+        <f t="shared" si="11"/>
         <v>703</v>
       </c>
       <c r="B706" s="3"/>
@@ -10926,7 +12486,7 @@
     </row>
     <row r="768" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A768" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="A768:A831" si="12">ROW()-3</f>
         <v>765</v>
       </c>
       <c r="B768" s="3"/>
@@ -10938,7 +12498,7 @@
     </row>
     <row r="769" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A769" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>766</v>
       </c>
       <c r="B769" s="3"/>
@@ -10950,7 +12510,7 @@
     </row>
     <row r="770" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A770" s="5">
-        <f t="shared" ref="A770:A833" si="12">ROW()-3</f>
+        <f t="shared" si="12"/>
         <v>767</v>
       </c>
       <c r="B770" s="3"/>
@@ -11694,7 +13254,7 @@
     </row>
     <row r="832" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A832" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="A832:A895" si="13">ROW()-3</f>
         <v>829</v>
       </c>
       <c r="B832" s="3"/>
@@ -11706,7 +13266,7 @@
     </row>
     <row r="833" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A833" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>830</v>
       </c>
       <c r="B833" s="3"/>
@@ -11718,7 +13278,7 @@
     </row>
     <row r="834" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A834" s="5">
-        <f t="shared" ref="A834:A897" si="13">ROW()-3</f>
+        <f t="shared" si="13"/>
         <v>831</v>
       </c>
       <c r="B834" s="3"/>
@@ -12462,7 +14022,7 @@
     </row>
     <row r="896" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A896" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="A896:A959" si="14">ROW()-3</f>
         <v>893</v>
       </c>
       <c r="B896" s="3"/>
@@ -12474,7 +14034,7 @@
     </row>
     <row r="897" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A897" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>894</v>
       </c>
       <c r="B897" s="3"/>
@@ -12486,7 +14046,7 @@
     </row>
     <row r="898" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A898" s="5">
-        <f t="shared" ref="A898:A961" si="14">ROW()-3</f>
+        <f t="shared" si="14"/>
         <v>895</v>
       </c>
       <c r="B898" s="3"/>
@@ -13230,7 +14790,7 @@
     </row>
     <row r="960" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A960" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="A960:A995" si="15">ROW()-3</f>
         <v>957</v>
       </c>
       <c r="B960" s="3"/>
@@ -13242,7 +14802,7 @@
     </row>
     <row r="961" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A961" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>958</v>
       </c>
       <c r="B961" s="3"/>
@@ -13254,7 +14814,7 @@
     </row>
     <row r="962" spans="1:7" ht="17.850000000000001" customHeight="1">
       <c r="A962" s="5">
-        <f t="shared" ref="A962:A997" si="15">ROW()-3</f>
+        <f t="shared" si="15"/>
         <v>959</v>
       </c>
       <c r="B962" s="3"/>
@@ -13659,30 +15219,6 @@
       <c r="E995" s="4"/>
       <c r="F995" s="4"/>
       <c r="G995" s="4"/>
-    </row>
-    <row r="996" spans="1:7" ht="17.850000000000001" customHeight="1">
-      <c r="A996" s="5">
-        <f t="shared" si="15"/>
-        <v>993</v>
-      </c>
-      <c r="B996" s="3"/>
-      <c r="C996" s="4"/>
-      <c r="D996" s="4"/>
-      <c r="E996" s="4"/>
-      <c r="F996" s="4"/>
-      <c r="G996" s="4"/>
-    </row>
-    <row r="997" spans="1:7" ht="17.850000000000001" customHeight="1">
-      <c r="A997" s="5">
-        <f t="shared" si="15"/>
-        <v>994</v>
-      </c>
-      <c r="B997" s="3"/>
-      <c r="C997" s="4"/>
-      <c r="D997" s="4"/>
-      <c r="E997" s="4"/>
-      <c r="F997" s="4"/>
-      <c r="G997" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -13705,7 +15241,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -13713,111 +15249,111 @@
     </row>
     <row r="2" spans="1:4" ht="15.75">
       <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75">
       <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75">
       <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75">
       <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="15.75">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="15.75">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1"/>
     </row>
@@ -13825,7 +15361,7 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -13833,7 +15369,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -13841,7 +15377,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1"/>
     </row>
